--- a/Job Testing.xlsx
+++ b/Job Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Louisiana\LA-eps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4D54F-CD4F-4CDE-AA3F-3C31AD4835F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB92B4D-FD51-4209-9EA9-8A9F64B80FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{429CCD5D-B57A-4ED4-A98F-CAA83B5DFE0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="11" xr2:uid="{429CCD5D-B57A-4ED4-A98F-CAA83B5DFE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -31,8 +31,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId13"/>
-    <pivotCache cacheId="7" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="609">
   <si>
     <t>Policy</t>
   </si>
@@ -1895,6 +1895,9 @@
   <si>
     <t>all jobs - ind fuel shifting and hydro elec (direct,indirect,induced)</t>
   </si>
+  <si>
+    <t>TOTAL POSITIVE</t>
+  </si>
 </sst>
 </file>
 
@@ -1943,7 +1946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1995,6 +1998,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,11 +2155,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2189,10 +2205,15 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2241,6 +2262,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5688,6 +5712,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7136,6 +7216,18 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7804-44C6-A246-AC01FEC35C56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -19298,7 +19390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8F61551-5EDE-49E8-B4AF-4FBAB8C387CC}" name="PivotTable1" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8F61551-5EDE-49E8-B4AF-4FBAB8C387CC}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:AE35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -19606,7 +19698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B61878C7-286A-4A99-AF85-F3F67530FD3C}" name="PivotTable3" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B61878C7-286A-4A99-AF85-F3F67530FD3C}" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:AE33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -19901,7 +19993,7 @@
     <dataField name="Sum of 2049" fld="30" baseField="0" baseItem="0"/>
     <dataField name="Sum of 2050" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="60">
+  <chartFormats count="61">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -20529,6 +20621,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="60" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20543,7 +20647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51F92BE7-96C1-4F72-A3CD-14F2B101D9CF}" name="PivotTable4" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51F92BE7-96C1-4F72-A3CD-14F2B101D9CF}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -21090,7 +21194,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EE0078-441B-450E-B0D8-8C334A5022F9}" name="PivotTable2" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EE0078-441B-450E-B0D8-8C334A5022F9}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:AE33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -21985,8 +22089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839F86F-1600-402B-BE2B-ED62F8277E33}">
   <dimension ref="A3:AE44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W63" sqref="W63"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29043,94 +29147,94 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23158</v>
+        <v>12702</v>
       </c>
       <c r="F2">
-        <v>57370</v>
+        <v>25868</v>
       </c>
       <c r="G2">
-        <v>81230</v>
+        <v>37183</v>
       </c>
       <c r="H2">
-        <v>101871</v>
+        <v>48876</v>
       </c>
       <c r="I2">
-        <v>122120</v>
+        <v>60694</v>
       </c>
       <c r="J2">
-        <v>139929</v>
+        <v>71003</v>
       </c>
       <c r="K2">
-        <v>155409</v>
+        <v>80272</v>
       </c>
       <c r="L2">
-        <v>169740</v>
+        <v>89188</v>
       </c>
       <c r="M2">
-        <v>182440</v>
+        <v>97688</v>
       </c>
       <c r="N2">
-        <v>194917</v>
+        <v>106679</v>
       </c>
       <c r="O2">
-        <v>210167</v>
+        <v>116077</v>
       </c>
       <c r="P2">
-        <v>227277</v>
+        <v>124756</v>
       </c>
       <c r="Q2">
-        <v>245076</v>
+        <v>133980</v>
       </c>
       <c r="R2">
-        <v>261137</v>
+        <v>141312</v>
       </c>
       <c r="S2">
-        <v>275966</v>
+        <v>148796</v>
       </c>
       <c r="T2">
-        <v>293125</v>
+        <v>157303</v>
       </c>
       <c r="U2">
-        <v>312222</v>
+        <v>168775</v>
       </c>
       <c r="V2">
-        <v>329400</v>
+        <v>177398</v>
       </c>
       <c r="W2">
-        <v>348682</v>
+        <v>188060</v>
       </c>
       <c r="X2">
-        <v>367657</v>
+        <v>196968</v>
       </c>
       <c r="Y2">
-        <v>381727</v>
+        <v>204047</v>
       </c>
       <c r="Z2">
-        <v>392935</v>
+        <v>207744</v>
       </c>
       <c r="AA2">
-        <v>407837</v>
+        <v>215314</v>
       </c>
       <c r="AB2">
-        <v>420355</v>
+        <v>220252</v>
       </c>
       <c r="AC2">
-        <v>431200</v>
+        <v>226120</v>
       </c>
       <c r="AD2">
-        <v>445634</v>
+        <v>233577</v>
       </c>
       <c r="AE2">
-        <v>462266</v>
+        <v>242267</v>
       </c>
       <c r="AF2">
-        <v>482277</v>
+        <v>254162</v>
       </c>
       <c r="AG2">
-        <v>503567</v>
+        <v>267045</v>
       </c>
       <c r="AH2">
-        <v>526450</v>
+        <v>280980</v>
       </c>
       <c r="AI2">
         <v>31807</v>
@@ -29150,94 +29254,94 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23158</v>
+        <v>12702</v>
       </c>
       <c r="F3">
-        <v>57474</v>
+        <v>25910</v>
       </c>
       <c r="G3">
-        <v>81393</v>
+        <v>37244</v>
       </c>
       <c r="H3">
-        <v>102035</v>
+        <v>48919</v>
       </c>
       <c r="I3">
-        <v>122184</v>
+        <v>60672</v>
       </c>
       <c r="J3">
-        <v>139856</v>
+        <v>70886</v>
       </c>
       <c r="K3">
-        <v>155276</v>
+        <v>80171</v>
       </c>
       <c r="L3">
-        <v>169419</v>
+        <v>88983</v>
       </c>
       <c r="M3">
-        <v>181950</v>
+        <v>97401</v>
       </c>
       <c r="N3">
-        <v>194323</v>
+        <v>106324</v>
       </c>
       <c r="O3">
-        <v>209537</v>
+        <v>115715</v>
       </c>
       <c r="P3">
-        <v>226659</v>
+        <v>124405</v>
       </c>
       <c r="Q3">
-        <v>244477</v>
+        <v>133659</v>
       </c>
       <c r="R3">
-        <v>260587</v>
+        <v>140995</v>
       </c>
       <c r="S3">
-        <v>275493</v>
+        <v>148514</v>
       </c>
       <c r="T3">
-        <v>292685</v>
+        <v>157064</v>
       </c>
       <c r="U3">
-        <v>311883</v>
+        <v>168583</v>
       </c>
       <c r="V3">
-        <v>329141</v>
+        <v>177247</v>
       </c>
       <c r="W3">
-        <v>348420</v>
+        <v>187934</v>
       </c>
       <c r="X3">
-        <v>367365</v>
+        <v>196826</v>
       </c>
       <c r="Y3">
-        <v>381360</v>
+        <v>203845</v>
       </c>
       <c r="Z3">
-        <v>392403</v>
+        <v>207450</v>
       </c>
       <c r="AA3">
-        <v>407037</v>
+        <v>214870</v>
       </c>
       <c r="AB3">
-        <v>419240</v>
+        <v>219626</v>
       </c>
       <c r="AC3">
-        <v>429731</v>
+        <v>225289</v>
       </c>
       <c r="AD3">
-        <v>443743</v>
+        <v>232523</v>
       </c>
       <c r="AE3">
-        <v>459937</v>
+        <v>240959</v>
       </c>
       <c r="AF3">
-        <v>479483</v>
+        <v>252613</v>
       </c>
       <c r="AG3">
-        <v>500266</v>
+        <v>265223</v>
       </c>
       <c r="AH3">
-        <v>522628</v>
+        <v>278878</v>
       </c>
       <c r="AI3">
         <v>30334</v>
@@ -29257,94 +29361,94 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23163</v>
+        <v>12707</v>
       </c>
       <c r="F4">
-        <v>57365</v>
+        <v>25863</v>
       </c>
       <c r="G4">
-        <v>81221</v>
+        <v>37160</v>
       </c>
       <c r="H4">
-        <v>101829</v>
+        <v>48814</v>
       </c>
       <c r="I4">
-        <v>122032</v>
+        <v>60618</v>
       </c>
       <c r="J4">
-        <v>139814</v>
+        <v>70903</v>
       </c>
       <c r="K4">
-        <v>155230</v>
+        <v>80114</v>
       </c>
       <c r="L4">
-        <v>169486</v>
+        <v>88984</v>
       </c>
       <c r="M4">
-        <v>182118</v>
+        <v>97428</v>
       </c>
       <c r="N4">
-        <v>194508</v>
+        <v>106364</v>
       </c>
       <c r="O4">
-        <v>209681</v>
+        <v>115699</v>
       </c>
       <c r="P4">
-        <v>226699</v>
+        <v>124312</v>
       </c>
       <c r="Q4">
-        <v>244417</v>
+        <v>133483</v>
       </c>
       <c r="R4">
-        <v>260513</v>
+        <v>140760</v>
       </c>
       <c r="S4">
-        <v>275432</v>
+        <v>148200</v>
       </c>
       <c r="T4">
-        <v>292299</v>
+        <v>156649</v>
       </c>
       <c r="U4">
-        <v>311422</v>
+        <v>168029</v>
       </c>
       <c r="V4">
-        <v>328476</v>
+        <v>176612</v>
       </c>
       <c r="W4">
-        <v>347345</v>
+        <v>187210</v>
       </c>
       <c r="X4">
-        <v>366154</v>
+        <v>196060</v>
       </c>
       <c r="Y4">
-        <v>380208</v>
+        <v>203081</v>
       </c>
       <c r="Z4">
-        <v>391414</v>
+        <v>206763</v>
       </c>
       <c r="AA4">
-        <v>406249</v>
+        <v>214224</v>
       </c>
       <c r="AB4">
-        <v>418712</v>
+        <v>219147</v>
       </c>
       <c r="AC4">
-        <v>429509</v>
+        <v>224988</v>
       </c>
       <c r="AD4">
-        <v>443877</v>
+        <v>232424</v>
       </c>
       <c r="AE4">
-        <v>460409</v>
+        <v>241045</v>
       </c>
       <c r="AF4">
-        <v>480314</v>
+        <v>252923</v>
       </c>
       <c r="AG4">
-        <v>501372</v>
+        <v>265660</v>
       </c>
       <c r="AH4">
-        <v>524154</v>
+        <v>279504</v>
       </c>
       <c r="AI4">
         <v>35843</v>
@@ -29364,94 +29468,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23140</v>
+        <v>12690</v>
       </c>
       <c r="F5">
-        <v>57395</v>
+        <v>25905</v>
       </c>
       <c r="G5">
-        <v>81336</v>
+        <v>37241</v>
       </c>
       <c r="H5">
-        <v>101853</v>
+        <v>48819</v>
       </c>
       <c r="I5">
-        <v>122024</v>
+        <v>60658</v>
       </c>
       <c r="J5">
-        <v>139832</v>
+        <v>70976</v>
       </c>
       <c r="K5">
-        <v>155300</v>
+        <v>80236</v>
       </c>
       <c r="L5">
-        <v>169624</v>
+        <v>89162</v>
       </c>
       <c r="M5">
-        <v>182372</v>
+        <v>97732</v>
       </c>
       <c r="N5">
-        <v>194889</v>
+        <v>106790</v>
       </c>
       <c r="O5">
-        <v>210107</v>
+        <v>116151</v>
       </c>
       <c r="P5">
-        <v>227303</v>
+        <v>124957</v>
       </c>
       <c r="Q5">
-        <v>245155</v>
+        <v>134236</v>
       </c>
       <c r="R5">
-        <v>261418</v>
+        <v>141673</v>
       </c>
       <c r="S5">
-        <v>276513</v>
+        <v>149244</v>
       </c>
       <c r="T5">
-        <v>293597</v>
+        <v>157978</v>
       </c>
       <c r="U5">
-        <v>312778</v>
+        <v>169290</v>
       </c>
       <c r="V5">
-        <v>329988</v>
+        <v>178010</v>
       </c>
       <c r="W5">
-        <v>348981</v>
+        <v>188681</v>
       </c>
       <c r="X5">
-        <v>367910</v>
+        <v>197636</v>
       </c>
       <c r="Y5">
-        <v>381986</v>
+        <v>204498</v>
       </c>
       <c r="Z5">
-        <v>393443</v>
+        <v>208491</v>
       </c>
       <c r="AA5">
-        <v>408389</v>
+        <v>216021</v>
       </c>
       <c r="AB5">
-        <v>420971</v>
+        <v>221051</v>
       </c>
       <c r="AC5">
-        <v>431905</v>
+        <v>227023</v>
       </c>
       <c r="AD5">
-        <v>446362</v>
+        <v>234546</v>
       </c>
       <c r="AE5">
-        <v>462984</v>
+        <v>243247</v>
       </c>
       <c r="AF5">
-        <v>483515</v>
+        <v>255665</v>
       </c>
       <c r="AG5">
-        <v>504288</v>
+        <v>267747</v>
       </c>
       <c r="AH5">
-        <v>527437</v>
+        <v>281910</v>
       </c>
       <c r="AI5">
         <v>31989</v>
@@ -29471,94 +29575,94 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23159</v>
+        <v>12705</v>
       </c>
       <c r="F6">
-        <v>56829</v>
+        <v>25326</v>
       </c>
       <c r="G6">
-        <v>79743</v>
+        <v>35700</v>
       </c>
       <c r="H6">
-        <v>99251</v>
+        <v>46275</v>
       </c>
       <c r="I6">
-        <v>118416</v>
+        <v>57159</v>
       </c>
       <c r="J6">
-        <v>135621</v>
+        <v>66969</v>
       </c>
       <c r="K6">
-        <v>150786</v>
+        <v>75974</v>
       </c>
       <c r="L6">
-        <v>165026</v>
+        <v>84677</v>
       </c>
       <c r="M6">
-        <v>177652</v>
+        <v>92929</v>
       </c>
       <c r="N6">
-        <v>190062</v>
+        <v>101508</v>
       </c>
       <c r="O6">
-        <v>205649</v>
+        <v>111139</v>
       </c>
       <c r="P6">
-        <v>223480</v>
+        <v>120248</v>
       </c>
       <c r="Q6">
-        <v>241706</v>
+        <v>129665</v>
       </c>
       <c r="R6">
-        <v>258960</v>
+        <v>137840</v>
       </c>
       <c r="S6">
-        <v>275340</v>
+        <v>146068</v>
       </c>
       <c r="T6">
-        <v>293144</v>
+        <v>154959</v>
       </c>
       <c r="U6">
-        <v>312254</v>
+        <v>165891</v>
       </c>
       <c r="V6">
-        <v>330102</v>
+        <v>174763</v>
       </c>
       <c r="W6">
-        <v>349030</v>
+        <v>185109</v>
       </c>
       <c r="X6">
-        <v>367716</v>
+        <v>193890</v>
       </c>
       <c r="Y6">
-        <v>382229</v>
+        <v>201202</v>
       </c>
       <c r="Z6">
-        <v>395470</v>
+        <v>206505</v>
       </c>
       <c r="AA6">
-        <v>410187</v>
+        <v>213463</v>
       </c>
       <c r="AB6">
-        <v>424948</v>
+        <v>220384</v>
       </c>
       <c r="AC6">
-        <v>439712</v>
+        <v>229554</v>
       </c>
       <c r="AD6">
-        <v>456184</v>
+        <v>239575</v>
       </c>
       <c r="AE6">
-        <v>475254</v>
+        <v>251541</v>
       </c>
       <c r="AF6">
-        <v>496697</v>
+        <v>264111</v>
       </c>
       <c r="AG6">
-        <v>519168</v>
+        <v>277459</v>
       </c>
       <c r="AH6">
-        <v>542263</v>
+        <v>290421</v>
       </c>
       <c r="AI6">
         <v>31748</v>
@@ -29578,94 +29682,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23212</v>
+        <v>12729</v>
       </c>
       <c r="F7">
-        <v>57372</v>
+        <v>25865</v>
       </c>
       <c r="G7">
-        <v>81222</v>
+        <v>37183</v>
       </c>
       <c r="H7">
-        <v>101861</v>
+        <v>48877</v>
       </c>
       <c r="I7">
-        <v>122107</v>
+        <v>60700</v>
       </c>
       <c r="J7">
-        <v>139923</v>
+        <v>71005</v>
       </c>
       <c r="K7">
-        <v>155413</v>
+        <v>80275</v>
       </c>
       <c r="L7">
-        <v>169749</v>
+        <v>89188</v>
       </c>
       <c r="M7">
-        <v>182455</v>
+        <v>97692</v>
       </c>
       <c r="N7">
-        <v>194925</v>
+        <v>106683</v>
       </c>
       <c r="O7">
-        <v>210172</v>
+        <v>116081</v>
       </c>
       <c r="P7">
-        <v>227270</v>
+        <v>124746</v>
       </c>
       <c r="Q7">
-        <v>245017</v>
+        <v>133948</v>
       </c>
       <c r="R7">
-        <v>261015</v>
+        <v>141225</v>
       </c>
       <c r="S7">
-        <v>275789</v>
+        <v>148676</v>
       </c>
       <c r="T7">
-        <v>292871</v>
+        <v>157146</v>
       </c>
       <c r="U7">
-        <v>311965</v>
+        <v>168625</v>
       </c>
       <c r="V7">
-        <v>329150</v>
+        <v>177249</v>
       </c>
       <c r="W7">
-        <v>348433</v>
+        <v>187932</v>
       </c>
       <c r="X7">
-        <v>367419</v>
+        <v>196840</v>
       </c>
       <c r="Y7">
-        <v>381501</v>
+        <v>203924</v>
       </c>
       <c r="Z7">
-        <v>392721</v>
+        <v>207625</v>
       </c>
       <c r="AA7">
-        <v>407622</v>
+        <v>215201</v>
       </c>
       <c r="AB7">
-        <v>420144</v>
+        <v>220153</v>
       </c>
       <c r="AC7">
-        <v>431039</v>
+        <v>226030</v>
       </c>
       <c r="AD7">
-        <v>445517</v>
+        <v>233515</v>
       </c>
       <c r="AE7">
-        <v>462200</v>
+        <v>242235</v>
       </c>
       <c r="AF7">
-        <v>482260</v>
+        <v>254157</v>
       </c>
       <c r="AG7">
-        <v>503594</v>
+        <v>267062</v>
       </c>
       <c r="AH7">
-        <v>526487</v>
+        <v>281005</v>
       </c>
       <c r="AI7">
         <v>30428</v>
@@ -29685,94 +29789,94 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22785</v>
+        <v>12382</v>
       </c>
       <c r="F8">
-        <v>55001</v>
+        <v>23521</v>
       </c>
       <c r="G8">
-        <v>77484</v>
+        <v>34356</v>
       </c>
       <c r="H8">
-        <v>98139</v>
+        <v>46271</v>
       </c>
       <c r="I8">
-        <v>118416</v>
+        <v>58098</v>
       </c>
       <c r="J8">
-        <v>136300</v>
+        <v>68245</v>
       </c>
       <c r="K8">
-        <v>152752</v>
+        <v>78116</v>
       </c>
       <c r="L8">
-        <v>168655</v>
+        <v>88117</v>
       </c>
       <c r="M8">
-        <v>182774</v>
+        <v>97218</v>
       </c>
       <c r="N8">
-        <v>196435</v>
+        <v>106541</v>
       </c>
       <c r="O8">
-        <v>213005</v>
+        <v>116701</v>
       </c>
       <c r="P8">
-        <v>231486</v>
+        <v>125935</v>
       </c>
       <c r="Q8">
-        <v>250980</v>
+        <v>136226</v>
       </c>
       <c r="R8">
-        <v>269757</v>
+        <v>145058</v>
       </c>
       <c r="S8">
-        <v>287480</v>
+        <v>153874</v>
       </c>
       <c r="T8">
-        <v>306375</v>
+        <v>163030</v>
       </c>
       <c r="U8">
-        <v>326309</v>
+        <v>174628</v>
       </c>
       <c r="V8">
-        <v>344086</v>
+        <v>183363</v>
       </c>
       <c r="W8">
-        <v>363445</v>
+        <v>194369</v>
       </c>
       <c r="X8">
-        <v>383146</v>
+        <v>203941</v>
       </c>
       <c r="Y8">
-        <v>398713</v>
+        <v>212011</v>
       </c>
       <c r="Z8">
-        <v>412305</v>
+        <v>217214</v>
       </c>
       <c r="AA8">
-        <v>429312</v>
+        <v>226055</v>
       </c>
       <c r="AB8">
-        <v>443482</v>
+        <v>231689</v>
       </c>
       <c r="AC8">
-        <v>456574</v>
+        <v>238903</v>
       </c>
       <c r="AD8">
-        <v>475835</v>
+        <v>249401</v>
       </c>
       <c r="AE8">
-        <v>499420</v>
+        <v>264312</v>
       </c>
       <c r="AF8">
-        <v>525861</v>
+        <v>280178</v>
       </c>
       <c r="AG8">
-        <v>559186</v>
+        <v>300830</v>
       </c>
       <c r="AH8">
-        <v>597909</v>
+        <v>324011</v>
       </c>
       <c r="AI8">
         <v>31804</v>
@@ -29792,94 +29896,94 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23158</v>
+        <v>12703</v>
       </c>
       <c r="F9">
-        <v>57370</v>
+        <v>25867</v>
       </c>
       <c r="G9">
-        <v>81230</v>
+        <v>37183</v>
       </c>
       <c r="H9">
-        <v>101869</v>
+        <v>48877</v>
       </c>
       <c r="I9">
-        <v>122121</v>
+        <v>60694</v>
       </c>
       <c r="J9">
-        <v>139928</v>
+        <v>71001</v>
       </c>
       <c r="K9">
-        <v>155417</v>
+        <v>80271</v>
       </c>
       <c r="L9">
-        <v>169746</v>
+        <v>89191</v>
       </c>
       <c r="M9">
-        <v>182449</v>
+        <v>97691</v>
       </c>
       <c r="N9">
-        <v>194925</v>
+        <v>106679</v>
       </c>
       <c r="O9">
-        <v>210171</v>
+        <v>116078</v>
       </c>
       <c r="P9">
-        <v>227279</v>
+        <v>124755</v>
       </c>
       <c r="Q9">
-        <v>245072</v>
+        <v>133982</v>
       </c>
       <c r="R9">
-        <v>261138</v>
+        <v>141311</v>
       </c>
       <c r="S9">
-        <v>275977</v>
+        <v>148794</v>
       </c>
       <c r="T9">
-        <v>293135</v>
+        <v>157300</v>
       </c>
       <c r="U9">
-        <v>312221</v>
+        <v>168778</v>
       </c>
       <c r="V9">
-        <v>329404</v>
+        <v>177395</v>
       </c>
       <c r="W9">
-        <v>348687</v>
+        <v>188060</v>
       </c>
       <c r="X9">
-        <v>367663</v>
+        <v>196965</v>
       </c>
       <c r="Y9">
-        <v>381734</v>
+        <v>204048</v>
       </c>
       <c r="Z9">
-        <v>392938</v>
+        <v>207749</v>
       </c>
       <c r="AA9">
-        <v>407839</v>
+        <v>215315</v>
       </c>
       <c r="AB9">
-        <v>420356</v>
+        <v>220255</v>
       </c>
       <c r="AC9">
-        <v>431208</v>
+        <v>226121</v>
       </c>
       <c r="AD9">
-        <v>445634</v>
+        <v>233583</v>
       </c>
       <c r="AE9">
-        <v>462273</v>
+        <v>242266</v>
       </c>
       <c r="AF9">
-        <v>482287</v>
+        <v>254167</v>
       </c>
       <c r="AG9">
-        <v>503580</v>
+        <v>267049</v>
       </c>
       <c r="AH9">
-        <v>526457</v>
+        <v>280984</v>
       </c>
       <c r="AI9">
         <v>31884</v>
@@ -29899,94 +30003,94 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23158</v>
+        <v>12702</v>
       </c>
       <c r="F10">
-        <v>57370</v>
+        <v>25868</v>
       </c>
       <c r="G10">
-        <v>81230</v>
+        <v>37183</v>
       </c>
       <c r="H10">
-        <v>101871</v>
+        <v>48876</v>
       </c>
       <c r="I10">
-        <v>122120</v>
+        <v>60694</v>
       </c>
       <c r="J10">
-        <v>139929</v>
+        <v>71003</v>
       </c>
       <c r="K10">
-        <v>155409</v>
+        <v>80272</v>
       </c>
       <c r="L10">
-        <v>169740</v>
+        <v>89188</v>
       </c>
       <c r="M10">
-        <v>182440</v>
+        <v>97688</v>
       </c>
       <c r="N10">
-        <v>194917</v>
+        <v>106679</v>
       </c>
       <c r="O10">
-        <v>210167</v>
+        <v>116077</v>
       </c>
       <c r="P10">
-        <v>227277</v>
+        <v>124756</v>
       </c>
       <c r="Q10">
-        <v>245076</v>
+        <v>133980</v>
       </c>
       <c r="R10">
-        <v>261137</v>
+        <v>141312</v>
       </c>
       <c r="S10">
-        <v>275966</v>
+        <v>148796</v>
       </c>
       <c r="T10">
-        <v>293125</v>
+        <v>157303</v>
       </c>
       <c r="U10">
-        <v>312222</v>
+        <v>168775</v>
       </c>
       <c r="V10">
-        <v>329400</v>
+        <v>177398</v>
       </c>
       <c r="W10">
-        <v>348682</v>
+        <v>188060</v>
       </c>
       <c r="X10">
-        <v>367657</v>
+        <v>196968</v>
       </c>
       <c r="Y10">
-        <v>381727</v>
+        <v>204047</v>
       </c>
       <c r="Z10">
-        <v>392935</v>
+        <v>207744</v>
       </c>
       <c r="AA10">
-        <v>407837</v>
+        <v>215314</v>
       </c>
       <c r="AB10">
-        <v>420355</v>
+        <v>220252</v>
       </c>
       <c r="AC10">
-        <v>431200</v>
+        <v>226120</v>
       </c>
       <c r="AD10">
-        <v>445634</v>
+        <v>233577</v>
       </c>
       <c r="AE10">
-        <v>462266</v>
+        <v>242267</v>
       </c>
       <c r="AF10">
-        <v>482277</v>
+        <v>254162</v>
       </c>
       <c r="AG10">
-        <v>503567</v>
+        <v>267045</v>
       </c>
       <c r="AH10">
-        <v>526450</v>
+        <v>280980</v>
       </c>
       <c r="AI10">
         <v>31786</v>
@@ -30006,94 +30110,94 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23206</v>
+        <v>12747</v>
       </c>
       <c r="F11">
-        <v>57450</v>
+        <v>25950</v>
       </c>
       <c r="G11">
-        <v>81318</v>
+        <v>37266</v>
       </c>
       <c r="H11">
-        <v>101969</v>
+        <v>48970</v>
       </c>
       <c r="I11">
-        <v>122199</v>
+        <v>60768</v>
       </c>
       <c r="J11">
-        <v>139962</v>
+        <v>70999</v>
       </c>
       <c r="K11">
-        <v>155408</v>
+        <v>80252</v>
       </c>
       <c r="L11">
-        <v>169719</v>
+        <v>89181</v>
       </c>
       <c r="M11">
-        <v>182426</v>
+        <v>97686</v>
       </c>
       <c r="N11">
-        <v>194915</v>
+        <v>106689</v>
       </c>
       <c r="O11">
-        <v>210162</v>
+        <v>116093</v>
       </c>
       <c r="P11">
-        <v>227279</v>
+        <v>124760</v>
       </c>
       <c r="Q11">
-        <v>245075</v>
+        <v>133997</v>
       </c>
       <c r="R11">
-        <v>261133</v>
+        <v>141314</v>
       </c>
       <c r="S11">
-        <v>275973</v>
+        <v>148790</v>
       </c>
       <c r="T11">
-        <v>293123</v>
+        <v>157296</v>
       </c>
       <c r="U11">
-        <v>312199</v>
+        <v>168771</v>
       </c>
       <c r="V11">
-        <v>329375</v>
+        <v>177380</v>
       </c>
       <c r="W11">
-        <v>348654</v>
+        <v>188048</v>
       </c>
       <c r="X11">
-        <v>367636</v>
+        <v>196956</v>
       </c>
       <c r="Y11">
-        <v>381706</v>
+        <v>204029</v>
       </c>
       <c r="Z11">
-        <v>392918</v>
+        <v>207735</v>
       </c>
       <c r="AA11">
-        <v>407821</v>
+        <v>215303</v>
       </c>
       <c r="AB11">
-        <v>420332</v>
+        <v>220237</v>
       </c>
       <c r="AC11">
-        <v>431181</v>
+        <v>226110</v>
       </c>
       <c r="AD11">
-        <v>445605</v>
+        <v>233571</v>
       </c>
       <c r="AE11">
-        <v>462246</v>
+        <v>242253</v>
       </c>
       <c r="AF11">
-        <v>482255</v>
+        <v>254147</v>
       </c>
       <c r="AG11">
-        <v>503546</v>
+        <v>267025</v>
       </c>
       <c r="AH11">
-        <v>526415</v>
+        <v>280962</v>
       </c>
       <c r="AI11">
         <v>31797</v>
@@ -30113,94 +30217,94 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22816</v>
+        <v>12268</v>
       </c>
       <c r="F12">
-        <v>56958</v>
+        <v>25458</v>
       </c>
       <c r="G12">
-        <v>80917</v>
+        <v>36907</v>
       </c>
       <c r="H12">
-        <v>101752</v>
+        <v>48746</v>
       </c>
       <c r="I12">
-        <v>122152</v>
+        <v>60699</v>
       </c>
       <c r="J12">
-        <v>140070</v>
+        <v>71098</v>
       </c>
       <c r="K12">
-        <v>155545</v>
+        <v>80348</v>
       </c>
       <c r="L12">
-        <v>169815</v>
+        <v>89241</v>
       </c>
       <c r="M12">
-        <v>182469</v>
+        <v>97694</v>
       </c>
       <c r="N12">
-        <v>194909</v>
+        <v>106676</v>
       </c>
       <c r="O12">
-        <v>210150</v>
+        <v>116061</v>
       </c>
       <c r="P12">
-        <v>227253</v>
+        <v>124731</v>
       </c>
       <c r="Q12">
-        <v>245039</v>
+        <v>133963</v>
       </c>
       <c r="R12">
-        <v>261093</v>
+        <v>141286</v>
       </c>
       <c r="S12">
-        <v>275930</v>
+        <v>148771</v>
       </c>
       <c r="T12">
-        <v>293087</v>
+        <v>157277</v>
       </c>
       <c r="U12">
-        <v>312163</v>
+        <v>168751</v>
       </c>
       <c r="V12">
-        <v>329342</v>
+        <v>177360</v>
       </c>
       <c r="W12">
-        <v>348618</v>
+        <v>188033</v>
       </c>
       <c r="X12">
-        <v>367605</v>
+        <v>196938</v>
       </c>
       <c r="Y12">
-        <v>381661</v>
+        <v>204011</v>
       </c>
       <c r="Z12">
-        <v>392868</v>
+        <v>207713</v>
       </c>
       <c r="AA12">
-        <v>407767</v>
+        <v>215281</v>
       </c>
       <c r="AB12">
-        <v>420280</v>
+        <v>220218</v>
       </c>
       <c r="AC12">
-        <v>431126</v>
+        <v>226081</v>
       </c>
       <c r="AD12">
-        <v>445557</v>
+        <v>233535</v>
       </c>
       <c r="AE12">
-        <v>462184</v>
+        <v>242222</v>
       </c>
       <c r="AF12">
-        <v>482197</v>
+        <v>254121</v>
       </c>
       <c r="AG12">
-        <v>503487</v>
+        <v>266997</v>
       </c>
       <c r="AH12">
-        <v>526354</v>
+        <v>280935</v>
       </c>
       <c r="AI12">
         <v>26828</v>
@@ -30220,94 +30324,94 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23064</v>
+        <v>12631</v>
       </c>
       <c r="F13">
-        <v>56452</v>
+        <v>25222</v>
       </c>
       <c r="G13">
-        <v>78614</v>
+        <v>35420</v>
       </c>
       <c r="H13">
-        <v>96411</v>
+        <v>45179</v>
       </c>
       <c r="I13">
-        <v>112633</v>
+        <v>54520</v>
       </c>
       <c r="J13">
-        <v>125640</v>
+        <v>62137</v>
       </c>
       <c r="K13">
-        <v>135392</v>
+        <v>68241</v>
       </c>
       <c r="L13">
-        <v>142978</v>
+        <v>73653</v>
       </c>
       <c r="M13">
-        <v>148514</v>
+        <v>78370</v>
       </c>
       <c r="N13">
-        <v>152663</v>
+        <v>82963</v>
       </c>
       <c r="O13">
-        <v>160174</v>
+        <v>88281</v>
       </c>
       <c r="P13">
-        <v>168907</v>
+        <v>92668</v>
       </c>
       <c r="Q13">
-        <v>177901</v>
+        <v>97288</v>
       </c>
       <c r="R13">
-        <v>185379</v>
+        <v>100451</v>
       </c>
       <c r="S13">
-        <v>193016</v>
+        <v>103844</v>
       </c>
       <c r="T13">
-        <v>202175</v>
+        <v>108155</v>
       </c>
       <c r="U13">
-        <v>213005</v>
+        <v>114926</v>
       </c>
       <c r="V13">
-        <v>220766</v>
+        <v>118841</v>
       </c>
       <c r="W13">
-        <v>228522</v>
+        <v>123294</v>
       </c>
       <c r="X13">
-        <v>235799</v>
+        <v>127044</v>
       </c>
       <c r="Y13">
-        <v>241319</v>
+        <v>130112</v>
       </c>
       <c r="Z13">
-        <v>246625</v>
+        <v>132483</v>
       </c>
       <c r="AA13">
-        <v>253438</v>
+        <v>135795</v>
       </c>
       <c r="AB13">
-        <v>260628</v>
+        <v>139482</v>
       </c>
       <c r="AC13">
-        <v>267665</v>
+        <v>143553</v>
       </c>
       <c r="AD13">
-        <v>275797</v>
+        <v>148805</v>
       </c>
       <c r="AE13">
-        <v>284304</v>
+        <v>153795</v>
       </c>
       <c r="AF13">
-        <v>294738</v>
+        <v>160099</v>
       </c>
       <c r="AG13">
-        <v>306473</v>
+        <v>167777</v>
       </c>
       <c r="AH13">
-        <v>317645</v>
+        <v>174977</v>
       </c>
       <c r="AI13">
         <v>31804</v>
@@ -30327,94 +30431,94 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23158</v>
+        <v>12702</v>
       </c>
       <c r="F14">
-        <v>57370</v>
+        <v>25869</v>
       </c>
       <c r="G14">
-        <v>81230</v>
+        <v>37182</v>
       </c>
       <c r="H14">
-        <v>101869</v>
+        <v>48875</v>
       </c>
       <c r="I14">
-        <v>122121</v>
+        <v>60696</v>
       </c>
       <c r="J14">
-        <v>139935</v>
+        <v>71003</v>
       </c>
       <c r="K14">
-        <v>155420</v>
+        <v>80271</v>
       </c>
       <c r="L14">
-        <v>169746</v>
+        <v>89191</v>
       </c>
       <c r="M14">
-        <v>182449</v>
+        <v>97689</v>
       </c>
       <c r="N14">
-        <v>194924</v>
+        <v>106680</v>
       </c>
       <c r="O14">
-        <v>210169</v>
+        <v>116077</v>
       </c>
       <c r="P14">
-        <v>227279</v>
+        <v>124757</v>
       </c>
       <c r="Q14">
-        <v>245072</v>
+        <v>133985</v>
       </c>
       <c r="R14">
-        <v>261138</v>
+        <v>141310</v>
       </c>
       <c r="S14">
-        <v>275976</v>
+        <v>148798</v>
       </c>
       <c r="T14">
-        <v>293137</v>
+        <v>157301</v>
       </c>
       <c r="U14">
-        <v>312220</v>
+        <v>168772</v>
       </c>
       <c r="V14">
-        <v>329404</v>
+        <v>177397</v>
       </c>
       <c r="W14">
-        <v>348687</v>
+        <v>188060</v>
       </c>
       <c r="X14">
-        <v>367662</v>
+        <v>196974</v>
       </c>
       <c r="Y14">
-        <v>381733</v>
+        <v>204048</v>
       </c>
       <c r="Z14">
-        <v>392937</v>
+        <v>207745</v>
       </c>
       <c r="AA14">
-        <v>407839</v>
+        <v>215314</v>
       </c>
       <c r="AB14">
-        <v>420355</v>
+        <v>220253</v>
       </c>
       <c r="AC14">
-        <v>431208</v>
+        <v>226119</v>
       </c>
       <c r="AD14">
-        <v>445637</v>
+        <v>233578</v>
       </c>
       <c r="AE14">
-        <v>462273</v>
+        <v>242266</v>
       </c>
       <c r="AF14">
-        <v>482286</v>
+        <v>254163</v>
       </c>
       <c r="AG14">
-        <v>503579</v>
+        <v>267043</v>
       </c>
       <c r="AH14">
-        <v>526456</v>
+        <v>280979</v>
       </c>
       <c r="AI14">
         <v>18666</v>
@@ -30434,94 +30538,94 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5207</v>
+        <v>4597</v>
       </c>
       <c r="F15">
-        <v>7204</v>
+        <v>6207</v>
       </c>
       <c r="G15">
-        <v>7985</v>
+        <v>6440</v>
       </c>
       <c r="H15">
-        <v>7872</v>
+        <v>6737</v>
       </c>
       <c r="I15">
-        <v>8149</v>
+        <v>7259</v>
       </c>
       <c r="J15">
-        <v>8499</v>
+        <v>7674</v>
       </c>
       <c r="K15">
-        <v>8864</v>
+        <v>8045</v>
       </c>
       <c r="L15">
-        <v>9549</v>
+        <v>8601</v>
       </c>
       <c r="M15">
-        <v>10059</v>
+        <v>9081</v>
       </c>
       <c r="N15">
-        <v>10336</v>
+        <v>9381</v>
       </c>
       <c r="O15">
-        <v>10234</v>
+        <v>9370</v>
       </c>
       <c r="P15">
-        <v>9831</v>
+        <v>9124</v>
       </c>
       <c r="Q15">
-        <v>9357</v>
+        <v>8821</v>
       </c>
       <c r="R15">
-        <v>8713</v>
+        <v>8580</v>
       </c>
       <c r="S15">
-        <v>8301</v>
+        <v>8432</v>
       </c>
       <c r="T15">
-        <v>8146</v>
+        <v>8563</v>
       </c>
       <c r="U15">
-        <v>8079</v>
+        <v>8815</v>
       </c>
       <c r="V15">
-        <v>8022</v>
+        <v>9047</v>
       </c>
       <c r="W15">
-        <v>7963</v>
+        <v>9286</v>
       </c>
       <c r="X15">
-        <v>8016</v>
+        <v>9619</v>
       </c>
       <c r="Y15">
-        <v>7930</v>
+        <v>9897</v>
       </c>
       <c r="Z15">
-        <v>8006</v>
+        <v>10316</v>
       </c>
       <c r="AA15">
-        <v>7890</v>
+        <v>10467</v>
       </c>
       <c r="AB15">
-        <v>7904</v>
+        <v>10697</v>
       </c>
       <c r="AC15">
-        <v>8090</v>
+        <v>11112</v>
       </c>
       <c r="AD15">
-        <v>8158</v>
+        <v>11343</v>
       </c>
       <c r="AE15">
-        <v>8742</v>
+        <v>11951</v>
       </c>
       <c r="AF15">
-        <v>9592</v>
+        <v>12737</v>
       </c>
       <c r="AG15">
-        <v>10655</v>
+        <v>13648</v>
       </c>
       <c r="AH15">
-        <v>11764</v>
+        <v>14555</v>
       </c>
       <c r="AI15">
         <v>31451</v>
@@ -30541,94 +30645,94 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23087</v>
+        <v>12640</v>
       </c>
       <c r="F16">
-        <v>57283</v>
+        <v>25804</v>
       </c>
       <c r="G16">
-        <v>81217</v>
+        <v>37209</v>
       </c>
       <c r="H16">
-        <v>101945</v>
+        <v>48976</v>
       </c>
       <c r="I16">
-        <v>122234</v>
+        <v>60824</v>
       </c>
       <c r="J16">
-        <v>140037</v>
+        <v>71095</v>
       </c>
       <c r="K16">
-        <v>155476</v>
+        <v>80329</v>
       </c>
       <c r="L16">
-        <v>169766</v>
+        <v>89217</v>
       </c>
       <c r="M16">
-        <v>182429</v>
+        <v>97687</v>
       </c>
       <c r="N16">
-        <v>194890</v>
+        <v>106664</v>
       </c>
       <c r="O16">
-        <v>210116</v>
+        <v>116060</v>
       </c>
       <c r="P16">
-        <v>227220</v>
+        <v>124736</v>
       </c>
       <c r="Q16">
-        <v>245017</v>
+        <v>133965</v>
       </c>
       <c r="R16">
-        <v>261204</v>
+        <v>141283</v>
       </c>
       <c r="S16">
-        <v>276194</v>
+        <v>148768</v>
       </c>
       <c r="T16">
-        <v>293173</v>
+        <v>157268</v>
       </c>
       <c r="U16">
-        <v>312433</v>
+        <v>168742</v>
       </c>
       <c r="V16">
-        <v>329576</v>
+        <v>177356</v>
       </c>
       <c r="W16">
-        <v>348595</v>
+        <v>188017</v>
       </c>
       <c r="X16">
-        <v>367516</v>
+        <v>196925</v>
       </c>
       <c r="Y16">
-        <v>381603</v>
+        <v>203998</v>
       </c>
       <c r="Z16">
-        <v>392830</v>
+        <v>207706</v>
       </c>
       <c r="AA16">
-        <v>407743</v>
+        <v>215273</v>
       </c>
       <c r="AB16">
-        <v>420266</v>
+        <v>220216</v>
       </c>
       <c r="AC16">
-        <v>431109</v>
+        <v>226092</v>
       </c>
       <c r="AD16">
-        <v>445542</v>
+        <v>233551</v>
       </c>
       <c r="AE16">
-        <v>462190</v>
+        <v>242232</v>
       </c>
       <c r="AF16">
-        <v>482208</v>
+        <v>254128</v>
       </c>
       <c r="AG16">
-        <v>503495</v>
+        <v>266998</v>
       </c>
       <c r="AH16">
-        <v>526375</v>
+        <v>280928</v>
       </c>
       <c r="AI16">
         <v>31792</v>
@@ -30648,94 +30752,94 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20966</v>
+        <v>11000</v>
       </c>
       <c r="F17">
-        <v>55337</v>
+        <v>24681</v>
       </c>
       <c r="G17">
-        <v>79944</v>
+        <v>36715</v>
       </c>
       <c r="H17">
-        <v>101510</v>
+        <v>48821</v>
       </c>
       <c r="I17">
-        <v>122035</v>
+        <v>60692</v>
       </c>
       <c r="J17">
-        <v>139932</v>
+        <v>71003</v>
       </c>
       <c r="K17">
-        <v>155442</v>
+        <v>80268</v>
       </c>
       <c r="L17">
-        <v>169760</v>
+        <v>89185</v>
       </c>
       <c r="M17">
-        <v>182464</v>
+        <v>97679</v>
       </c>
       <c r="N17">
-        <v>194956</v>
+        <v>106659</v>
       </c>
       <c r="O17">
-        <v>210210</v>
+        <v>116057</v>
       </c>
       <c r="P17">
-        <v>227328</v>
+        <v>124725</v>
       </c>
       <c r="Q17">
-        <v>245131</v>
+        <v>133952</v>
       </c>
       <c r="R17">
-        <v>261188</v>
+        <v>141267</v>
       </c>
       <c r="S17">
-        <v>276025</v>
+        <v>148740</v>
       </c>
       <c r="T17">
-        <v>293176</v>
+        <v>157241</v>
       </c>
       <c r="U17">
-        <v>312262</v>
+        <v>168707</v>
       </c>
       <c r="V17">
-        <v>329429</v>
+        <v>177310</v>
       </c>
       <c r="W17">
-        <v>348702</v>
+        <v>187974</v>
       </c>
       <c r="X17">
-        <v>367692</v>
+        <v>196870</v>
       </c>
       <c r="Y17">
-        <v>381748</v>
+        <v>203934</v>
       </c>
       <c r="Z17">
-        <v>392950</v>
+        <v>207622</v>
       </c>
       <c r="AA17">
-        <v>407863</v>
+        <v>215183</v>
       </c>
       <c r="AB17">
-        <v>420367</v>
+        <v>220101</v>
       </c>
       <c r="AC17">
-        <v>431212</v>
+        <v>225970</v>
       </c>
       <c r="AD17">
-        <v>445635</v>
+        <v>233409</v>
       </c>
       <c r="AE17">
-        <v>462270</v>
+        <v>242085</v>
       </c>
       <c r="AF17">
-        <v>482272</v>
+        <v>253958</v>
       </c>
       <c r="AG17">
-        <v>503515</v>
+        <v>266813</v>
       </c>
       <c r="AH17">
-        <v>526240</v>
+        <v>280699</v>
       </c>
       <c r="AI17">
         <v>28355</v>
@@ -30755,94 +30859,94 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23162</v>
+        <v>12694</v>
       </c>
       <c r="F18">
-        <v>57356</v>
+        <v>25833</v>
       </c>
       <c r="G18">
-        <v>81212</v>
+        <v>37108</v>
       </c>
       <c r="H18">
-        <v>101830</v>
+        <v>48742</v>
       </c>
       <c r="I18">
-        <v>122035</v>
+        <v>60523</v>
       </c>
       <c r="J18">
-        <v>139817</v>
+        <v>70797</v>
       </c>
       <c r="K18">
-        <v>155255</v>
+        <v>79999</v>
       </c>
       <c r="L18">
-        <v>169558</v>
+        <v>88840</v>
       </c>
       <c r="M18">
-        <v>182220</v>
+        <v>97274</v>
       </c>
       <c r="N18">
-        <v>194671</v>
+        <v>106002</v>
       </c>
       <c r="O18">
-        <v>209894</v>
+        <v>115466</v>
       </c>
       <c r="P18">
-        <v>226963</v>
+        <v>124091</v>
       </c>
       <c r="Q18">
-        <v>244731</v>
+        <v>133251</v>
       </c>
       <c r="R18">
-        <v>260876</v>
+        <v>140500</v>
       </c>
       <c r="S18">
-        <v>275858</v>
+        <v>147916</v>
       </c>
       <c r="T18">
-        <v>292777</v>
+        <v>156348</v>
       </c>
       <c r="U18">
-        <v>311971</v>
+        <v>167716</v>
       </c>
       <c r="V18">
-        <v>329109</v>
+        <v>176279</v>
       </c>
       <c r="W18">
-        <v>348110</v>
+        <v>186870</v>
       </c>
       <c r="X18">
-        <v>367012</v>
+        <v>195726</v>
       </c>
       <c r="Y18">
-        <v>381087</v>
+        <v>202729</v>
       </c>
       <c r="Z18">
-        <v>392320</v>
+        <v>206403</v>
       </c>
       <c r="AA18">
-        <v>407226</v>
+        <v>213890</v>
       </c>
       <c r="AB18">
-        <v>419732</v>
+        <v>218805</v>
       </c>
       <c r="AC18">
-        <v>430612</v>
+        <v>224628</v>
       </c>
       <c r="AD18">
-        <v>445045</v>
+        <v>232054</v>
       </c>
       <c r="AE18">
-        <v>461672</v>
+        <v>240703</v>
       </c>
       <c r="AF18">
-        <v>481666</v>
+        <v>252583</v>
       </c>
       <c r="AG18">
-        <v>502886</v>
+        <v>265372</v>
       </c>
       <c r="AH18">
-        <v>525790</v>
+        <v>279259</v>
       </c>
       <c r="AI18">
         <v>31959</v>
@@ -30862,94 +30966,94 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22786</v>
+        <v>12280</v>
       </c>
       <c r="F19">
-        <v>56838</v>
+        <v>25365</v>
       </c>
       <c r="G19">
-        <v>80657</v>
+        <v>36683</v>
       </c>
       <c r="H19">
-        <v>101304</v>
+        <v>48407</v>
       </c>
       <c r="I19">
-        <v>121538</v>
+        <v>60231</v>
       </c>
       <c r="J19">
-        <v>139329</v>
+        <v>70512</v>
       </c>
       <c r="K19">
-        <v>154762</v>
+        <v>79734</v>
       </c>
       <c r="L19">
-        <v>169006</v>
+        <v>88592</v>
       </c>
       <c r="M19">
-        <v>181611</v>
+        <v>97016</v>
       </c>
       <c r="N19">
-        <v>193987</v>
+        <v>105936</v>
       </c>
       <c r="O19">
-        <v>209127</v>
+        <v>115248</v>
       </c>
       <c r="P19">
-        <v>226099</v>
+        <v>123836</v>
       </c>
       <c r="Q19">
-        <v>243774</v>
+        <v>133004</v>
       </c>
       <c r="R19">
-        <v>259838</v>
+        <v>140266</v>
       </c>
       <c r="S19">
-        <v>274708</v>
+        <v>147692</v>
       </c>
       <c r="T19">
-        <v>291518</v>
+        <v>156103</v>
       </c>
       <c r="U19">
-        <v>310612</v>
+        <v>167463</v>
       </c>
       <c r="V19">
-        <v>327583</v>
+        <v>175974</v>
       </c>
       <c r="W19">
-        <v>346406</v>
+        <v>186536</v>
       </c>
       <c r="X19">
-        <v>365118</v>
+        <v>195328</v>
       </c>
       <c r="Y19">
-        <v>379001</v>
+        <v>202284</v>
       </c>
       <c r="Z19">
-        <v>390005</v>
+        <v>205878</v>
       </c>
       <c r="AA19">
-        <v>404665</v>
+        <v>213272</v>
       </c>
       <c r="AB19">
-        <v>416912</v>
+        <v>218082</v>
       </c>
       <c r="AC19">
-        <v>427500</v>
+        <v>223803</v>
       </c>
       <c r="AD19">
-        <v>441624</v>
+        <v>231091</v>
       </c>
       <c r="AE19">
-        <v>457901</v>
+        <v>239573</v>
       </c>
       <c r="AF19">
-        <v>477547</v>
+        <v>251329</v>
       </c>
       <c r="AG19">
-        <v>498429</v>
+        <v>263956</v>
       </c>
       <c r="AH19">
-        <v>520940</v>
+        <v>277690</v>
       </c>
       <c r="AI19">
         <v>32012</v>
@@ -30969,94 +31073,94 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23246</v>
+        <v>12787</v>
       </c>
       <c r="F20">
-        <v>57604</v>
+        <v>26109</v>
       </c>
       <c r="G20">
-        <v>81249</v>
+        <v>37316</v>
       </c>
       <c r="H20">
-        <v>101425</v>
+        <v>48726</v>
       </c>
       <c r="I20">
-        <v>121264</v>
+        <v>60247</v>
       </c>
       <c r="J20">
-        <v>138545</v>
+        <v>70154</v>
       </c>
       <c r="K20">
-        <v>153771</v>
+        <v>79311</v>
       </c>
       <c r="L20">
-        <v>168079</v>
+        <v>88266</v>
       </c>
       <c r="M20">
-        <v>180542</v>
+        <v>96547</v>
       </c>
       <c r="N20">
-        <v>192194</v>
+        <v>104614</v>
       </c>
       <c r="O20">
-        <v>206649</v>
+        <v>113560</v>
       </c>
       <c r="P20">
-        <v>223776</v>
+        <v>122365</v>
       </c>
       <c r="Q20">
-        <v>241115</v>
+        <v>131244</v>
       </c>
       <c r="R20">
-        <v>257420</v>
+        <v>138905</v>
       </c>
       <c r="S20">
-        <v>272810</v>
+        <v>146560</v>
       </c>
       <c r="T20">
-        <v>289537</v>
+        <v>154797</v>
       </c>
       <c r="U20">
-        <v>306439</v>
+        <v>164103</v>
       </c>
       <c r="V20">
-        <v>323730</v>
+        <v>172989</v>
       </c>
       <c r="W20">
-        <v>342218</v>
+        <v>183023</v>
       </c>
       <c r="X20">
-        <v>360506</v>
+        <v>191729</v>
       </c>
       <c r="Y20">
-        <v>375086</v>
+        <v>199151</v>
       </c>
       <c r="Z20">
-        <v>390071</v>
+        <v>205908</v>
       </c>
       <c r="AA20">
-        <v>405039</v>
+        <v>212854</v>
       </c>
       <c r="AB20">
-        <v>418204</v>
+        <v>218266</v>
       </c>
       <c r="AC20">
-        <v>430515</v>
+        <v>224583</v>
       </c>
       <c r="AD20">
-        <v>445177</v>
+        <v>231817</v>
       </c>
       <c r="AE20">
-        <v>461484</v>
+        <v>240020</v>
       </c>
       <c r="AF20">
-        <v>478550</v>
+        <v>249539</v>
       </c>
       <c r="AG20">
-        <v>496141</v>
+        <v>259777</v>
       </c>
       <c r="AH20">
-        <v>517530</v>
+        <v>272660</v>
       </c>
       <c r="AI20">
         <v>24355</v>
@@ -31076,94 +31180,94 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22764</v>
+        <v>12453</v>
       </c>
       <c r="F21">
-        <v>56524</v>
+        <v>25379</v>
       </c>
       <c r="G21">
-        <v>79956</v>
+        <v>36397</v>
       </c>
       <c r="H21">
-        <v>100152</v>
+        <v>47838</v>
       </c>
       <c r="I21">
-        <v>119992</v>
+        <v>59410</v>
       </c>
       <c r="J21">
-        <v>137438</v>
+        <v>69475</v>
       </c>
       <c r="K21">
-        <v>152521</v>
+        <v>78474</v>
       </c>
       <c r="L21">
-        <v>166457</v>
+        <v>87161</v>
       </c>
       <c r="M21">
-        <v>178816</v>
+        <v>95435</v>
       </c>
       <c r="N21">
-        <v>190966</v>
+        <v>104025</v>
       </c>
       <c r="O21">
-        <v>205906</v>
+        <v>113385</v>
       </c>
       <c r="P21">
-        <v>222701</v>
+        <v>121876</v>
       </c>
       <c r="Q21">
-        <v>240265</v>
+        <v>130932</v>
       </c>
       <c r="R21">
-        <v>256064</v>
+        <v>138083</v>
       </c>
       <c r="S21">
-        <v>270714</v>
+        <v>145428</v>
       </c>
       <c r="T21">
-        <v>287702</v>
+        <v>153805</v>
       </c>
       <c r="U21">
-        <v>306623</v>
+        <v>165154</v>
       </c>
       <c r="V21">
-        <v>323658</v>
+        <v>173619</v>
       </c>
       <c r="W21">
-        <v>342852</v>
+        <v>184178</v>
       </c>
       <c r="X21">
-        <v>361764</v>
+        <v>192982</v>
       </c>
       <c r="Y21">
-        <v>375780</v>
+        <v>199967</v>
       </c>
       <c r="Z21">
-        <v>386992</v>
+        <v>203587</v>
       </c>
       <c r="AA21">
-        <v>401917</v>
+        <v>211110</v>
       </c>
       <c r="AB21">
-        <v>414481</v>
+        <v>215970</v>
       </c>
       <c r="AC21">
-        <v>425441</v>
+        <v>221813</v>
       </c>
       <c r="AD21">
-        <v>439962</v>
+        <v>229256</v>
       </c>
       <c r="AE21">
-        <v>456736</v>
+        <v>237914</v>
       </c>
       <c r="AF21">
-        <v>476893</v>
+        <v>249775</v>
       </c>
       <c r="AG21">
-        <v>498415</v>
+        <v>262686</v>
       </c>
       <c r="AH21">
-        <v>521523</v>
+        <v>276615</v>
       </c>
       <c r="AI21">
         <v>30915</v>
@@ -31183,94 +31287,94 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23170</v>
+        <v>12709</v>
       </c>
       <c r="F22">
-        <v>57391</v>
+        <v>25887</v>
       </c>
       <c r="G22">
-        <v>81265</v>
+        <v>37203</v>
       </c>
       <c r="H22">
-        <v>101925</v>
+        <v>48921</v>
       </c>
       <c r="I22">
-        <v>122183</v>
+        <v>60745</v>
       </c>
       <c r="J22">
-        <v>140011</v>
+        <v>71062</v>
       </c>
       <c r="K22">
-        <v>155495</v>
+        <v>80339</v>
       </c>
       <c r="L22">
-        <v>169842</v>
+        <v>89275</v>
       </c>
       <c r="M22">
-        <v>182559</v>
+        <v>97780</v>
       </c>
       <c r="N22">
-        <v>195056</v>
+        <v>106784</v>
       </c>
       <c r="O22">
-        <v>210323</v>
+        <v>116198</v>
       </c>
       <c r="P22">
-        <v>227448</v>
+        <v>124890</v>
       </c>
       <c r="Q22">
-        <v>245269</v>
+        <v>134138</v>
       </c>
       <c r="R22">
-        <v>261357</v>
+        <v>141469</v>
       </c>
       <c r="S22">
-        <v>276224</v>
+        <v>148972</v>
       </c>
       <c r="T22">
-        <v>293387</v>
+        <v>157496</v>
       </c>
       <c r="U22">
-        <v>312513</v>
+        <v>168991</v>
       </c>
       <c r="V22">
-        <v>329713</v>
+        <v>177616</v>
       </c>
       <c r="W22">
-        <v>349004</v>
+        <v>188312</v>
       </c>
       <c r="X22">
-        <v>368012</v>
+        <v>197240</v>
       </c>
       <c r="Y22">
-        <v>382127</v>
+        <v>204339</v>
       </c>
       <c r="Z22">
-        <v>393362</v>
+        <v>208057</v>
       </c>
       <c r="AA22">
-        <v>408282</v>
+        <v>215661</v>
       </c>
       <c r="AB22">
-        <v>420834</v>
+        <v>220614</v>
       </c>
       <c r="AC22">
-        <v>431720</v>
+        <v>226509</v>
       </c>
       <c r="AD22">
-        <v>446184</v>
+        <v>233986</v>
       </c>
       <c r="AE22">
-        <v>462859</v>
+        <v>242710</v>
       </c>
       <c r="AF22">
-        <v>482907</v>
+        <v>254624</v>
       </c>
       <c r="AG22">
-        <v>504246</v>
+        <v>267546</v>
       </c>
       <c r="AH22">
-        <v>527168</v>
+        <v>281507</v>
       </c>
       <c r="AI22">
         <v>32029</v>
@@ -31290,94 +31394,94 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23166</v>
+        <v>12708</v>
       </c>
       <c r="F23">
-        <v>57390</v>
+        <v>25883</v>
       </c>
       <c r="G23">
-        <v>81262</v>
+        <v>37202</v>
       </c>
       <c r="H23">
-        <v>101915</v>
+        <v>48910</v>
       </c>
       <c r="I23">
-        <v>122188</v>
+        <v>60738</v>
       </c>
       <c r="J23">
-        <v>140012</v>
+        <v>71050</v>
       </c>
       <c r="K23">
-        <v>155515</v>
+        <v>80327</v>
       </c>
       <c r="L23">
-        <v>169857</v>
+        <v>89261</v>
       </c>
       <c r="M23">
-        <v>182565</v>
+        <v>97765</v>
       </c>
       <c r="N23">
-        <v>195056</v>
+        <v>106762</v>
       </c>
       <c r="O23">
-        <v>210314</v>
+        <v>116166</v>
       </c>
       <c r="P23">
-        <v>227431</v>
+        <v>124850</v>
       </c>
       <c r="Q23">
-        <v>245246</v>
+        <v>134091</v>
       </c>
       <c r="R23">
-        <v>261317</v>
+        <v>141410</v>
       </c>
       <c r="S23">
-        <v>276179</v>
+        <v>148912</v>
       </c>
       <c r="T23">
-        <v>293332</v>
+        <v>157421</v>
       </c>
       <c r="U23">
-        <v>312454</v>
+        <v>168904</v>
       </c>
       <c r="V23">
-        <v>329636</v>
+        <v>177533</v>
       </c>
       <c r="W23">
-        <v>348935</v>
+        <v>188205</v>
       </c>
       <c r="X23">
-        <v>367923</v>
+        <v>197120</v>
       </c>
       <c r="Y23">
-        <v>382014</v>
+        <v>204194</v>
       </c>
       <c r="Z23">
-        <v>393233</v>
+        <v>207905</v>
       </c>
       <c r="AA23">
-        <v>408143</v>
+        <v>215485</v>
       </c>
       <c r="AB23">
-        <v>420663</v>
+        <v>220419</v>
       </c>
       <c r="AC23">
-        <v>431533</v>
+        <v>226303</v>
       </c>
       <c r="AD23">
-        <v>445978</v>
+        <v>233756</v>
       </c>
       <c r="AE23">
-        <v>462648</v>
+        <v>242455</v>
       </c>
       <c r="AF23">
-        <v>482677</v>
+        <v>254369</v>
       </c>
       <c r="AG23">
-        <v>503991</v>
+        <v>267253</v>
       </c>
       <c r="AH23">
-        <v>526892</v>
+        <v>281193</v>
       </c>
       <c r="AI23">
         <v>32096</v>
@@ -31397,94 +31501,94 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23235</v>
+        <v>12748</v>
       </c>
       <c r="F24">
-        <v>57508</v>
+        <v>25954</v>
       </c>
       <c r="G24">
-        <v>81414</v>
+        <v>37300</v>
       </c>
       <c r="H24">
-        <v>102085</v>
+        <v>49017</v>
       </c>
       <c r="I24">
-        <v>122358</v>
+        <v>60853</v>
       </c>
       <c r="J24">
-        <v>140179</v>
+        <v>71178</v>
       </c>
       <c r="K24">
-        <v>155602</v>
+        <v>80427</v>
       </c>
       <c r="L24">
-        <v>169875</v>
+        <v>89329</v>
       </c>
       <c r="M24">
-        <v>182511</v>
+        <v>97800</v>
       </c>
       <c r="N24">
-        <v>194900</v>
+        <v>106566</v>
       </c>
       <c r="O24">
-        <v>210083</v>
+        <v>116090</v>
       </c>
       <c r="P24">
-        <v>227130</v>
+        <v>124758</v>
       </c>
       <c r="Q24">
-        <v>244891</v>
+        <v>133987</v>
       </c>
       <c r="R24">
-        <v>260949</v>
+        <v>141322</v>
       </c>
       <c r="S24">
-        <v>275849</v>
+        <v>148832</v>
       </c>
       <c r="T24">
-        <v>293046</v>
+        <v>157365</v>
       </c>
       <c r="U24">
-        <v>312195</v>
+        <v>168893</v>
       </c>
       <c r="V24">
-        <v>329428</v>
+        <v>177528</v>
       </c>
       <c r="W24">
-        <v>348740</v>
+        <v>188213</v>
       </c>
       <c r="X24">
-        <v>367713</v>
+        <v>197120</v>
       </c>
       <c r="Y24">
-        <v>381793</v>
+        <v>204187</v>
       </c>
       <c r="Z24">
-        <v>393003</v>
+        <v>207886</v>
       </c>
       <c r="AA24">
-        <v>407912</v>
+        <v>215455</v>
       </c>
       <c r="AB24">
-        <v>420405</v>
+        <v>220358</v>
       </c>
       <c r="AC24">
-        <v>431257</v>
+        <v>226220</v>
       </c>
       <c r="AD24">
-        <v>445656</v>
+        <v>233682</v>
       </c>
       <c r="AE24">
-        <v>462260</v>
+        <v>242323</v>
       </c>
       <c r="AF24">
-        <v>482244</v>
+        <v>254217</v>
       </c>
       <c r="AG24">
-        <v>503499</v>
+        <v>267058</v>
       </c>
       <c r="AH24">
-        <v>526328</v>
+        <v>280949</v>
       </c>
       <c r="AI24">
         <v>33308</v>
@@ -31504,94 +31608,94 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23222</v>
+        <v>12663</v>
       </c>
       <c r="F25">
-        <v>57987</v>
+        <v>26107</v>
       </c>
       <c r="G25">
-        <v>82643</v>
+        <v>37844</v>
       </c>
       <c r="H25">
-        <v>104318</v>
+        <v>50130</v>
       </c>
       <c r="I25">
-        <v>125779</v>
+        <v>62609</v>
       </c>
       <c r="J25">
-        <v>144825</v>
+        <v>73557</v>
       </c>
       <c r="K25">
-        <v>161520</v>
+        <v>83471</v>
       </c>
       <c r="L25">
-        <v>177163</v>
+        <v>93260</v>
       </c>
       <c r="M25">
-        <v>191299</v>
+        <v>102366</v>
       </c>
       <c r="N25">
-        <v>205394</v>
+        <v>112228</v>
       </c>
       <c r="O25">
-        <v>222384</v>
+        <v>122612</v>
       </c>
       <c r="P25">
-        <v>241504</v>
+        <v>132353</v>
       </c>
       <c r="Q25">
-        <v>261476</v>
+        <v>142731</v>
       </c>
       <c r="R25">
-        <v>279856</v>
+        <v>151117</v>
       </c>
       <c r="S25">
-        <v>297100</v>
+        <v>159761</v>
       </c>
       <c r="T25">
-        <v>316607</v>
+        <v>169533</v>
       </c>
       <c r="U25">
-        <v>338976</v>
+        <v>182895</v>
       </c>
       <c r="V25">
-        <v>358739</v>
+        <v>192725</v>
       </c>
       <c r="W25">
-        <v>380643</v>
+        <v>205106</v>
       </c>
       <c r="X25">
-        <v>402601</v>
+        <v>215503</v>
       </c>
       <c r="Y25">
-        <v>419920</v>
+        <v>224228</v>
       </c>
       <c r="Z25">
-        <v>434039</v>
+        <v>229267</v>
       </c>
       <c r="AA25">
-        <v>452152</v>
+        <v>238569</v>
       </c>
       <c r="AB25">
-        <v>467735</v>
+        <v>244857</v>
       </c>
       <c r="AC25">
-        <v>481997</v>
+        <v>252406</v>
       </c>
       <c r="AD25">
-        <v>500352</v>
+        <v>261882</v>
       </c>
       <c r="AE25">
-        <v>521273</v>
+        <v>272808</v>
       </c>
       <c r="AF25">
-        <v>545298</v>
+        <v>286272</v>
       </c>
       <c r="AG25">
-        <v>572256</v>
+        <v>302782</v>
       </c>
       <c r="AH25">
-        <v>600111</v>
+        <v>318951</v>
       </c>
       <c r="AI25">
         <v>32734</v>
@@ -31611,94 +31715,94 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>23184</v>
+        <v>12709</v>
       </c>
       <c r="F26">
-        <v>57417</v>
+        <v>25898</v>
       </c>
       <c r="G26">
-        <v>81342</v>
+        <v>37262</v>
       </c>
       <c r="H26">
-        <v>102069</v>
+        <v>49015</v>
       </c>
       <c r="I26">
-        <v>122390</v>
+        <v>60892</v>
       </c>
       <c r="J26">
-        <v>140278</v>
+        <v>71242</v>
       </c>
       <c r="K26">
-        <v>155830</v>
+        <v>80565</v>
       </c>
       <c r="L26">
-        <v>170229</v>
+        <v>89539</v>
       </c>
       <c r="M26">
-        <v>183024</v>
+        <v>98109</v>
       </c>
       <c r="N26">
-        <v>195622</v>
+        <v>107196</v>
       </c>
       <c r="O26">
-        <v>210977</v>
+        <v>116674</v>
       </c>
       <c r="P26">
-        <v>228188</v>
+        <v>125426</v>
       </c>
       <c r="Q26">
-        <v>246094</v>
+        <v>134743</v>
       </c>
       <c r="R26">
-        <v>262391</v>
+        <v>142155</v>
       </c>
       <c r="S26">
-        <v>277501</v>
+        <v>149750</v>
       </c>
       <c r="T26">
-        <v>294659</v>
+        <v>158391</v>
       </c>
       <c r="U26">
-        <v>314136</v>
+        <v>170058</v>
       </c>
       <c r="V26">
-        <v>331397</v>
+        <v>178753</v>
       </c>
       <c r="W26">
-        <v>350588</v>
+        <v>189539</v>
       </c>
       <c r="X26">
-        <v>369651</v>
+        <v>198548</v>
       </c>
       <c r="Y26">
-        <v>383856</v>
+        <v>205726</v>
       </c>
       <c r="Z26">
-        <v>395148</v>
+        <v>209474</v>
       </c>
       <c r="AA26">
-        <v>410143</v>
+        <v>217192</v>
       </c>
       <c r="AB26">
-        <v>422770</v>
+        <v>222218</v>
       </c>
       <c r="AC26">
-        <v>433727</v>
+        <v>228156</v>
       </c>
       <c r="AD26">
-        <v>448283</v>
+        <v>235732</v>
       </c>
       <c r="AE26">
-        <v>465075</v>
+        <v>244534</v>
       </c>
       <c r="AF26">
-        <v>485113</v>
+        <v>256485</v>
       </c>
       <c r="AG26">
-        <v>506660</v>
+        <v>269569</v>
       </c>
       <c r="AH26">
-        <v>529626</v>
+        <v>283551</v>
       </c>
       <c r="AI26">
         <v>33215</v>
@@ -31718,94 +31822,94 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22883</v>
+        <v>12380</v>
       </c>
       <c r="F27">
-        <v>57228</v>
+        <v>25703</v>
       </c>
       <c r="G27">
-        <v>80976</v>
+        <v>36836</v>
       </c>
       <c r="H27">
-        <v>101683</v>
+        <v>48823</v>
       </c>
       <c r="I27">
-        <v>122296</v>
+        <v>60913</v>
       </c>
       <c r="J27">
-        <v>140211</v>
+        <v>71209</v>
       </c>
       <c r="K27">
-        <v>155686</v>
+        <v>80455</v>
       </c>
       <c r="L27">
-        <v>170049</v>
+        <v>89399</v>
       </c>
       <c r="M27">
-        <v>182789</v>
+        <v>97901</v>
       </c>
       <c r="N27">
-        <v>195290</v>
+        <v>106879</v>
       </c>
       <c r="O27">
-        <v>210533</v>
+        <v>116254</v>
       </c>
       <c r="P27">
-        <v>227702</v>
+        <v>124945</v>
       </c>
       <c r="Q27">
-        <v>245570</v>
+        <v>134187</v>
       </c>
       <c r="R27">
-        <v>261810</v>
+        <v>141531</v>
       </c>
       <c r="S27">
-        <v>276838</v>
+        <v>149043</v>
       </c>
       <c r="T27">
-        <v>293851</v>
+        <v>157593</v>
       </c>
       <c r="U27">
-        <v>313325</v>
+        <v>169203</v>
       </c>
       <c r="V27">
-        <v>330365</v>
+        <v>177648</v>
       </c>
       <c r="W27">
-        <v>349321</v>
+        <v>188368</v>
       </c>
       <c r="X27">
-        <v>368214</v>
+        <v>197266</v>
       </c>
       <c r="Y27">
-        <v>382324</v>
+        <v>204338</v>
       </c>
       <c r="Z27">
-        <v>393503</v>
+        <v>207979</v>
       </c>
       <c r="AA27">
-        <v>408268</v>
+        <v>215370</v>
       </c>
       <c r="AB27">
-        <v>420983</v>
+        <v>220345</v>
       </c>
       <c r="AC27">
-        <v>432263</v>
+        <v>226470</v>
       </c>
       <c r="AD27">
-        <v>447006</v>
+        <v>234118</v>
       </c>
       <c r="AE27">
-        <v>463800</v>
+        <v>242895</v>
       </c>
       <c r="AF27">
-        <v>481597</v>
+        <v>252074</v>
       </c>
       <c r="AG27">
-        <v>501015</v>
+        <v>262351</v>
       </c>
       <c r="AH27">
-        <v>520651</v>
+        <v>272357</v>
       </c>
       <c r="AI27">
         <v>28801</v>
@@ -31825,94 +31929,94 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>22869</v>
+        <v>12099</v>
       </c>
       <c r="F28">
-        <v>57068</v>
+        <v>25267</v>
       </c>
       <c r="G28">
-        <v>80948</v>
+        <v>36623</v>
       </c>
       <c r="H28">
-        <v>101653</v>
+        <v>48350</v>
       </c>
       <c r="I28">
-        <v>121913</v>
+        <v>60201</v>
       </c>
       <c r="J28">
-        <v>139765</v>
+        <v>70509</v>
       </c>
       <c r="K28">
-        <v>155276</v>
+        <v>79784</v>
       </c>
       <c r="L28">
-        <v>169596</v>
+        <v>88716</v>
       </c>
       <c r="M28">
-        <v>182315</v>
+        <v>97220</v>
       </c>
       <c r="N28">
-        <v>194825</v>
+        <v>106222</v>
       </c>
       <c r="O28">
-        <v>210082</v>
+        <v>115624</v>
       </c>
       <c r="P28">
-        <v>227197</v>
+        <v>124303</v>
       </c>
       <c r="Q28">
-        <v>245005</v>
+        <v>133536</v>
       </c>
       <c r="R28">
-        <v>261089</v>
+        <v>140864</v>
       </c>
       <c r="S28">
-        <v>275967</v>
+        <v>148357</v>
       </c>
       <c r="T28">
-        <v>293087</v>
+        <v>156865</v>
       </c>
       <c r="U28">
-        <v>312234</v>
+        <v>168353</v>
       </c>
       <c r="V28">
-        <v>329391</v>
+        <v>176957</v>
       </c>
       <c r="W28">
-        <v>348644</v>
+        <v>187642</v>
       </c>
       <c r="X28">
-        <v>367619</v>
+        <v>196558</v>
       </c>
       <c r="Y28">
-        <v>381702</v>
+        <v>203634</v>
       </c>
       <c r="Z28">
-        <v>392908</v>
+        <v>207328</v>
       </c>
       <c r="AA28">
-        <v>407809</v>
+        <v>214914</v>
       </c>
       <c r="AB28">
-        <v>420311</v>
+        <v>219833</v>
       </c>
       <c r="AC28">
-        <v>431174</v>
+        <v>225703</v>
       </c>
       <c r="AD28">
-        <v>445609</v>
+        <v>233168</v>
       </c>
       <c r="AE28">
-        <v>462258</v>
+        <v>241856</v>
       </c>
       <c r="AF28">
-        <v>482278</v>
+        <v>253741</v>
       </c>
       <c r="AG28">
-        <v>503581</v>
+        <v>266635</v>
       </c>
       <c r="AH28">
-        <v>526467</v>
+        <v>280571</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -31932,94 +32036,94 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>22177</v>
+        <v>12279</v>
       </c>
       <c r="F29">
-        <v>56638</v>
+        <v>25831</v>
       </c>
       <c r="G29">
-        <v>81056</v>
+        <v>37407</v>
       </c>
       <c r="H29">
-        <v>101637</v>
+        <v>48989</v>
       </c>
       <c r="I29">
-        <v>121896</v>
+        <v>60826</v>
       </c>
       <c r="J29">
-        <v>139728</v>
+        <v>71146</v>
       </c>
       <c r="K29">
-        <v>155224</v>
+        <v>80425</v>
       </c>
       <c r="L29">
-        <v>169611</v>
+        <v>89351</v>
       </c>
       <c r="M29">
-        <v>182400</v>
+        <v>97877</v>
       </c>
       <c r="N29">
-        <v>194968</v>
+        <v>106888</v>
       </c>
       <c r="O29">
-        <v>210268</v>
+        <v>116299</v>
       </c>
       <c r="P29">
-        <v>227454</v>
+        <v>124990</v>
       </c>
       <c r="Q29">
-        <v>245293</v>
+        <v>134217</v>
       </c>
       <c r="R29">
-        <v>261392</v>
+        <v>141526</v>
       </c>
       <c r="S29">
-        <v>276261</v>
+        <v>149024</v>
       </c>
       <c r="T29">
-        <v>293443</v>
+        <v>157524</v>
       </c>
       <c r="U29">
-        <v>312591</v>
+        <v>169018</v>
       </c>
       <c r="V29">
-        <v>329789</v>
+        <v>177640</v>
       </c>
       <c r="W29">
-        <v>349101</v>
+        <v>188319</v>
       </c>
       <c r="X29">
-        <v>368116</v>
+        <v>197228</v>
       </c>
       <c r="Y29">
-        <v>382228</v>
+        <v>204321</v>
       </c>
       <c r="Z29">
-        <v>393460</v>
+        <v>207986</v>
       </c>
       <c r="AA29">
-        <v>408377</v>
+        <v>215569</v>
       </c>
       <c r="AB29">
-        <v>420894</v>
+        <v>220488</v>
       </c>
       <c r="AC29">
-        <v>431750</v>
+        <v>226362</v>
       </c>
       <c r="AD29">
-        <v>446224</v>
+        <v>233830</v>
       </c>
       <c r="AE29">
-        <v>462900</v>
+        <v>242531</v>
       </c>
       <c r="AF29">
-        <v>482918</v>
+        <v>254389</v>
       </c>
       <c r="AG29">
-        <v>504272</v>
+        <v>267356</v>
       </c>
       <c r="AH29">
-        <v>527197</v>
+        <v>281262</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
@@ -32133,16 +32237,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF06A2-324B-471D-8888-1D438BEABEF7}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="85.453125" customWidth="1"/>
+    <col min="35" max="35" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -32239,8 +32346,11 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG1" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -32368,8 +32478,16 @@
         <f>(State_ContributionTestResults!AH2-State_ContributionTestResults!AH$2)*-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG2">
+        <f>IF(AF2&gt;0,AF2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="35">
+        <f>AG2/SUM($AG$2:$AG$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>385</v>
       </c>
@@ -32383,122 +32501,130 @@
       </c>
       <c r="D3">
         <f>(State_ContributionTestResults!F3-State_ContributionTestResults!F$2)*-1</f>
-        <v>-104</v>
+        <v>-42</v>
       </c>
       <c r="E3">
         <f>(State_ContributionTestResults!G3-State_ContributionTestResults!G$2)*-1</f>
-        <v>-163</v>
+        <v>-61</v>
       </c>
       <c r="F3">
         <f>(State_ContributionTestResults!H3-State_ContributionTestResults!H$2)*-1</f>
-        <v>-164</v>
+        <v>-43</v>
       </c>
       <c r="G3">
         <f>(State_ContributionTestResults!I3-State_ContributionTestResults!I$2)*-1</f>
-        <v>-64</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <f>(State_ContributionTestResults!J3-State_ContributionTestResults!J$2)*-1</f>
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I3">
         <f>(State_ContributionTestResults!K3-State_ContributionTestResults!K$2)*-1</f>
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="J3">
         <f>(State_ContributionTestResults!L3-State_ContributionTestResults!L$2)*-1</f>
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="K3">
         <f>(State_ContributionTestResults!M3-State_ContributionTestResults!M$2)*-1</f>
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="L3">
         <f>(State_ContributionTestResults!N3-State_ContributionTestResults!N$2)*-1</f>
-        <v>594</v>
+        <v>355</v>
       </c>
       <c r="M3">
         <f>(State_ContributionTestResults!O3-State_ContributionTestResults!O$2)*-1</f>
-        <v>630</v>
+        <v>362</v>
       </c>
       <c r="N3">
         <f>(State_ContributionTestResults!P3-State_ContributionTestResults!P$2)*-1</f>
-        <v>618</v>
+        <v>351</v>
       </c>
       <c r="O3">
         <f>(State_ContributionTestResults!Q3-State_ContributionTestResults!Q$2)*-1</f>
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="P3">
         <f>(State_ContributionTestResults!R3-State_ContributionTestResults!R$2)*-1</f>
-        <v>550</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <f>(State_ContributionTestResults!S3-State_ContributionTestResults!S$2)*-1</f>
-        <v>473</v>
+        <v>282</v>
       </c>
       <c r="R3">
         <f>(State_ContributionTestResults!T3-State_ContributionTestResults!T$2)*-1</f>
-        <v>440</v>
+        <v>239</v>
       </c>
       <c r="S3">
         <f>(State_ContributionTestResults!U3-State_ContributionTestResults!U$2)*-1</f>
-        <v>339</v>
+        <v>192</v>
       </c>
       <c r="T3">
         <f>(State_ContributionTestResults!V3-State_ContributionTestResults!V$2)*-1</f>
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="U3">
         <f>(State_ContributionTestResults!W3-State_ContributionTestResults!W$2)*-1</f>
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="V3">
         <f>(State_ContributionTestResults!X3-State_ContributionTestResults!X$2)*-1</f>
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="W3">
         <f>(State_ContributionTestResults!Y3-State_ContributionTestResults!Y$2)*-1</f>
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="X3">
         <f>(State_ContributionTestResults!Z3-State_ContributionTestResults!Z$2)*-1</f>
-        <v>532</v>
+        <v>294</v>
       </c>
       <c r="Y3">
         <f>(State_ContributionTestResults!AA3-State_ContributionTestResults!AA$2)*-1</f>
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Z3">
         <f>(State_ContributionTestResults!AB3-State_ContributionTestResults!AB$2)*-1</f>
-        <v>1115</v>
+        <v>626</v>
       </c>
       <c r="AA3">
         <f>(State_ContributionTestResults!AC3-State_ContributionTestResults!AC$2)*-1</f>
-        <v>1469</v>
+        <v>831</v>
       </c>
       <c r="AB3">
         <f>(State_ContributionTestResults!AD3-State_ContributionTestResults!AD$2)*-1</f>
-        <v>1891</v>
+        <v>1054</v>
       </c>
       <c r="AC3">
         <f>(State_ContributionTestResults!AE3-State_ContributionTestResults!AE$2)*-1</f>
-        <v>2329</v>
+        <v>1308</v>
       </c>
       <c r="AD3">
         <f>(State_ContributionTestResults!AF3-State_ContributionTestResults!AF$2)*-1</f>
-        <v>2794</v>
+        <v>1549</v>
       </c>
       <c r="AE3">
         <f>(State_ContributionTestResults!AG3-State_ContributionTestResults!AG$2)*-1</f>
-        <v>3301</v>
+        <v>1822</v>
       </c>
       <c r="AF3">
         <f>(State_ContributionTestResults!AH3-State_ContributionTestResults!AH$2)*-1</f>
-        <v>3822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+        <v>2102</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG30" si="0">IF(AF3&gt;0,AF3,0)</f>
+        <v>2102</v>
+      </c>
+      <c r="AH3" s="35">
+        <f t="shared" ref="AH3:AH30" si="1">AG3/SUM($AG$2:$AG$29)</f>
+        <v>5.213785029343043E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -32516,118 +32642,126 @@
       </c>
       <c r="E4">
         <f>(State_ContributionTestResults!G4-State_ContributionTestResults!G$2)*-1</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <f>(State_ContributionTestResults!H4-State_ContributionTestResults!H$2)*-1</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <f>(State_ContributionTestResults!I4-State_ContributionTestResults!I$2)*-1</f>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <f>(State_ContributionTestResults!J4-State_ContributionTestResults!J$2)*-1</f>
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <f>(State_ContributionTestResults!K4-State_ContributionTestResults!K$2)*-1</f>
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J4">
         <f>(State_ContributionTestResults!L4-State_ContributionTestResults!L$2)*-1</f>
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="K4">
         <f>(State_ContributionTestResults!M4-State_ContributionTestResults!M$2)*-1</f>
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="L4">
         <f>(State_ContributionTestResults!N4-State_ContributionTestResults!N$2)*-1</f>
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="M4">
         <f>(State_ContributionTestResults!O4-State_ContributionTestResults!O$2)*-1</f>
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="N4">
         <f>(State_ContributionTestResults!P4-State_ContributionTestResults!P$2)*-1</f>
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="O4">
         <f>(State_ContributionTestResults!Q4-State_ContributionTestResults!Q$2)*-1</f>
-        <v>659</v>
+        <v>497</v>
       </c>
       <c r="P4">
         <f>(State_ContributionTestResults!R4-State_ContributionTestResults!R$2)*-1</f>
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="Q4">
         <f>(State_ContributionTestResults!S4-State_ContributionTestResults!S$2)*-1</f>
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="R4">
         <f>(State_ContributionTestResults!T4-State_ContributionTestResults!T$2)*-1</f>
-        <v>826</v>
+        <v>654</v>
       </c>
       <c r="S4">
         <f>(State_ContributionTestResults!U4-State_ContributionTestResults!U$2)*-1</f>
-        <v>800</v>
+        <v>746</v>
       </c>
       <c r="T4">
         <f>(State_ContributionTestResults!V4-State_ContributionTestResults!V$2)*-1</f>
-        <v>924</v>
+        <v>786</v>
       </c>
       <c r="U4">
         <f>(State_ContributionTestResults!W4-State_ContributionTestResults!W$2)*-1</f>
-        <v>1337</v>
+        <v>850</v>
       </c>
       <c r="V4">
         <f>(State_ContributionTestResults!X4-State_ContributionTestResults!X$2)*-1</f>
-        <v>1503</v>
+        <v>908</v>
       </c>
       <c r="W4">
         <f>(State_ContributionTestResults!Y4-State_ContributionTestResults!Y$2)*-1</f>
-        <v>1519</v>
+        <v>966</v>
       </c>
       <c r="X4">
         <f>(State_ContributionTestResults!Z4-State_ContributionTestResults!Z$2)*-1</f>
-        <v>1521</v>
+        <v>981</v>
       </c>
       <c r="Y4">
         <f>(State_ContributionTestResults!AA4-State_ContributionTestResults!AA$2)*-1</f>
-        <v>1588</v>
+        <v>1090</v>
       </c>
       <c r="Z4">
         <f>(State_ContributionTestResults!AB4-State_ContributionTestResults!AB$2)*-1</f>
-        <v>1643</v>
+        <v>1105</v>
       </c>
       <c r="AA4">
         <f>(State_ContributionTestResults!AC4-State_ContributionTestResults!AC$2)*-1</f>
-        <v>1691</v>
+        <v>1132</v>
       </c>
       <c r="AB4">
         <f>(State_ContributionTestResults!AD4-State_ContributionTestResults!AD$2)*-1</f>
-        <v>1757</v>
+        <v>1153</v>
       </c>
       <c r="AC4">
         <f>(State_ContributionTestResults!AE4-State_ContributionTestResults!AE$2)*-1</f>
-        <v>1857</v>
+        <v>1222</v>
       </c>
       <c r="AD4">
         <f>(State_ContributionTestResults!AF4-State_ContributionTestResults!AF$2)*-1</f>
-        <v>1963</v>
+        <v>1239</v>
       </c>
       <c r="AE4">
         <f>(State_ContributionTestResults!AG4-State_ContributionTestResults!AG$2)*-1</f>
-        <v>2195</v>
+        <v>1385</v>
       </c>
       <c r="AF4">
         <f>(State_ContributionTestResults!AH4-State_ContributionTestResults!AH$2)*-1</f>
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>1476</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>1476</v>
+      </c>
+      <c r="AH4" s="35">
+        <f t="shared" si="1"/>
+        <v>3.6610593260277507E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -32637,126 +32771,134 @@
       </c>
       <c r="C5">
         <f>(State_ContributionTestResults!E5-State_ContributionTestResults!E$2)*-1</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f>(State_ContributionTestResults!F5-State_ContributionTestResults!F$2)*-1</f>
-        <v>-25</v>
+        <v>-37</v>
       </c>
       <c r="E5">
         <f>(State_ContributionTestResults!G5-State_ContributionTestResults!G$2)*-1</f>
-        <v>-106</v>
+        <v>-58</v>
       </c>
       <c r="F5">
         <f>(State_ContributionTestResults!H5-State_ContributionTestResults!H$2)*-1</f>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <f>(State_ContributionTestResults!I5-State_ContributionTestResults!I$2)*-1</f>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <f>(State_ContributionTestResults!J5-State_ContributionTestResults!J$2)*-1</f>
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <f>(State_ContributionTestResults!K5-State_ContributionTestResults!K$2)*-1</f>
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <f>(State_ContributionTestResults!L5-State_ContributionTestResults!L$2)*-1</f>
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <f>(State_ContributionTestResults!M5-State_ContributionTestResults!M$2)*-1</f>
-        <v>68</v>
+        <v>-44</v>
       </c>
       <c r="L5">
         <f>(State_ContributionTestResults!N5-State_ContributionTestResults!N$2)*-1</f>
-        <v>28</v>
+        <v>-111</v>
       </c>
       <c r="M5">
         <f>(State_ContributionTestResults!O5-State_ContributionTestResults!O$2)*-1</f>
-        <v>60</v>
+        <v>-74</v>
       </c>
       <c r="N5">
         <f>(State_ContributionTestResults!P5-State_ContributionTestResults!P$2)*-1</f>
-        <v>-26</v>
+        <v>-201</v>
       </c>
       <c r="O5">
         <f>(State_ContributionTestResults!Q5-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-79</v>
+        <v>-256</v>
       </c>
       <c r="P5">
         <f>(State_ContributionTestResults!R5-State_ContributionTestResults!R$2)*-1</f>
-        <v>-281</v>
+        <v>-361</v>
       </c>
       <c r="Q5">
         <f>(State_ContributionTestResults!S5-State_ContributionTestResults!S$2)*-1</f>
-        <v>-547</v>
+        <v>-448</v>
       </c>
       <c r="R5">
         <f>(State_ContributionTestResults!T5-State_ContributionTestResults!T$2)*-1</f>
-        <v>-472</v>
+        <v>-675</v>
       </c>
       <c r="S5">
         <f>(State_ContributionTestResults!U5-State_ContributionTestResults!U$2)*-1</f>
-        <v>-556</v>
+        <v>-515</v>
       </c>
       <c r="T5">
         <f>(State_ContributionTestResults!V5-State_ContributionTestResults!V$2)*-1</f>
-        <v>-588</v>
+        <v>-612</v>
       </c>
       <c r="U5">
         <f>(State_ContributionTestResults!W5-State_ContributionTestResults!W$2)*-1</f>
-        <v>-299</v>
+        <v>-621</v>
       </c>
       <c r="V5">
         <f>(State_ContributionTestResults!X5-State_ContributionTestResults!X$2)*-1</f>
-        <v>-253</v>
+        <v>-668</v>
       </c>
       <c r="W5">
         <f>(State_ContributionTestResults!Y5-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-259</v>
+        <v>-451</v>
       </c>
       <c r="X5">
         <f>(State_ContributionTestResults!Z5-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-508</v>
+        <v>-747</v>
       </c>
       <c r="Y5">
         <f>(State_ContributionTestResults!AA5-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-552</v>
+        <v>-707</v>
       </c>
       <c r="Z5">
         <f>(State_ContributionTestResults!AB5-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-616</v>
+        <v>-799</v>
       </c>
       <c r="AA5">
         <f>(State_ContributionTestResults!AC5-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-705</v>
+        <v>-903</v>
       </c>
       <c r="AB5">
         <f>(State_ContributionTestResults!AD5-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-728</v>
+        <v>-969</v>
       </c>
       <c r="AC5">
         <f>(State_ContributionTestResults!AE5-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-718</v>
+        <v>-980</v>
       </c>
       <c r="AD5">
         <f>(State_ContributionTestResults!AF5-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-1238</v>
+        <v>-1503</v>
       </c>
       <c r="AE5">
         <f>(State_ContributionTestResults!AG5-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-721</v>
+        <v>-702</v>
       </c>
       <c r="AF5">
         <f>(State_ContributionTestResults!AH5-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-930</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>476</v>
       </c>
@@ -32766,126 +32908,134 @@
       </c>
       <c r="C6">
         <f>(State_ContributionTestResults!E6-State_ContributionTestResults!E$2)*-1</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D6">
         <f>(State_ContributionTestResults!F6-State_ContributionTestResults!F$2)*-1</f>
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E6">
         <f>(State_ContributionTestResults!G6-State_ContributionTestResults!G$2)*-1</f>
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F6">
         <f>(State_ContributionTestResults!H6-State_ContributionTestResults!H$2)*-1</f>
-        <v>2620</v>
+        <v>2601</v>
       </c>
       <c r="G6">
         <f>(State_ContributionTestResults!I6-State_ContributionTestResults!I$2)*-1</f>
-        <v>3704</v>
+        <v>3535</v>
       </c>
       <c r="H6">
         <f>(State_ContributionTestResults!J6-State_ContributionTestResults!J$2)*-1</f>
-        <v>4308</v>
+        <v>4034</v>
       </c>
       <c r="I6">
         <f>(State_ContributionTestResults!K6-State_ContributionTestResults!K$2)*-1</f>
-        <v>4623</v>
+        <v>4298</v>
       </c>
       <c r="J6">
         <f>(State_ContributionTestResults!L6-State_ContributionTestResults!L$2)*-1</f>
-        <v>4714</v>
+        <v>4511</v>
       </c>
       <c r="K6">
         <f>(State_ContributionTestResults!M6-State_ContributionTestResults!M$2)*-1</f>
-        <v>4788</v>
+        <v>4759</v>
       </c>
       <c r="L6">
         <f>(State_ContributionTestResults!N6-State_ContributionTestResults!N$2)*-1</f>
-        <v>4855</v>
+        <v>5171</v>
       </c>
       <c r="M6">
         <f>(State_ContributionTestResults!O6-State_ContributionTestResults!O$2)*-1</f>
-        <v>4518</v>
+        <v>4938</v>
       </c>
       <c r="N6">
         <f>(State_ContributionTestResults!P6-State_ContributionTestResults!P$2)*-1</f>
-        <v>3797</v>
+        <v>4508</v>
       </c>
       <c r="O6">
         <f>(State_ContributionTestResults!Q6-State_ContributionTestResults!Q$2)*-1</f>
-        <v>3370</v>
+        <v>4315</v>
       </c>
       <c r="P6">
         <f>(State_ContributionTestResults!R6-State_ContributionTestResults!R$2)*-1</f>
-        <v>2177</v>
+        <v>3472</v>
       </c>
       <c r="Q6">
         <f>(State_ContributionTestResults!S6-State_ContributionTestResults!S$2)*-1</f>
-        <v>626</v>
+        <v>2728</v>
       </c>
       <c r="R6">
         <f>(State_ContributionTestResults!T6-State_ContributionTestResults!T$2)*-1</f>
-        <v>-19</v>
+        <v>2344</v>
       </c>
       <c r="S6">
         <f>(State_ContributionTestResults!U6-State_ContributionTestResults!U$2)*-1</f>
-        <v>-32</v>
+        <v>2884</v>
       </c>
       <c r="T6">
         <f>(State_ContributionTestResults!V6-State_ContributionTestResults!V$2)*-1</f>
-        <v>-702</v>
+        <v>2635</v>
       </c>
       <c r="U6">
         <f>(State_ContributionTestResults!W6-State_ContributionTestResults!W$2)*-1</f>
-        <v>-348</v>
+        <v>2951</v>
       </c>
       <c r="V6">
         <f>(State_ContributionTestResults!X6-State_ContributionTestResults!X$2)*-1</f>
-        <v>-59</v>
+        <v>3078</v>
       </c>
       <c r="W6">
         <f>(State_ContributionTestResults!Y6-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-502</v>
+        <v>2845</v>
       </c>
       <c r="X6">
         <f>(State_ContributionTestResults!Z6-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-2535</v>
+        <v>1239</v>
       </c>
       <c r="Y6">
         <f>(State_ContributionTestResults!AA6-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-2350</v>
+        <v>1851</v>
       </c>
       <c r="Z6">
         <f>(State_ContributionTestResults!AB6-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-4593</v>
+        <v>-132</v>
       </c>
       <c r="AA6">
         <f>(State_ContributionTestResults!AC6-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-8512</v>
+        <v>-3434</v>
       </c>
       <c r="AB6">
         <f>(State_ContributionTestResults!AD6-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-10550</v>
+        <v>-5998</v>
       </c>
       <c r="AC6">
         <f>(State_ContributionTestResults!AE6-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-12988</v>
+        <v>-9274</v>
       </c>
       <c r="AD6">
         <f>(State_ContributionTestResults!AF6-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-14420</v>
+        <v>-9949</v>
       </c>
       <c r="AE6">
         <f>(State_ContributionTestResults!AG6-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-15601</v>
+        <v>-10414</v>
       </c>
       <c r="AF6">
         <f>(State_ContributionTestResults!AH6-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-15813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-9441</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>392</v>
       </c>
@@ -32895,126 +33045,134 @@
       </c>
       <c r="C7">
         <f>(State_ContributionTestResults!E7-State_ContributionTestResults!E$2)*-1</f>
-        <v>-54</v>
+        <v>-27</v>
       </c>
       <c r="D7">
         <f>(State_ContributionTestResults!F7-State_ContributionTestResults!F$2)*-1</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f>(State_ContributionTestResults!G7-State_ContributionTestResults!G$2)*-1</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>(State_ContributionTestResults!H7-State_ContributionTestResults!H$2)*-1</f>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <f>(State_ContributionTestResults!I7-State_ContributionTestResults!I$2)*-1</f>
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="H7">
         <f>(State_ContributionTestResults!J7-State_ContributionTestResults!J$2)*-1</f>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="I7">
         <f>(State_ContributionTestResults!K7-State_ContributionTestResults!K$2)*-1</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J7">
         <f>(State_ContributionTestResults!L7-State_ContributionTestResults!L$2)*-1</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>(State_ContributionTestResults!M7-State_ContributionTestResults!M$2)*-1</f>
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="L7">
         <f>(State_ContributionTestResults!N7-State_ContributionTestResults!N$2)*-1</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M7">
         <f>(State_ContributionTestResults!O7-State_ContributionTestResults!O$2)*-1</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="N7">
         <f>(State_ContributionTestResults!P7-State_ContributionTestResults!P$2)*-1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <f>(State_ContributionTestResults!Q7-State_ContributionTestResults!Q$2)*-1</f>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="P7">
         <f>(State_ContributionTestResults!R7-State_ContributionTestResults!R$2)*-1</f>
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="Q7">
         <f>(State_ContributionTestResults!S7-State_ContributionTestResults!S$2)*-1</f>
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="R7">
         <f>(State_ContributionTestResults!T7-State_ContributionTestResults!T$2)*-1</f>
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="S7">
         <f>(State_ContributionTestResults!U7-State_ContributionTestResults!U$2)*-1</f>
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="T7">
         <f>(State_ContributionTestResults!V7-State_ContributionTestResults!V$2)*-1</f>
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="U7">
         <f>(State_ContributionTestResults!W7-State_ContributionTestResults!W$2)*-1</f>
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="V7">
         <f>(State_ContributionTestResults!X7-State_ContributionTestResults!X$2)*-1</f>
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="W7">
         <f>(State_ContributionTestResults!Y7-State_ContributionTestResults!Y$2)*-1</f>
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="X7">
         <f>(State_ContributionTestResults!Z7-State_ContributionTestResults!Z$2)*-1</f>
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="Y7">
         <f>(State_ContributionTestResults!AA7-State_ContributionTestResults!AA$2)*-1</f>
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="Z7">
         <f>(State_ContributionTestResults!AB7-State_ContributionTestResults!AB$2)*-1</f>
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="AA7">
         <f>(State_ContributionTestResults!AC7-State_ContributionTestResults!AC$2)*-1</f>
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="AB7">
         <f>(State_ContributionTestResults!AD7-State_ContributionTestResults!AD$2)*-1</f>
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="AC7">
         <f>(State_ContributionTestResults!AE7-State_ContributionTestResults!AE$2)*-1</f>
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AD7">
         <f>(State_ContributionTestResults!AF7-State_ContributionTestResults!AF$2)*-1</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AE7">
         <f>(State_ContributionTestResults!AG7-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-27</v>
+        <v>-17</v>
       </c>
       <c r="AF7">
         <f>(State_ContributionTestResults!AH7-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-25</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>394</v>
       </c>
@@ -33024,126 +33182,134 @@
       </c>
       <c r="C8">
         <f>(State_ContributionTestResults!E8-State_ContributionTestResults!E$2)*-1</f>
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="D8">
         <f>(State_ContributionTestResults!F8-State_ContributionTestResults!F$2)*-1</f>
-        <v>2369</v>
+        <v>2347</v>
       </c>
       <c r="E8">
         <f>(State_ContributionTestResults!G8-State_ContributionTestResults!G$2)*-1</f>
-        <v>3746</v>
+        <v>2827</v>
       </c>
       <c r="F8">
         <f>(State_ContributionTestResults!H8-State_ContributionTestResults!H$2)*-1</f>
-        <v>3732</v>
+        <v>2605</v>
       </c>
       <c r="G8">
         <f>(State_ContributionTestResults!I8-State_ContributionTestResults!I$2)*-1</f>
-        <v>3704</v>
+        <v>2596</v>
       </c>
       <c r="H8">
         <f>(State_ContributionTestResults!J8-State_ContributionTestResults!J$2)*-1</f>
-        <v>3629</v>
+        <v>2758</v>
       </c>
       <c r="I8">
         <f>(State_ContributionTestResults!K8-State_ContributionTestResults!K$2)*-1</f>
-        <v>2657</v>
+        <v>2156</v>
       </c>
       <c r="J8">
         <f>(State_ContributionTestResults!L8-State_ContributionTestResults!L$2)*-1</f>
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="K8">
         <f>(State_ContributionTestResults!M8-State_ContributionTestResults!M$2)*-1</f>
-        <v>-334</v>
+        <v>470</v>
       </c>
       <c r="L8">
         <f>(State_ContributionTestResults!N8-State_ContributionTestResults!N$2)*-1</f>
-        <v>-1518</v>
+        <v>138</v>
       </c>
       <c r="M8">
         <f>(State_ContributionTestResults!O8-State_ContributionTestResults!O$2)*-1</f>
-        <v>-2838</v>
+        <v>-624</v>
       </c>
       <c r="N8">
         <f>(State_ContributionTestResults!P8-State_ContributionTestResults!P$2)*-1</f>
-        <v>-4209</v>
+        <v>-1179</v>
       </c>
       <c r="O8">
         <f>(State_ContributionTestResults!Q8-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-5904</v>
+        <v>-2246</v>
       </c>
       <c r="P8">
         <f>(State_ContributionTestResults!R8-State_ContributionTestResults!R$2)*-1</f>
-        <v>-8620</v>
+        <v>-3746</v>
       </c>
       <c r="Q8">
         <f>(State_ContributionTestResults!S8-State_ContributionTestResults!S$2)*-1</f>
-        <v>-11514</v>
+        <v>-5078</v>
       </c>
       <c r="R8">
         <f>(State_ContributionTestResults!T8-State_ContributionTestResults!T$2)*-1</f>
-        <v>-13250</v>
+        <v>-5727</v>
       </c>
       <c r="S8">
         <f>(State_ContributionTestResults!U8-State_ContributionTestResults!U$2)*-1</f>
-        <v>-14087</v>
+        <v>-5853</v>
       </c>
       <c r="T8">
         <f>(State_ContributionTestResults!V8-State_ContributionTestResults!V$2)*-1</f>
-        <v>-14686</v>
+        <v>-5965</v>
       </c>
       <c r="U8">
         <f>(State_ContributionTestResults!W8-State_ContributionTestResults!W$2)*-1</f>
-        <v>-14763</v>
+        <v>-6309</v>
       </c>
       <c r="V8">
         <f>(State_ContributionTestResults!X8-State_ContributionTestResults!X$2)*-1</f>
-        <v>-15489</v>
+        <v>-6973</v>
       </c>
       <c r="W8">
         <f>(State_ContributionTestResults!Y8-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-16986</v>
+        <v>-7964</v>
       </c>
       <c r="X8">
         <f>(State_ContributionTestResults!Z8-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-19370</v>
+        <v>-9470</v>
       </c>
       <c r="Y8">
         <f>(State_ContributionTestResults!AA8-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-21475</v>
+        <v>-10741</v>
       </c>
       <c r="Z8">
         <f>(State_ContributionTestResults!AB8-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-23127</v>
+        <v>-11437</v>
       </c>
       <c r="AA8">
         <f>(State_ContributionTestResults!AC8-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-25374</v>
+        <v>-12783</v>
       </c>
       <c r="AB8">
         <f>(State_ContributionTestResults!AD8-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-30201</v>
+        <v>-15824</v>
       </c>
       <c r="AC8">
         <f>(State_ContributionTestResults!AE8-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-37154</v>
+        <v>-22045</v>
       </c>
       <c r="AD8">
         <f>(State_ContributionTestResults!AF8-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-43584</v>
+        <v>-26016</v>
       </c>
       <c r="AE8">
         <f>(State_ContributionTestResults!AG8-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-55619</v>
+        <v>-33785</v>
       </c>
       <c r="AF8">
         <f>(State_ContributionTestResults!AH8-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-71459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-43031</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>396</v>
       </c>
@@ -33153,11 +33319,11 @@
       </c>
       <c r="C9">
         <f>(State_ContributionTestResults!E9-State_ContributionTestResults!E$2)*-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <f>(State_ContributionTestResults!F9-State_ContributionTestResults!F$2)*-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f>(State_ContributionTestResults!G9-State_ContributionTestResults!G$2)*-1</f>
@@ -33165,114 +33331,122 @@
       </c>
       <c r="F9">
         <f>(State_ContributionTestResults!H9-State_ContributionTestResults!H$2)*-1</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <f>(State_ContributionTestResults!I9-State_ContributionTestResults!I$2)*-1</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f>(State_ContributionTestResults!J9-State_ContributionTestResults!J$2)*-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f>(State_ContributionTestResults!K9-State_ContributionTestResults!K$2)*-1</f>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f>(State_ContributionTestResults!L9-State_ContributionTestResults!L$2)*-1</f>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="K9">
         <f>(State_ContributionTestResults!M9-State_ContributionTestResults!M$2)*-1</f>
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="L9">
         <f>(State_ContributionTestResults!N9-State_ContributionTestResults!N$2)*-1</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f>(State_ContributionTestResults!O9-State_ContributionTestResults!O$2)*-1</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="N9">
         <f>(State_ContributionTestResults!P9-State_ContributionTestResults!P$2)*-1</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f>(State_ContributionTestResults!Q9-State_ContributionTestResults!Q$2)*-1</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="P9">
         <f>(State_ContributionTestResults!R9-State_ContributionTestResults!R$2)*-1</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f>(State_ContributionTestResults!S9-State_ContributionTestResults!S$2)*-1</f>
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <f>(State_ContributionTestResults!T9-State_ContributionTestResults!T$2)*-1</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <f>(State_ContributionTestResults!U9-State_ContributionTestResults!U$2)*-1</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="T9">
         <f>(State_ContributionTestResults!V9-State_ContributionTestResults!V$2)*-1</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <f>(State_ContributionTestResults!W9-State_ContributionTestResults!W$2)*-1</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f>(State_ContributionTestResults!X9-State_ContributionTestResults!X$2)*-1</f>
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <f>(State_ContributionTestResults!Y9-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <f>(State_ContributionTestResults!Z9-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="Y9">
         <f>(State_ContributionTestResults!AA9-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <f>(State_ContributionTestResults!AB9-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AA9">
         <f>(State_ContributionTestResults!AC9-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <f>(State_ContributionTestResults!AD9-State_ContributionTestResults!AD$2)*-1</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AC9">
         <f>(State_ContributionTestResults!AE9-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f>(State_ContributionTestResults!AF9-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AE9">
         <f>(State_ContributionTestResults!AG9-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AF9">
         <f>(State_ContributionTestResults!AH9-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-4</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -33400,8 +33574,16 @@
         <f>(State_ContributionTestResults!AH10-State_ContributionTestResults!AH$2)*-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>400</v>
       </c>
@@ -33411,126 +33593,134 @@
       </c>
       <c r="C11">
         <f>(State_ContributionTestResults!E11-State_ContributionTestResults!E$2)*-1</f>
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="D11">
         <f>(State_ContributionTestResults!F11-State_ContributionTestResults!F$2)*-1</f>
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="E11">
         <f>(State_ContributionTestResults!G11-State_ContributionTestResults!G$2)*-1</f>
-        <v>-88</v>
+        <v>-83</v>
       </c>
       <c r="F11">
         <f>(State_ContributionTestResults!H11-State_ContributionTestResults!H$2)*-1</f>
-        <v>-98</v>
+        <v>-94</v>
       </c>
       <c r="G11">
         <f>(State_ContributionTestResults!I11-State_ContributionTestResults!I$2)*-1</f>
-        <v>-79</v>
+        <v>-74</v>
       </c>
       <c r="H11">
         <f>(State_ContributionTestResults!J11-State_ContributionTestResults!J$2)*-1</f>
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f>(State_ContributionTestResults!K11-State_ContributionTestResults!K$2)*-1</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <f>(State_ContributionTestResults!L11-State_ContributionTestResults!L$2)*-1</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <f>(State_ContributionTestResults!M11-State_ContributionTestResults!M$2)*-1</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f>(State_ContributionTestResults!N11-State_ContributionTestResults!N$2)*-1</f>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="M11">
         <f>(State_ContributionTestResults!O11-State_ContributionTestResults!O$2)*-1</f>
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="N11">
         <f>(State_ContributionTestResults!P11-State_ContributionTestResults!P$2)*-1</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="O11">
         <f>(State_ContributionTestResults!Q11-State_ContributionTestResults!Q$2)*-1</f>
-        <v>1</v>
+        <v>-17</v>
       </c>
       <c r="P11">
         <f>(State_ContributionTestResults!R11-State_ContributionTestResults!R$2)*-1</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="Q11">
         <f>(State_ContributionTestResults!S11-State_ContributionTestResults!S$2)*-1</f>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="R11">
         <f>(State_ContributionTestResults!T11-State_ContributionTestResults!T$2)*-1</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S11">
         <f>(State_ContributionTestResults!U11-State_ContributionTestResults!U$2)*-1</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T11">
         <f>(State_ContributionTestResults!V11-State_ContributionTestResults!V$2)*-1</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U11">
         <f>(State_ContributionTestResults!W11-State_ContributionTestResults!W$2)*-1</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="V11">
         <f>(State_ContributionTestResults!X11-State_ContributionTestResults!X$2)*-1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="W11">
         <f>(State_ContributionTestResults!Y11-State_ContributionTestResults!Y$2)*-1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X11">
         <f>(State_ContributionTestResults!Z11-State_ContributionTestResults!Z$2)*-1</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <f>(State_ContributionTestResults!AA11-State_ContributionTestResults!AA$2)*-1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z11">
         <f>(State_ContributionTestResults!AB11-State_ContributionTestResults!AB$2)*-1</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA11">
         <f>(State_ContributionTestResults!AC11-State_ContributionTestResults!AC$2)*-1</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AB11">
         <f>(State_ContributionTestResults!AD11-State_ContributionTestResults!AD$2)*-1</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AC11">
         <f>(State_ContributionTestResults!AE11-State_ContributionTestResults!AE$2)*-1</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD11">
         <f>(State_ContributionTestResults!AF11-State_ContributionTestResults!AF$2)*-1</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE11">
         <f>(State_ContributionTestResults!AG11-State_ContributionTestResults!AG$2)*-1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11">
         <f>(State_ContributionTestResults!AH11-State_ContributionTestResults!AH$2)*-1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AH11" s="35">
+        <f t="shared" si="1"/>
+        <v>4.4647064951557934E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>402</v>
       </c>
@@ -33540,255 +33730,275 @@
       </c>
       <c r="C12">
         <f>(State_ContributionTestResults!E12-State_ContributionTestResults!E$2)*-1</f>
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="D12">
         <f>(State_ContributionTestResults!F12-State_ContributionTestResults!F$2)*-1</f>
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12">
         <f>(State_ContributionTestResults!G12-State_ContributionTestResults!G$2)*-1</f>
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F12">
         <f>(State_ContributionTestResults!H12-State_ContributionTestResults!H$2)*-1</f>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12">
         <f>(State_ContributionTestResults!I12-State_ContributionTestResults!I$2)*-1</f>
-        <v>-32</v>
+        <v>-5</v>
       </c>
       <c r="H12">
         <f>(State_ContributionTestResults!J12-State_ContributionTestResults!J$2)*-1</f>
-        <v>-141</v>
+        <v>-95</v>
       </c>
       <c r="I12">
         <f>(State_ContributionTestResults!K12-State_ContributionTestResults!K$2)*-1</f>
-        <v>-136</v>
+        <v>-76</v>
       </c>
       <c r="J12">
         <f>(State_ContributionTestResults!L12-State_ContributionTestResults!L$2)*-1</f>
-        <v>-75</v>
+        <v>-53</v>
       </c>
       <c r="K12">
         <f>(State_ContributionTestResults!M12-State_ContributionTestResults!M$2)*-1</f>
-        <v>-29</v>
+        <v>-6</v>
       </c>
       <c r="L12">
         <f>(State_ContributionTestResults!N12-State_ContributionTestResults!N$2)*-1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <f>(State_ContributionTestResults!O12-State_ContributionTestResults!O$2)*-1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <f>(State_ContributionTestResults!P12-State_ContributionTestResults!P$2)*-1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12">
         <f>(State_ContributionTestResults!Q12-State_ContributionTestResults!Q$2)*-1</f>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P12">
         <f>(State_ContributionTestResults!R12-State_ContributionTestResults!R$2)*-1</f>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Q12">
         <f>(State_ContributionTestResults!S12-State_ContributionTestResults!S$2)*-1</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <f>(State_ContributionTestResults!T12-State_ContributionTestResults!T$2)*-1</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="S12">
         <f>(State_ContributionTestResults!U12-State_ContributionTestResults!U$2)*-1</f>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="T12">
         <f>(State_ContributionTestResults!V12-State_ContributionTestResults!V$2)*-1</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="U12">
         <f>(State_ContributionTestResults!W12-State_ContributionTestResults!W$2)*-1</f>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="V12">
         <f>(State_ContributionTestResults!X12-State_ContributionTestResults!X$2)*-1</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W12">
         <f>(State_ContributionTestResults!Y12-State_ContributionTestResults!Y$2)*-1</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="X12">
         <f>(State_ContributionTestResults!Z12-State_ContributionTestResults!Z$2)*-1</f>
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Y12">
         <f>(State_ContributionTestResults!AA12-State_ContributionTestResults!AA$2)*-1</f>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Z12">
         <f>(State_ContributionTestResults!AB12-State_ContributionTestResults!AB$2)*-1</f>
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA12">
         <f>(State_ContributionTestResults!AC12-State_ContributionTestResults!AC$2)*-1</f>
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="AB12">
         <f>(State_ContributionTestResults!AD12-State_ContributionTestResults!AD$2)*-1</f>
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AC12">
         <f>(State_ContributionTestResults!AE12-State_ContributionTestResults!AE$2)*-1</f>
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AD12">
         <f>(State_ContributionTestResults!AF12-State_ContributionTestResults!AF$2)*-1</f>
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE12">
         <f>(State_ContributionTestResults!AG12-State_ContributionTestResults!AG$2)*-1</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AF12">
         <f>(State_ContributionTestResults!AH12-State_ContributionTestResults!AH$2)*-1</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AH12" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1161766237889484E-4</v>
+      </c>
+      <c r="AI12" s="37">
+        <f>SUM(AH2:AH12,AH14,AH16:AH29)</f>
+        <v>7.6232383012287852E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="34">
         <f>(State_ContributionTestResults!D13-State_ContributionTestResults!D$2)*-1</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="34">
         <f>(State_ContributionTestResults!E13-State_ContributionTestResults!E$2)*-1</f>
-        <v>94</v>
-      </c>
-      <c r="D13">
+        <v>71</v>
+      </c>
+      <c r="D13" s="34">
         <f>(State_ContributionTestResults!F13-State_ContributionTestResults!F$2)*-1</f>
-        <v>918</v>
-      </c>
-      <c r="E13">
+        <v>646</v>
+      </c>
+      <c r="E13" s="34">
         <f>(State_ContributionTestResults!G13-State_ContributionTestResults!G$2)*-1</f>
-        <v>2616</v>
-      </c>
-      <c r="F13">
+        <v>1763</v>
+      </c>
+      <c r="F13" s="34">
         <f>(State_ContributionTestResults!H13-State_ContributionTestResults!H$2)*-1</f>
-        <v>5460</v>
-      </c>
-      <c r="G13">
+        <v>3697</v>
+      </c>
+      <c r="G13" s="34">
         <f>(State_ContributionTestResults!I13-State_ContributionTestResults!I$2)*-1</f>
-        <v>9487</v>
-      </c>
-      <c r="H13">
+        <v>6174</v>
+      </c>
+      <c r="H13" s="34">
         <f>(State_ContributionTestResults!J13-State_ContributionTestResults!J$2)*-1</f>
-        <v>14289</v>
-      </c>
-      <c r="I13">
+        <v>8866</v>
+      </c>
+      <c r="I13" s="34">
         <f>(State_ContributionTestResults!K13-State_ContributionTestResults!K$2)*-1</f>
-        <v>20017</v>
-      </c>
-      <c r="J13">
+        <v>12031</v>
+      </c>
+      <c r="J13" s="34">
         <f>(State_ContributionTestResults!L13-State_ContributionTestResults!L$2)*-1</f>
-        <v>26762</v>
-      </c>
-      <c r="K13">
+        <v>15535</v>
+      </c>
+      <c r="K13" s="34">
         <f>(State_ContributionTestResults!M13-State_ContributionTestResults!M$2)*-1</f>
-        <v>33926</v>
-      </c>
-      <c r="L13">
+        <v>19318</v>
+      </c>
+      <c r="L13" s="34">
         <f>(State_ContributionTestResults!N13-State_ContributionTestResults!N$2)*-1</f>
-        <v>42254</v>
-      </c>
-      <c r="M13">
+        <v>23716</v>
+      </c>
+      <c r="M13" s="34">
         <f>(State_ContributionTestResults!O13-State_ContributionTestResults!O$2)*-1</f>
-        <v>49993</v>
-      </c>
-      <c r="N13">
+        <v>27796</v>
+      </c>
+      <c r="N13" s="34">
         <f>(State_ContributionTestResults!P13-State_ContributionTestResults!P$2)*-1</f>
-        <v>58370</v>
-      </c>
-      <c r="O13">
+        <v>32088</v>
+      </c>
+      <c r="O13" s="34">
         <f>(State_ContributionTestResults!Q13-State_ContributionTestResults!Q$2)*-1</f>
-        <v>67175</v>
-      </c>
-      <c r="P13">
+        <v>36692</v>
+      </c>
+      <c r="P13" s="34">
         <f>(State_ContributionTestResults!R13-State_ContributionTestResults!R$2)*-1</f>
-        <v>75758</v>
-      </c>
-      <c r="Q13">
+        <v>40861</v>
+      </c>
+      <c r="Q13" s="34">
         <f>(State_ContributionTestResults!S13-State_ContributionTestResults!S$2)*-1</f>
-        <v>82950</v>
-      </c>
-      <c r="R13">
+        <v>44952</v>
+      </c>
+      <c r="R13" s="34">
         <f>(State_ContributionTestResults!T13-State_ContributionTestResults!T$2)*-1</f>
-        <v>90950</v>
-      </c>
-      <c r="S13">
+        <v>49148</v>
+      </c>
+      <c r="S13" s="34">
         <f>(State_ContributionTestResults!U13-State_ContributionTestResults!U$2)*-1</f>
-        <v>99217</v>
-      </c>
-      <c r="T13">
+        <v>53849</v>
+      </c>
+      <c r="T13" s="34">
         <f>(State_ContributionTestResults!V13-State_ContributionTestResults!V$2)*-1</f>
-        <v>108634</v>
-      </c>
-      <c r="U13">
+        <v>58557</v>
+      </c>
+      <c r="U13" s="34">
         <f>(State_ContributionTestResults!W13-State_ContributionTestResults!W$2)*-1</f>
-        <v>120160</v>
-      </c>
-      <c r="V13">
+        <v>64766</v>
+      </c>
+      <c r="V13" s="34">
         <f>(State_ContributionTestResults!X13-State_ContributionTestResults!X$2)*-1</f>
-        <v>131858</v>
-      </c>
-      <c r="W13">
+        <v>69924</v>
+      </c>
+      <c r="W13" s="34">
         <f>(State_ContributionTestResults!Y13-State_ContributionTestResults!Y$2)*-1</f>
-        <v>140408</v>
-      </c>
-      <c r="X13">
+        <v>73935</v>
+      </c>
+      <c r="X13" s="34">
         <f>(State_ContributionTestResults!Z13-State_ContributionTestResults!Z$2)*-1</f>
-        <v>146310</v>
-      </c>
-      <c r="Y13">
+        <v>75261</v>
+      </c>
+      <c r="Y13" s="34">
         <f>(State_ContributionTestResults!AA13-State_ContributionTestResults!AA$2)*-1</f>
-        <v>154399</v>
-      </c>
-      <c r="Z13">
+        <v>79519</v>
+      </c>
+      <c r="Z13" s="34">
         <f>(State_ContributionTestResults!AB13-State_ContributionTestResults!AB$2)*-1</f>
-        <v>159727</v>
-      </c>
-      <c r="AA13">
+        <v>80770</v>
+      </c>
+      <c r="AA13" s="34">
         <f>(State_ContributionTestResults!AC13-State_ContributionTestResults!AC$2)*-1</f>
-        <v>163535</v>
-      </c>
-      <c r="AB13">
+        <v>82567</v>
+      </c>
+      <c r="AB13" s="34">
         <f>(State_ContributionTestResults!AD13-State_ContributionTestResults!AD$2)*-1</f>
-        <v>169837</v>
-      </c>
-      <c r="AC13">
+        <v>84772</v>
+      </c>
+      <c r="AC13" s="34">
         <f>(State_ContributionTestResults!AE13-State_ContributionTestResults!AE$2)*-1</f>
-        <v>177962</v>
-      </c>
-      <c r="AD13">
+        <v>88472</v>
+      </c>
+      <c r="AD13" s="34">
         <f>(State_ContributionTestResults!AF13-State_ContributionTestResults!AF$2)*-1</f>
-        <v>187539</v>
-      </c>
-      <c r="AE13">
+        <v>94063</v>
+      </c>
+      <c r="AE13" s="34">
         <f>(State_ContributionTestResults!AG13-State_ContributionTestResults!AG$2)*-1</f>
-        <v>197094</v>
-      </c>
-      <c r="AF13">
+        <v>99268</v>
+      </c>
+      <c r="AF13" s="34">
         <f>(State_ContributionTestResults!AH13-State_ContributionTestResults!AH$2)*-1</f>
-        <v>208805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+        <v>106003</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>106003</v>
+      </c>
+      <c r="AH13" s="35">
+        <f t="shared" si="1"/>
+        <v>0.26292904589222199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>406</v>
       </c>
@@ -33802,251 +34012,271 @@
       </c>
       <c r="D14">
         <f>(State_ContributionTestResults!F14-State_ContributionTestResults!F$2)*-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14">
         <f>(State_ContributionTestResults!G14-State_ContributionTestResults!G$2)*-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>(State_ContributionTestResults!H14-State_ContributionTestResults!H$2)*-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f>(State_ContributionTestResults!I14-State_ContributionTestResults!I$2)*-1</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H14">
         <f>(State_ContributionTestResults!J14-State_ContributionTestResults!J$2)*-1</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f>(State_ContributionTestResults!K14-State_ContributionTestResults!K$2)*-1</f>
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>(State_ContributionTestResults!L14-State_ContributionTestResults!L$2)*-1</f>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="K14">
         <f>(State_ContributionTestResults!M14-State_ContributionTestResults!M$2)*-1</f>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="L14">
         <f>(State_ContributionTestResults!N14-State_ContributionTestResults!N$2)*-1</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="M14">
         <f>(State_ContributionTestResults!O14-State_ContributionTestResults!O$2)*-1</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f>(State_ContributionTestResults!P14-State_ContributionTestResults!P$2)*-1</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O14">
         <f>(State_ContributionTestResults!Q14-State_ContributionTestResults!Q$2)*-1</f>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="P14">
         <f>(State_ContributionTestResults!R14-State_ContributionTestResults!R$2)*-1</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <f>(State_ContributionTestResults!S14-State_ContributionTestResults!S$2)*-1</f>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="R14">
         <f>(State_ContributionTestResults!T14-State_ContributionTestResults!T$2)*-1</f>
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <f>(State_ContributionTestResults!U14-State_ContributionTestResults!U$2)*-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <f>(State_ContributionTestResults!V14-State_ContributionTestResults!V$2)*-1</f>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f>(State_ContributionTestResults!W14-State_ContributionTestResults!W$2)*-1</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f>(State_ContributionTestResults!X14-State_ContributionTestResults!X$2)*-1</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="W14">
         <f>(State_ContributionTestResults!Y14-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <f>(State_ContributionTestResults!Z14-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <f>(State_ContributionTestResults!AA14-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <f>(State_ContributionTestResults!AB14-State_ContributionTestResults!AB$2)*-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <f>(State_ContributionTestResults!AC14-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f>(State_ContributionTestResults!AD14-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
         <f>(State_ContributionTestResults!AE14-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f>(State_ContributionTestResults!AF14-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="AE14">
         <f>(State_ContributionTestResults!AG14-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="AF14">
         <f>(State_ContributionTestResults!AH14-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="35">
+        <f t="shared" si="1"/>
+        <v>2.4803924973087742E-6</v>
+      </c>
+      <c r="AI14" s="26">
+        <f>SUM(AG13,AG15)</f>
+        <v>372428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="34">
         <f>(State_ContributionTestResults!D15-State_ContributionTestResults!D$2)*-1</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="34">
         <f>(State_ContributionTestResults!E15-State_ContributionTestResults!E$2)*-1</f>
-        <v>17951</v>
-      </c>
-      <c r="D15">
+        <v>8105</v>
+      </c>
+      <c r="D15" s="34">
         <f>(State_ContributionTestResults!F15-State_ContributionTestResults!F$2)*-1</f>
-        <v>50166</v>
-      </c>
-      <c r="E15">
+        <v>19661</v>
+      </c>
+      <c r="E15" s="34">
         <f>(State_ContributionTestResults!G15-State_ContributionTestResults!G$2)*-1</f>
-        <v>73245</v>
-      </c>
-      <c r="F15">
+        <v>30743</v>
+      </c>
+      <c r="F15" s="34">
         <f>(State_ContributionTestResults!H15-State_ContributionTestResults!H$2)*-1</f>
-        <v>93999</v>
-      </c>
-      <c r="G15">
+        <v>42139</v>
+      </c>
+      <c r="G15" s="34">
         <f>(State_ContributionTestResults!I15-State_ContributionTestResults!I$2)*-1</f>
-        <v>113971</v>
-      </c>
-      <c r="H15">
+        <v>53435</v>
+      </c>
+      <c r="H15" s="34">
         <f>(State_ContributionTestResults!J15-State_ContributionTestResults!J$2)*-1</f>
-        <v>131430</v>
-      </c>
-      <c r="I15">
+        <v>63329</v>
+      </c>
+      <c r="I15" s="34">
         <f>(State_ContributionTestResults!K15-State_ContributionTestResults!K$2)*-1</f>
-        <v>146545</v>
-      </c>
-      <c r="J15">
+        <v>72227</v>
+      </c>
+      <c r="J15" s="34">
         <f>(State_ContributionTestResults!L15-State_ContributionTestResults!L$2)*-1</f>
-        <v>160191</v>
-      </c>
-      <c r="K15">
+        <v>80587</v>
+      </c>
+      <c r="K15" s="34">
         <f>(State_ContributionTestResults!M15-State_ContributionTestResults!M$2)*-1</f>
-        <v>172381</v>
-      </c>
-      <c r="L15">
+        <v>88607</v>
+      </c>
+      <c r="L15" s="34">
         <f>(State_ContributionTestResults!N15-State_ContributionTestResults!N$2)*-1</f>
-        <v>184581</v>
-      </c>
-      <c r="M15">
+        <v>97298</v>
+      </c>
+      <c r="M15" s="34">
         <f>(State_ContributionTestResults!O15-State_ContributionTestResults!O$2)*-1</f>
-        <v>199933</v>
-      </c>
-      <c r="N15">
+        <v>106707</v>
+      </c>
+      <c r="N15" s="34">
         <f>(State_ContributionTestResults!P15-State_ContributionTestResults!P$2)*-1</f>
-        <v>217446</v>
-      </c>
-      <c r="O15">
+        <v>115632</v>
+      </c>
+      <c r="O15" s="34">
         <f>(State_ContributionTestResults!Q15-State_ContributionTestResults!Q$2)*-1</f>
-        <v>235719</v>
-      </c>
-      <c r="P15">
+        <v>125159</v>
+      </c>
+      <c r="P15" s="34">
         <f>(State_ContributionTestResults!R15-State_ContributionTestResults!R$2)*-1</f>
-        <v>252424</v>
-      </c>
-      <c r="Q15">
+        <v>132732</v>
+      </c>
+      <c r="Q15" s="34">
         <f>(State_ContributionTestResults!S15-State_ContributionTestResults!S$2)*-1</f>
-        <v>267665</v>
-      </c>
-      <c r="R15">
+        <v>140364</v>
+      </c>
+      <c r="R15" s="34">
         <f>(State_ContributionTestResults!T15-State_ContributionTestResults!T$2)*-1</f>
-        <v>284979</v>
-      </c>
-      <c r="S15">
+        <v>148740</v>
+      </c>
+      <c r="S15" s="34">
         <f>(State_ContributionTestResults!U15-State_ContributionTestResults!U$2)*-1</f>
-        <v>304143</v>
-      </c>
-      <c r="T15">
+        <v>159960</v>
+      </c>
+      <c r="T15" s="34">
         <f>(State_ContributionTestResults!V15-State_ContributionTestResults!V$2)*-1</f>
-        <v>321378</v>
-      </c>
-      <c r="U15">
+        <v>168351</v>
+      </c>
+      <c r="U15" s="34">
         <f>(State_ContributionTestResults!W15-State_ContributionTestResults!W$2)*-1</f>
-        <v>340719</v>
-      </c>
-      <c r="V15">
+        <v>178774</v>
+      </c>
+      <c r="V15" s="34">
         <f>(State_ContributionTestResults!X15-State_ContributionTestResults!X$2)*-1</f>
-        <v>359641</v>
-      </c>
-      <c r="W15">
+        <v>187349</v>
+      </c>
+      <c r="W15" s="34">
         <f>(State_ContributionTestResults!Y15-State_ContributionTestResults!Y$2)*-1</f>
-        <v>373797</v>
-      </c>
-      <c r="X15">
+        <v>194150</v>
+      </c>
+      <c r="X15" s="34">
         <f>(State_ContributionTestResults!Z15-State_ContributionTestResults!Z$2)*-1</f>
-        <v>384929</v>
-      </c>
-      <c r="Y15">
+        <v>197428</v>
+      </c>
+      <c r="Y15" s="34">
         <f>(State_ContributionTestResults!AA15-State_ContributionTestResults!AA$2)*-1</f>
-        <v>399947</v>
-      </c>
-      <c r="Z15">
+        <v>204847</v>
+      </c>
+      <c r="Z15" s="34">
         <f>(State_ContributionTestResults!AB15-State_ContributionTestResults!AB$2)*-1</f>
-        <v>412451</v>
-      </c>
-      <c r="AA15">
+        <v>209555</v>
+      </c>
+      <c r="AA15" s="34">
         <f>(State_ContributionTestResults!AC15-State_ContributionTestResults!AC$2)*-1</f>
-        <v>423110</v>
-      </c>
-      <c r="AB15">
+        <v>215008</v>
+      </c>
+      <c r="AB15" s="34">
         <f>(State_ContributionTestResults!AD15-State_ContributionTestResults!AD$2)*-1</f>
-        <v>437476</v>
-      </c>
-      <c r="AC15">
+        <v>222234</v>
+      </c>
+      <c r="AC15" s="34">
         <f>(State_ContributionTestResults!AE15-State_ContributionTestResults!AE$2)*-1</f>
-        <v>453524</v>
-      </c>
-      <c r="AD15">
+        <v>230316</v>
+      </c>
+      <c r="AD15" s="34">
         <f>(State_ContributionTestResults!AF15-State_ContributionTestResults!AF$2)*-1</f>
-        <v>472685</v>
-      </c>
-      <c r="AE15">
+        <v>241425</v>
+      </c>
+      <c r="AE15" s="34">
         <f>(State_ContributionTestResults!AG15-State_ContributionTestResults!AG$2)*-1</f>
-        <v>492912</v>
-      </c>
-      <c r="AF15">
+        <v>253397</v>
+      </c>
+      <c r="AF15" s="34">
         <f>(State_ContributionTestResults!AH15-State_ContributionTestResults!AH$2)*-1</f>
-        <v>514686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+        <v>266425</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>266425</v>
+      </c>
+      <c r="AH15" s="35">
+        <f t="shared" si="1"/>
+        <v>0.66083857109549016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>410</v>
       </c>
@@ -34056,126 +34286,138 @@
       </c>
       <c r="C16">
         <f>(State_ContributionTestResults!E16-State_ContributionTestResults!E$2)*-1</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <f>(State_ContributionTestResults!F16-State_ContributionTestResults!F$2)*-1</f>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <f>(State_ContributionTestResults!G16-State_ContributionTestResults!G$2)*-1</f>
-        <v>13</v>
+        <v>-26</v>
       </c>
       <c r="F16">
         <f>(State_ContributionTestResults!H16-State_ContributionTestResults!H$2)*-1</f>
-        <v>-74</v>
+        <v>-100</v>
       </c>
       <c r="G16">
         <f>(State_ContributionTestResults!I16-State_ContributionTestResults!I$2)*-1</f>
-        <v>-114</v>
+        <v>-130</v>
       </c>
       <c r="H16">
         <f>(State_ContributionTestResults!J16-State_ContributionTestResults!J$2)*-1</f>
-        <v>-108</v>
+        <v>-92</v>
       </c>
       <c r="I16">
         <f>(State_ContributionTestResults!K16-State_ContributionTestResults!K$2)*-1</f>
-        <v>-67</v>
+        <v>-57</v>
       </c>
       <c r="J16">
         <f>(State_ContributionTestResults!L16-State_ContributionTestResults!L$2)*-1</f>
-        <v>-26</v>
+        <v>-29</v>
       </c>
       <c r="K16">
         <f>(State_ContributionTestResults!M16-State_ContributionTestResults!M$2)*-1</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <f>(State_ContributionTestResults!N16-State_ContributionTestResults!N$2)*-1</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M16">
         <f>(State_ContributionTestResults!O16-State_ContributionTestResults!O$2)*-1</f>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <f>(State_ContributionTestResults!P16-State_ContributionTestResults!P$2)*-1</f>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O16">
         <f>(State_ContributionTestResults!Q16-State_ContributionTestResults!Q$2)*-1</f>
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="P16">
         <f>(State_ContributionTestResults!R16-State_ContributionTestResults!R$2)*-1</f>
-        <v>-67</v>
+        <v>29</v>
       </c>
       <c r="Q16">
         <f>(State_ContributionTestResults!S16-State_ContributionTestResults!S$2)*-1</f>
-        <v>-228</v>
+        <v>28</v>
       </c>
       <c r="R16">
         <f>(State_ContributionTestResults!T16-State_ContributionTestResults!T$2)*-1</f>
-        <v>-48</v>
+        <v>35</v>
       </c>
       <c r="S16">
         <f>(State_ContributionTestResults!U16-State_ContributionTestResults!U$2)*-1</f>
-        <v>-211</v>
+        <v>33</v>
       </c>
       <c r="T16">
         <f>(State_ContributionTestResults!V16-State_ContributionTestResults!V$2)*-1</f>
-        <v>-176</v>
+        <v>42</v>
       </c>
       <c r="U16">
         <f>(State_ContributionTestResults!W16-State_ContributionTestResults!W$2)*-1</f>
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="V16">
         <f>(State_ContributionTestResults!X16-State_ContributionTestResults!X$2)*-1</f>
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="W16">
         <f>(State_ContributionTestResults!Y16-State_ContributionTestResults!Y$2)*-1</f>
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="X16">
         <f>(State_ContributionTestResults!Z16-State_ContributionTestResults!Z$2)*-1</f>
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="Y16">
         <f>(State_ContributionTestResults!AA16-State_ContributionTestResults!AA$2)*-1</f>
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="Z16">
         <f>(State_ContributionTestResults!AB16-State_ContributionTestResults!AB$2)*-1</f>
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AA16">
         <f>(State_ContributionTestResults!AC16-State_ContributionTestResults!AC$2)*-1</f>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="AB16">
         <f>(State_ContributionTestResults!AD16-State_ContributionTestResults!AD$2)*-1</f>
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="AC16">
         <f>(State_ContributionTestResults!AE16-State_ContributionTestResults!AE$2)*-1</f>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AD16">
         <f>(State_ContributionTestResults!AF16-State_ContributionTestResults!AF$2)*-1</f>
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AE16">
         <f>(State_ContributionTestResults!AG16-State_ContributionTestResults!AG$2)*-1</f>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AF16">
         <f>(State_ContributionTestResults!AH16-State_ContributionTestResults!AH$2)*-1</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AH16" s="35">
+        <f t="shared" si="1"/>
+        <v>1.2898040986005624E-4</v>
+      </c>
+      <c r="AI16" s="37">
+        <f>SUM(AH15,AH13)</f>
+        <v>0.92376761698771215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>412</v>
       </c>
@@ -34185,126 +34427,134 @@
       </c>
       <c r="C17">
         <f>(State_ContributionTestResults!E17-State_ContributionTestResults!E$2)*-1</f>
-        <v>2192</v>
+        <v>1702</v>
       </c>
       <c r="D17">
         <f>(State_ContributionTestResults!F17-State_ContributionTestResults!F$2)*-1</f>
-        <v>2033</v>
+        <v>1187</v>
       </c>
       <c r="E17">
         <f>(State_ContributionTestResults!G17-State_ContributionTestResults!G$2)*-1</f>
-        <v>1286</v>
+        <v>468</v>
       </c>
       <c r="F17">
         <f>(State_ContributionTestResults!H17-State_ContributionTestResults!H$2)*-1</f>
-        <v>361</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <f>(State_ContributionTestResults!I17-State_ContributionTestResults!I$2)*-1</f>
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f>(State_ContributionTestResults!J17-State_ContributionTestResults!J$2)*-1</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f>(State_ContributionTestResults!K17-State_ContributionTestResults!K$2)*-1</f>
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <f>(State_ContributionTestResults!L17-State_ContributionTestResults!L$2)*-1</f>
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f>(State_ContributionTestResults!M17-State_ContributionTestResults!M$2)*-1</f>
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <f>(State_ContributionTestResults!N17-State_ContributionTestResults!N$2)*-1</f>
-        <v>-39</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <f>(State_ContributionTestResults!O17-State_ContributionTestResults!O$2)*-1</f>
-        <v>-43</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <f>(State_ContributionTestResults!P17-State_ContributionTestResults!P$2)*-1</f>
-        <v>-51</v>
+        <v>31</v>
       </c>
       <c r="O17">
         <f>(State_ContributionTestResults!Q17-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-55</v>
+        <v>28</v>
       </c>
       <c r="P17">
         <f>(State_ContributionTestResults!R17-State_ContributionTestResults!R$2)*-1</f>
-        <v>-51</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <f>(State_ContributionTestResults!S17-State_ContributionTestResults!S$2)*-1</f>
-        <v>-59</v>
+        <v>56</v>
       </c>
       <c r="R17">
         <f>(State_ContributionTestResults!T17-State_ContributionTestResults!T$2)*-1</f>
-        <v>-51</v>
+        <v>62</v>
       </c>
       <c r="S17">
         <f>(State_ContributionTestResults!U17-State_ContributionTestResults!U$2)*-1</f>
-        <v>-40</v>
+        <v>68</v>
       </c>
       <c r="T17">
         <f>(State_ContributionTestResults!V17-State_ContributionTestResults!V$2)*-1</f>
-        <v>-29</v>
+        <v>88</v>
       </c>
       <c r="U17">
         <f>(State_ContributionTestResults!W17-State_ContributionTestResults!W$2)*-1</f>
-        <v>-20</v>
+        <v>86</v>
       </c>
       <c r="V17">
         <f>(State_ContributionTestResults!X17-State_ContributionTestResults!X$2)*-1</f>
-        <v>-35</v>
+        <v>98</v>
       </c>
       <c r="W17">
         <f>(State_ContributionTestResults!Y17-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-21</v>
+        <v>113</v>
       </c>
       <c r="X17">
         <f>(State_ContributionTestResults!Z17-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-15</v>
+        <v>122</v>
       </c>
       <c r="Y17">
         <f>(State_ContributionTestResults!AA17-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-26</v>
+        <v>131</v>
       </c>
       <c r="Z17">
         <f>(State_ContributionTestResults!AB17-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-12</v>
+        <v>151</v>
       </c>
       <c r="AA17">
         <f>(State_ContributionTestResults!AC17-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-12</v>
+        <v>150</v>
       </c>
       <c r="AB17">
         <f>(State_ContributionTestResults!AD17-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-1</v>
+        <v>168</v>
       </c>
       <c r="AC17">
         <f>(State_ContributionTestResults!AE17-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-4</v>
+        <v>182</v>
       </c>
       <c r="AD17">
         <f>(State_ContributionTestResults!AF17-State_ContributionTestResults!AF$2)*-1</f>
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="AE17">
         <f>(State_ContributionTestResults!AG17-State_ContributionTestResults!AG$2)*-1</f>
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="AF17">
         <f>(State_ContributionTestResults!AH17-State_ContributionTestResults!AH$2)*-1</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="AH17" s="35">
+        <f t="shared" si="1"/>
+        <v>6.9699029174376552E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>414</v>
       </c>
@@ -34314,126 +34564,134 @@
       </c>
       <c r="C18">
         <f>(State_ContributionTestResults!E18-State_ContributionTestResults!E$2)*-1</f>
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <f>(State_ContributionTestResults!F18-State_ContributionTestResults!F$2)*-1</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <f>(State_ContributionTestResults!G18-State_ContributionTestResults!G$2)*-1</f>
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <f>(State_ContributionTestResults!H18-State_ContributionTestResults!H$2)*-1</f>
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G18">
         <f>(State_ContributionTestResults!I18-State_ContributionTestResults!I$2)*-1</f>
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="H18">
         <f>(State_ContributionTestResults!J18-State_ContributionTestResults!J$2)*-1</f>
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="I18">
         <f>(State_ContributionTestResults!K18-State_ContributionTestResults!K$2)*-1</f>
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="J18">
         <f>(State_ContributionTestResults!L18-State_ContributionTestResults!L$2)*-1</f>
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="K18">
         <f>(State_ContributionTestResults!M18-State_ContributionTestResults!M$2)*-1</f>
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="L18">
         <f>(State_ContributionTestResults!N18-State_ContributionTestResults!N$2)*-1</f>
-        <v>246</v>
+        <v>677</v>
       </c>
       <c r="M18">
         <f>(State_ContributionTestResults!O18-State_ContributionTestResults!O$2)*-1</f>
-        <v>273</v>
+        <v>611</v>
       </c>
       <c r="N18">
         <f>(State_ContributionTestResults!P18-State_ContributionTestResults!P$2)*-1</f>
-        <v>314</v>
+        <v>665</v>
       </c>
       <c r="O18">
         <f>(State_ContributionTestResults!Q18-State_ContributionTestResults!Q$2)*-1</f>
-        <v>345</v>
+        <v>729</v>
       </c>
       <c r="P18">
         <f>(State_ContributionTestResults!R18-State_ContributionTestResults!R$2)*-1</f>
-        <v>261</v>
+        <v>812</v>
       </c>
       <c r="Q18">
         <f>(State_ContributionTestResults!S18-State_ContributionTestResults!S$2)*-1</f>
-        <v>108</v>
+        <v>880</v>
       </c>
       <c r="R18">
         <f>(State_ContributionTestResults!T18-State_ContributionTestResults!T$2)*-1</f>
-        <v>348</v>
+        <v>955</v>
       </c>
       <c r="S18">
         <f>(State_ContributionTestResults!U18-State_ContributionTestResults!U$2)*-1</f>
-        <v>251</v>
+        <v>1059</v>
       </c>
       <c r="T18">
         <f>(State_ContributionTestResults!V18-State_ContributionTestResults!V$2)*-1</f>
-        <v>291</v>
+        <v>1119</v>
       </c>
       <c r="U18">
         <f>(State_ContributionTestResults!W18-State_ContributionTestResults!W$2)*-1</f>
-        <v>572</v>
+        <v>1190</v>
       </c>
       <c r="V18">
         <f>(State_ContributionTestResults!X18-State_ContributionTestResults!X$2)*-1</f>
-        <v>645</v>
+        <v>1242</v>
       </c>
       <c r="W18">
         <f>(State_ContributionTestResults!Y18-State_ContributionTestResults!Y$2)*-1</f>
-        <v>640</v>
+        <v>1318</v>
       </c>
       <c r="X18">
         <f>(State_ContributionTestResults!Z18-State_ContributionTestResults!Z$2)*-1</f>
-        <v>615</v>
+        <v>1341</v>
       </c>
       <c r="Y18">
         <f>(State_ContributionTestResults!AA18-State_ContributionTestResults!AA$2)*-1</f>
-        <v>611</v>
+        <v>1424</v>
       </c>
       <c r="Z18">
         <f>(State_ContributionTestResults!AB18-State_ContributionTestResults!AB$2)*-1</f>
-        <v>623</v>
+        <v>1447</v>
       </c>
       <c r="AA18">
         <f>(State_ContributionTestResults!AC18-State_ContributionTestResults!AC$2)*-1</f>
-        <v>588</v>
+        <v>1492</v>
       </c>
       <c r="AB18">
         <f>(State_ContributionTestResults!AD18-State_ContributionTestResults!AD$2)*-1</f>
-        <v>589</v>
+        <v>1523</v>
       </c>
       <c r="AC18">
         <f>(State_ContributionTestResults!AE18-State_ContributionTestResults!AE$2)*-1</f>
-        <v>594</v>
+        <v>1564</v>
       </c>
       <c r="AD18">
         <f>(State_ContributionTestResults!AF18-State_ContributionTestResults!AF$2)*-1</f>
-        <v>611</v>
+        <v>1579</v>
       </c>
       <c r="AE18">
         <f>(State_ContributionTestResults!AG18-State_ContributionTestResults!AG$2)*-1</f>
-        <v>681</v>
+        <v>1673</v>
       </c>
       <c r="AF18">
         <f>(State_ContributionTestResults!AH18-State_ContributionTestResults!AH$2)*-1</f>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+        <v>1721</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="0"/>
+        <v>1721</v>
+      </c>
+      <c r="AH18" s="35">
+        <f t="shared" si="1"/>
+        <v>4.2687554878684001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>416</v>
       </c>
@@ -34443,126 +34701,134 @@
       </c>
       <c r="C19">
         <f>(State_ContributionTestResults!E19-State_ContributionTestResults!E$2)*-1</f>
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D19">
         <f>(State_ContributionTestResults!F19-State_ContributionTestResults!F$2)*-1</f>
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="E19">
         <f>(State_ContributionTestResults!G19-State_ContributionTestResults!G$2)*-1</f>
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <f>(State_ContributionTestResults!H19-State_ContributionTestResults!H$2)*-1</f>
-        <v>567</v>
+        <v>469</v>
       </c>
       <c r="G19">
         <f>(State_ContributionTestResults!I19-State_ContributionTestResults!I$2)*-1</f>
-        <v>582</v>
+        <v>463</v>
       </c>
       <c r="H19">
         <f>(State_ContributionTestResults!J19-State_ContributionTestResults!J$2)*-1</f>
-        <v>600</v>
+        <v>491</v>
       </c>
       <c r="I19">
         <f>(State_ContributionTestResults!K19-State_ContributionTestResults!K$2)*-1</f>
-        <v>647</v>
+        <v>538</v>
       </c>
       <c r="J19">
         <f>(State_ContributionTestResults!L19-State_ContributionTestResults!L$2)*-1</f>
-        <v>734</v>
+        <v>596</v>
       </c>
       <c r="K19">
         <f>(State_ContributionTestResults!M19-State_ContributionTestResults!M$2)*-1</f>
-        <v>829</v>
+        <v>672</v>
       </c>
       <c r="L19">
         <f>(State_ContributionTestResults!N19-State_ContributionTestResults!N$2)*-1</f>
-        <v>930</v>
+        <v>743</v>
       </c>
       <c r="M19">
         <f>(State_ContributionTestResults!O19-State_ContributionTestResults!O$2)*-1</f>
-        <v>1040</v>
+        <v>829</v>
       </c>
       <c r="N19">
         <f>(State_ContributionTestResults!P19-State_ContributionTestResults!P$2)*-1</f>
-        <v>1178</v>
+        <v>920</v>
       </c>
       <c r="O19">
         <f>(State_ContributionTestResults!Q19-State_ContributionTestResults!Q$2)*-1</f>
-        <v>1302</v>
+        <v>976</v>
       </c>
       <c r="P19">
         <f>(State_ContributionTestResults!R19-State_ContributionTestResults!R$2)*-1</f>
-        <v>1299</v>
+        <v>1046</v>
       </c>
       <c r="Q19">
         <f>(State_ContributionTestResults!S19-State_ContributionTestResults!S$2)*-1</f>
-        <v>1258</v>
+        <v>1104</v>
       </c>
       <c r="R19">
         <f>(State_ContributionTestResults!T19-State_ContributionTestResults!T$2)*-1</f>
-        <v>1607</v>
+        <v>1200</v>
       </c>
       <c r="S19">
         <f>(State_ContributionTestResults!U19-State_ContributionTestResults!U$2)*-1</f>
-        <v>1610</v>
+        <v>1312</v>
       </c>
       <c r="T19">
         <f>(State_ContributionTestResults!V19-State_ContributionTestResults!V$2)*-1</f>
-        <v>1817</v>
+        <v>1424</v>
       </c>
       <c r="U19">
         <f>(State_ContributionTestResults!W19-State_ContributionTestResults!W$2)*-1</f>
-        <v>2276</v>
+        <v>1524</v>
       </c>
       <c r="V19">
         <f>(State_ContributionTestResults!X19-State_ContributionTestResults!X$2)*-1</f>
-        <v>2539</v>
+        <v>1640</v>
       </c>
       <c r="W19">
         <f>(State_ContributionTestResults!Y19-State_ContributionTestResults!Y$2)*-1</f>
-        <v>2726</v>
+        <v>1763</v>
       </c>
       <c r="X19">
         <f>(State_ContributionTestResults!Z19-State_ContributionTestResults!Z$2)*-1</f>
-        <v>2930</v>
+        <v>1866</v>
       </c>
       <c r="Y19">
         <f>(State_ContributionTestResults!AA19-State_ContributionTestResults!AA$2)*-1</f>
-        <v>3172</v>
+        <v>2042</v>
       </c>
       <c r="Z19">
         <f>(State_ContributionTestResults!AB19-State_ContributionTestResults!AB$2)*-1</f>
-        <v>3443</v>
+        <v>2170</v>
       </c>
       <c r="AA19">
         <f>(State_ContributionTestResults!AC19-State_ContributionTestResults!AC$2)*-1</f>
-        <v>3700</v>
+        <v>2317</v>
       </c>
       <c r="AB19">
         <f>(State_ContributionTestResults!AD19-State_ContributionTestResults!AD$2)*-1</f>
-        <v>4010</v>
+        <v>2486</v>
       </c>
       <c r="AC19">
         <f>(State_ContributionTestResults!AE19-State_ContributionTestResults!AE$2)*-1</f>
-        <v>4365</v>
+        <v>2694</v>
       </c>
       <c r="AD19">
         <f>(State_ContributionTestResults!AF19-State_ContributionTestResults!AF$2)*-1</f>
-        <v>4730</v>
+        <v>2833</v>
       </c>
       <c r="AE19">
         <f>(State_ContributionTestResults!AG19-State_ContributionTestResults!AG$2)*-1</f>
-        <v>5138</v>
+        <v>3089</v>
       </c>
       <c r="AF19">
         <f>(State_ContributionTestResults!AH19-State_ContributionTestResults!AH$2)*-1</f>
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+        <v>3290</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="0"/>
+        <v>3290</v>
+      </c>
+      <c r="AH19" s="35">
+        <f t="shared" si="1"/>
+        <v>8.160491316145867E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -34572,126 +34838,134 @@
       </c>
       <c r="C20">
         <f>(State_ContributionTestResults!E20-State_ContributionTestResults!E$2)*-1</f>
-        <v>-88</v>
+        <v>-85</v>
       </c>
       <c r="D20">
         <f>(State_ContributionTestResults!F20-State_ContributionTestResults!F$2)*-1</f>
-        <v>-234</v>
+        <v>-241</v>
       </c>
       <c r="E20">
         <f>(State_ContributionTestResults!G20-State_ContributionTestResults!G$2)*-1</f>
-        <v>-19</v>
+        <v>-133</v>
       </c>
       <c r="F20">
         <f>(State_ContributionTestResults!H20-State_ContributionTestResults!H$2)*-1</f>
-        <v>446</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <f>(State_ContributionTestResults!I20-State_ContributionTestResults!I$2)*-1</f>
-        <v>856</v>
+        <v>447</v>
       </c>
       <c r="H20">
         <f>(State_ContributionTestResults!J20-State_ContributionTestResults!J$2)*-1</f>
-        <v>1384</v>
+        <v>849</v>
       </c>
       <c r="I20">
         <f>(State_ContributionTestResults!K20-State_ContributionTestResults!K$2)*-1</f>
-        <v>1638</v>
+        <v>961</v>
       </c>
       <c r="J20">
         <f>(State_ContributionTestResults!L20-State_ContributionTestResults!L$2)*-1</f>
-        <v>1661</v>
+        <v>922</v>
       </c>
       <c r="K20">
         <f>(State_ContributionTestResults!M20-State_ContributionTestResults!M$2)*-1</f>
-        <v>1898</v>
+        <v>1141</v>
       </c>
       <c r="L20">
         <f>(State_ContributionTestResults!N20-State_ContributionTestResults!N$2)*-1</f>
-        <v>2723</v>
+        <v>2065</v>
       </c>
       <c r="M20">
         <f>(State_ContributionTestResults!O20-State_ContributionTestResults!O$2)*-1</f>
-        <v>3518</v>
+        <v>2517</v>
       </c>
       <c r="N20">
         <f>(State_ContributionTestResults!P20-State_ContributionTestResults!P$2)*-1</f>
-        <v>3501</v>
+        <v>2391</v>
       </c>
       <c r="O20">
         <f>(State_ContributionTestResults!Q20-State_ContributionTestResults!Q$2)*-1</f>
-        <v>3961</v>
+        <v>2736</v>
       </c>
       <c r="P20">
         <f>(State_ContributionTestResults!R20-State_ContributionTestResults!R$2)*-1</f>
-        <v>3717</v>
+        <v>2407</v>
       </c>
       <c r="Q20">
         <f>(State_ContributionTestResults!S20-State_ContributionTestResults!S$2)*-1</f>
-        <v>3156</v>
+        <v>2236</v>
       </c>
       <c r="R20">
         <f>(State_ContributionTestResults!T20-State_ContributionTestResults!T$2)*-1</f>
-        <v>3588</v>
+        <v>2506</v>
       </c>
       <c r="S20">
         <f>(State_ContributionTestResults!U20-State_ContributionTestResults!U$2)*-1</f>
-        <v>5783</v>
+        <v>4672</v>
       </c>
       <c r="T20">
         <f>(State_ContributionTestResults!V20-State_ContributionTestResults!V$2)*-1</f>
-        <v>5670</v>
+        <v>4409</v>
       </c>
       <c r="U20">
         <f>(State_ContributionTestResults!W20-State_ContributionTestResults!W$2)*-1</f>
-        <v>6464</v>
+        <v>5037</v>
       </c>
       <c r="V20">
         <f>(State_ContributionTestResults!X20-State_ContributionTestResults!X$2)*-1</f>
-        <v>7151</v>
+        <v>5239</v>
       </c>
       <c r="W20">
         <f>(State_ContributionTestResults!Y20-State_ContributionTestResults!Y$2)*-1</f>
-        <v>6641</v>
+        <v>4896</v>
       </c>
       <c r="X20">
         <f>(State_ContributionTestResults!Z20-State_ContributionTestResults!Z$2)*-1</f>
-        <v>2864</v>
+        <v>1836</v>
       </c>
       <c r="Y20">
         <f>(State_ContributionTestResults!AA20-State_ContributionTestResults!AA$2)*-1</f>
-        <v>2798</v>
+        <v>2460</v>
       </c>
       <c r="Z20">
         <f>(State_ContributionTestResults!AB20-State_ContributionTestResults!AB$2)*-1</f>
-        <v>2151</v>
+        <v>1986</v>
       </c>
       <c r="AA20">
         <f>(State_ContributionTestResults!AC20-State_ContributionTestResults!AC$2)*-1</f>
-        <v>685</v>
+        <v>1537</v>
       </c>
       <c r="AB20">
         <f>(State_ContributionTestResults!AD20-State_ContributionTestResults!AD$2)*-1</f>
-        <v>457</v>
+        <v>1760</v>
       </c>
       <c r="AC20">
         <f>(State_ContributionTestResults!AE20-State_ContributionTestResults!AE$2)*-1</f>
-        <v>782</v>
+        <v>2247</v>
       </c>
       <c r="AD20">
         <f>(State_ContributionTestResults!AF20-State_ContributionTestResults!AF$2)*-1</f>
-        <v>3727</v>
+        <v>4623</v>
       </c>
       <c r="AE20">
         <f>(State_ContributionTestResults!AG20-State_ContributionTestResults!AG$2)*-1</f>
-        <v>7426</v>
+        <v>7268</v>
       </c>
       <c r="AF20">
         <f>(State_ContributionTestResults!AH20-State_ContributionTestResults!AH$2)*-1</f>
-        <v>8920</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+        <v>8320</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="0"/>
+        <v>8320</v>
+      </c>
+      <c r="AH20" s="35">
+        <f t="shared" si="1"/>
+        <v>2.0636865577609E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>420</v>
       </c>
@@ -34701,126 +34975,134 @@
       </c>
       <c r="C21">
         <f>(State_ContributionTestResults!E21-State_ContributionTestResults!E$2)*-1</f>
-        <v>394</v>
+        <v>249</v>
       </c>
       <c r="D21">
         <f>(State_ContributionTestResults!F21-State_ContributionTestResults!F$2)*-1</f>
-        <v>846</v>
+        <v>489</v>
       </c>
       <c r="E21">
         <f>(State_ContributionTestResults!G21-State_ContributionTestResults!G$2)*-1</f>
-        <v>1274</v>
+        <v>786</v>
       </c>
       <c r="F21">
         <f>(State_ContributionTestResults!H21-State_ContributionTestResults!H$2)*-1</f>
-        <v>1719</v>
+        <v>1038</v>
       </c>
       <c r="G21">
         <f>(State_ContributionTestResults!I21-State_ContributionTestResults!I$2)*-1</f>
-        <v>2128</v>
+        <v>1284</v>
       </c>
       <c r="H21">
         <f>(State_ContributionTestResults!J21-State_ContributionTestResults!J$2)*-1</f>
-        <v>2491</v>
+        <v>1528</v>
       </c>
       <c r="I21">
         <f>(State_ContributionTestResults!K21-State_ContributionTestResults!K$2)*-1</f>
-        <v>2888</v>
+        <v>1798</v>
       </c>
       <c r="J21">
         <f>(State_ContributionTestResults!L21-State_ContributionTestResults!L$2)*-1</f>
-        <v>3283</v>
+        <v>2027</v>
       </c>
       <c r="K21">
         <f>(State_ContributionTestResults!M21-State_ContributionTestResults!M$2)*-1</f>
-        <v>3624</v>
+        <v>2253</v>
       </c>
       <c r="L21">
         <f>(State_ContributionTestResults!N21-State_ContributionTestResults!N$2)*-1</f>
-        <v>3951</v>
+        <v>2654</v>
       </c>
       <c r="M21">
         <f>(State_ContributionTestResults!O21-State_ContributionTestResults!O$2)*-1</f>
-        <v>4261</v>
+        <v>2692</v>
       </c>
       <c r="N21">
         <f>(State_ContributionTestResults!P21-State_ContributionTestResults!P$2)*-1</f>
-        <v>4576</v>
+        <v>2880</v>
       </c>
       <c r="O21">
         <f>(State_ContributionTestResults!Q21-State_ContributionTestResults!Q$2)*-1</f>
-        <v>4811</v>
+        <v>3048</v>
       </c>
       <c r="P21">
         <f>(State_ContributionTestResults!R21-State_ContributionTestResults!R$2)*-1</f>
-        <v>5073</v>
+        <v>3229</v>
       </c>
       <c r="Q21">
         <f>(State_ContributionTestResults!S21-State_ContributionTestResults!S$2)*-1</f>
-        <v>5252</v>
+        <v>3368</v>
       </c>
       <c r="R21">
         <f>(State_ContributionTestResults!T21-State_ContributionTestResults!T$2)*-1</f>
-        <v>5423</v>
+        <v>3498</v>
       </c>
       <c r="S21">
         <f>(State_ContributionTestResults!U21-State_ContributionTestResults!U$2)*-1</f>
-        <v>5599</v>
+        <v>3621</v>
       </c>
       <c r="T21">
         <f>(State_ContributionTestResults!V21-State_ContributionTestResults!V$2)*-1</f>
-        <v>5742</v>
+        <v>3779</v>
       </c>
       <c r="U21">
         <f>(State_ContributionTestResults!W21-State_ContributionTestResults!W$2)*-1</f>
-        <v>5830</v>
+        <v>3882</v>
       </c>
       <c r="V21">
         <f>(State_ContributionTestResults!X21-State_ContributionTestResults!X$2)*-1</f>
-        <v>5893</v>
+        <v>3986</v>
       </c>
       <c r="W21">
         <f>(State_ContributionTestResults!Y21-State_ContributionTestResults!Y$2)*-1</f>
-        <v>5947</v>
+        <v>4080</v>
       </c>
       <c r="X21">
         <f>(State_ContributionTestResults!Z21-State_ContributionTestResults!Z$2)*-1</f>
-        <v>5943</v>
+        <v>4157</v>
       </c>
       <c r="Y21">
         <f>(State_ContributionTestResults!AA21-State_ContributionTestResults!AA$2)*-1</f>
-        <v>5920</v>
+        <v>4204</v>
       </c>
       <c r="Z21">
         <f>(State_ContributionTestResults!AB21-State_ContributionTestResults!AB$2)*-1</f>
-        <v>5874</v>
+        <v>4282</v>
       </c>
       <c r="AA21">
         <f>(State_ContributionTestResults!AC21-State_ContributionTestResults!AC$2)*-1</f>
-        <v>5759</v>
+        <v>4307</v>
       </c>
       <c r="AB21">
         <f>(State_ContributionTestResults!AD21-State_ContributionTestResults!AD$2)*-1</f>
-        <v>5672</v>
+        <v>4321</v>
       </c>
       <c r="AC21">
         <f>(State_ContributionTestResults!AE21-State_ContributionTestResults!AE$2)*-1</f>
-        <v>5530</v>
+        <v>4353</v>
       </c>
       <c r="AD21">
         <f>(State_ContributionTestResults!AF21-State_ContributionTestResults!AF$2)*-1</f>
-        <v>5384</v>
+        <v>4387</v>
       </c>
       <c r="AE21">
         <f>(State_ContributionTestResults!AG21-State_ContributionTestResults!AG$2)*-1</f>
-        <v>5152</v>
+        <v>4359</v>
       </c>
       <c r="AF21">
         <f>(State_ContributionTestResults!AH21-State_ContributionTestResults!AH$2)*-1</f>
-        <v>4927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+        <v>4365</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="0"/>
+        <v>4365</v>
+      </c>
+      <c r="AH21" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0826913250752799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>422</v>
       </c>
@@ -34830,126 +35112,134 @@
       </c>
       <c r="C22">
         <f>(State_ContributionTestResults!E22-State_ContributionTestResults!E$2)*-1</f>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D22">
         <f>(State_ContributionTestResults!F22-State_ContributionTestResults!F$2)*-1</f>
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="E22">
         <f>(State_ContributionTestResults!G22-State_ContributionTestResults!G$2)*-1</f>
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="F22">
         <f>(State_ContributionTestResults!H22-State_ContributionTestResults!H$2)*-1</f>
-        <v>-54</v>
+        <v>-45</v>
       </c>
       <c r="G22">
         <f>(State_ContributionTestResults!I22-State_ContributionTestResults!I$2)*-1</f>
-        <v>-63</v>
+        <v>-51</v>
       </c>
       <c r="H22">
         <f>(State_ContributionTestResults!J22-State_ContributionTestResults!J$2)*-1</f>
-        <v>-82</v>
+        <v>-59</v>
       </c>
       <c r="I22">
         <f>(State_ContributionTestResults!K22-State_ContributionTestResults!K$2)*-1</f>
-        <v>-86</v>
+        <v>-67</v>
       </c>
       <c r="J22">
         <f>(State_ContributionTestResults!L22-State_ContributionTestResults!L$2)*-1</f>
-        <v>-102</v>
+        <v>-87</v>
       </c>
       <c r="K22">
         <f>(State_ContributionTestResults!M22-State_ContributionTestResults!M$2)*-1</f>
-        <v>-119</v>
+        <v>-92</v>
       </c>
       <c r="L22">
         <f>(State_ContributionTestResults!N22-State_ContributionTestResults!N$2)*-1</f>
-        <v>-139</v>
+        <v>-105</v>
       </c>
       <c r="M22">
         <f>(State_ContributionTestResults!O22-State_ContributionTestResults!O$2)*-1</f>
-        <v>-156</v>
+        <v>-121</v>
       </c>
       <c r="N22">
         <f>(State_ContributionTestResults!P22-State_ContributionTestResults!P$2)*-1</f>
-        <v>-171</v>
+        <v>-134</v>
       </c>
       <c r="O22">
         <f>(State_ContributionTestResults!Q22-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-193</v>
+        <v>-158</v>
       </c>
       <c r="P22">
         <f>(State_ContributionTestResults!R22-State_ContributionTestResults!R$2)*-1</f>
-        <v>-220</v>
+        <v>-157</v>
       </c>
       <c r="Q22">
         <f>(State_ContributionTestResults!S22-State_ContributionTestResults!S$2)*-1</f>
-        <v>-258</v>
+        <v>-176</v>
       </c>
       <c r="R22">
         <f>(State_ContributionTestResults!T22-State_ContributionTestResults!T$2)*-1</f>
-        <v>-262</v>
+        <v>-193</v>
       </c>
       <c r="S22">
         <f>(State_ContributionTestResults!U22-State_ContributionTestResults!U$2)*-1</f>
-        <v>-291</v>
+        <v>-216</v>
       </c>
       <c r="T22">
         <f>(State_ContributionTestResults!V22-State_ContributionTestResults!V$2)*-1</f>
-        <v>-313</v>
+        <v>-218</v>
       </c>
       <c r="U22">
         <f>(State_ContributionTestResults!W22-State_ContributionTestResults!W$2)*-1</f>
-        <v>-322</v>
+        <v>-252</v>
       </c>
       <c r="V22">
         <f>(State_ContributionTestResults!X22-State_ContributionTestResults!X$2)*-1</f>
-        <v>-355</v>
+        <v>-272</v>
       </c>
       <c r="W22">
         <f>(State_ContributionTestResults!Y22-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-400</v>
+        <v>-292</v>
       </c>
       <c r="X22">
         <f>(State_ContributionTestResults!Z22-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-427</v>
+        <v>-313</v>
       </c>
       <c r="Y22">
         <f>(State_ContributionTestResults!AA22-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-445</v>
+        <v>-347</v>
       </c>
       <c r="Z22">
         <f>(State_ContributionTestResults!AB22-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-479</v>
+        <v>-362</v>
       </c>
       <c r="AA22">
         <f>(State_ContributionTestResults!AC22-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-520</v>
+        <v>-389</v>
       </c>
       <c r="AB22">
         <f>(State_ContributionTestResults!AD22-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-550</v>
+        <v>-409</v>
       </c>
       <c r="AC22">
         <f>(State_ContributionTestResults!AE22-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-593</v>
+        <v>-443</v>
       </c>
       <c r="AD22">
         <f>(State_ContributionTestResults!AF22-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-630</v>
+        <v>-462</v>
       </c>
       <c r="AE22">
         <f>(State_ContributionTestResults!AG22-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-679</v>
+        <v>-501</v>
       </c>
       <c r="AF22">
         <f>(State_ContributionTestResults!AH22-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-527</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>424</v>
       </c>
@@ -34959,126 +35249,134 @@
       </c>
       <c r="C23">
         <f>(State_ContributionTestResults!E23-State_ContributionTestResults!E$2)*-1</f>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D23">
         <f>(State_ContributionTestResults!F23-State_ContributionTestResults!F$2)*-1</f>
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E23">
         <f>(State_ContributionTestResults!G23-State_ContributionTestResults!G$2)*-1</f>
-        <v>-32</v>
+        <v>-19</v>
       </c>
       <c r="F23">
         <f>(State_ContributionTestResults!H23-State_ContributionTestResults!H$2)*-1</f>
-        <v>-44</v>
+        <v>-34</v>
       </c>
       <c r="G23">
         <f>(State_ContributionTestResults!I23-State_ContributionTestResults!I$2)*-1</f>
-        <v>-68</v>
+        <v>-44</v>
       </c>
       <c r="H23">
         <f>(State_ContributionTestResults!J23-State_ContributionTestResults!J$2)*-1</f>
-        <v>-83</v>
+        <v>-47</v>
       </c>
       <c r="I23">
         <f>(State_ContributionTestResults!K23-State_ContributionTestResults!K$2)*-1</f>
-        <v>-106</v>
+        <v>-55</v>
       </c>
       <c r="J23">
         <f>(State_ContributionTestResults!L23-State_ContributionTestResults!L$2)*-1</f>
-        <v>-117</v>
+        <v>-73</v>
       </c>
       <c r="K23">
         <f>(State_ContributionTestResults!M23-State_ContributionTestResults!M$2)*-1</f>
-        <v>-125</v>
+        <v>-77</v>
       </c>
       <c r="L23">
         <f>(State_ContributionTestResults!N23-State_ContributionTestResults!N$2)*-1</f>
-        <v>-139</v>
+        <v>-83</v>
       </c>
       <c r="M23">
         <f>(State_ContributionTestResults!O23-State_ContributionTestResults!O$2)*-1</f>
-        <v>-147</v>
+        <v>-89</v>
       </c>
       <c r="N23">
         <f>(State_ContributionTestResults!P23-State_ContributionTestResults!P$2)*-1</f>
-        <v>-154</v>
+        <v>-94</v>
       </c>
       <c r="O23">
         <f>(State_ContributionTestResults!Q23-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-170</v>
+        <v>-111</v>
       </c>
       <c r="P23">
         <f>(State_ContributionTestResults!R23-State_ContributionTestResults!R$2)*-1</f>
-        <v>-180</v>
+        <v>-98</v>
       </c>
       <c r="Q23">
         <f>(State_ContributionTestResults!S23-State_ContributionTestResults!S$2)*-1</f>
-        <v>-213</v>
+        <v>-116</v>
       </c>
       <c r="R23">
         <f>(State_ContributionTestResults!T23-State_ContributionTestResults!T$2)*-1</f>
-        <v>-207</v>
+        <v>-118</v>
       </c>
       <c r="S23">
         <f>(State_ContributionTestResults!U23-State_ContributionTestResults!U$2)*-1</f>
-        <v>-232</v>
+        <v>-129</v>
       </c>
       <c r="T23">
         <f>(State_ContributionTestResults!V23-State_ContributionTestResults!V$2)*-1</f>
-        <v>-236</v>
+        <v>-135</v>
       </c>
       <c r="U23">
         <f>(State_ContributionTestResults!W23-State_ContributionTestResults!W$2)*-1</f>
-        <v>-253</v>
+        <v>-145</v>
       </c>
       <c r="V23">
         <f>(State_ContributionTestResults!X23-State_ContributionTestResults!X$2)*-1</f>
-        <v>-266</v>
+        <v>-152</v>
       </c>
       <c r="W23">
         <f>(State_ContributionTestResults!Y23-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-287</v>
+        <v>-147</v>
       </c>
       <c r="X23">
         <f>(State_ContributionTestResults!Z23-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-298</v>
+        <v>-161</v>
       </c>
       <c r="Y23">
         <f>(State_ContributionTestResults!AA23-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-306</v>
+        <v>-171</v>
       </c>
       <c r="Z23">
         <f>(State_ContributionTestResults!AB23-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-308</v>
+        <v>-167</v>
       </c>
       <c r="AA23">
         <f>(State_ContributionTestResults!AC23-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-333</v>
+        <v>-183</v>
       </c>
       <c r="AB23">
         <f>(State_ContributionTestResults!AD23-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-344</v>
+        <v>-179</v>
       </c>
       <c r="AC23">
         <f>(State_ContributionTestResults!AE23-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-382</v>
+        <v>-188</v>
       </c>
       <c r="AD23">
         <f>(State_ContributionTestResults!AF23-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-400</v>
+        <v>-207</v>
       </c>
       <c r="AE23">
         <f>(State_ContributionTestResults!AG23-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-424</v>
+        <v>-208</v>
       </c>
       <c r="AF23">
         <f>(State_ContributionTestResults!AH23-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-213</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>426</v>
       </c>
@@ -35088,126 +35386,134 @@
       </c>
       <c r="C24">
         <f>(State_ContributionTestResults!E24-State_ContributionTestResults!E$2)*-1</f>
-        <v>-77</v>
+        <v>-46</v>
       </c>
       <c r="D24">
         <f>(State_ContributionTestResults!F24-State_ContributionTestResults!F$2)*-1</f>
-        <v>-138</v>
+        <v>-86</v>
       </c>
       <c r="E24">
         <f>(State_ContributionTestResults!G24-State_ContributionTestResults!G$2)*-1</f>
-        <v>-184</v>
+        <v>-117</v>
       </c>
       <c r="F24">
         <f>(State_ContributionTestResults!H24-State_ContributionTestResults!H$2)*-1</f>
-        <v>-214</v>
+        <v>-141</v>
       </c>
       <c r="G24">
         <f>(State_ContributionTestResults!I24-State_ContributionTestResults!I$2)*-1</f>
-        <v>-238</v>
+        <v>-159</v>
       </c>
       <c r="H24">
         <f>(State_ContributionTestResults!J24-State_ContributionTestResults!J$2)*-1</f>
-        <v>-250</v>
+        <v>-175</v>
       </c>
       <c r="I24">
         <f>(State_ContributionTestResults!K24-State_ContributionTestResults!K$2)*-1</f>
-        <v>-193</v>
+        <v>-155</v>
       </c>
       <c r="J24">
         <f>(State_ContributionTestResults!L24-State_ContributionTestResults!L$2)*-1</f>
-        <v>-135</v>
+        <v>-141</v>
       </c>
       <c r="K24">
         <f>(State_ContributionTestResults!M24-State_ContributionTestResults!M$2)*-1</f>
-        <v>-71</v>
+        <v>-112</v>
       </c>
       <c r="L24">
         <f>(State_ContributionTestResults!N24-State_ContributionTestResults!N$2)*-1</f>
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="M24">
         <f>(State_ContributionTestResults!O24-State_ContributionTestResults!O$2)*-1</f>
-        <v>84</v>
+        <v>-13</v>
       </c>
       <c r="N24">
         <f>(State_ContributionTestResults!P24-State_ContributionTestResults!P$2)*-1</f>
-        <v>147</v>
+        <v>-2</v>
       </c>
       <c r="O24">
         <f>(State_ContributionTestResults!Q24-State_ContributionTestResults!Q$2)*-1</f>
-        <v>185</v>
+        <v>-7</v>
       </c>
       <c r="P24">
         <f>(State_ContributionTestResults!R24-State_ContributionTestResults!R$2)*-1</f>
-        <v>188</v>
+        <v>-10</v>
       </c>
       <c r="Q24">
         <f>(State_ContributionTestResults!S24-State_ContributionTestResults!S$2)*-1</f>
-        <v>117</v>
+        <v>-36</v>
       </c>
       <c r="R24">
         <f>(State_ContributionTestResults!T24-State_ContributionTestResults!T$2)*-1</f>
-        <v>79</v>
+        <v>-62</v>
       </c>
       <c r="S24">
         <f>(State_ContributionTestResults!U24-State_ContributionTestResults!U$2)*-1</f>
-        <v>27</v>
+        <v>-118</v>
       </c>
       <c r="T24">
         <f>(State_ContributionTestResults!V24-State_ContributionTestResults!V$2)*-1</f>
-        <v>-28</v>
+        <v>-130</v>
       </c>
       <c r="U24">
         <f>(State_ContributionTestResults!W24-State_ContributionTestResults!W$2)*-1</f>
-        <v>-58</v>
+        <v>-153</v>
       </c>
       <c r="V24">
         <f>(State_ContributionTestResults!X24-State_ContributionTestResults!X$2)*-1</f>
-        <v>-56</v>
+        <v>-152</v>
       </c>
       <c r="W24">
         <f>(State_ContributionTestResults!Y24-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-66</v>
+        <v>-140</v>
       </c>
       <c r="X24">
         <f>(State_ContributionTestResults!Z24-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-68</v>
+        <v>-142</v>
       </c>
       <c r="Y24">
         <f>(State_ContributionTestResults!AA24-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-75</v>
+        <v>-141</v>
       </c>
       <c r="Z24">
         <f>(State_ContributionTestResults!AB24-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-50</v>
+        <v>-106</v>
       </c>
       <c r="AA24">
         <f>(State_ContributionTestResults!AC24-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-57</v>
+        <v>-100</v>
       </c>
       <c r="AB24">
         <f>(State_ContributionTestResults!AD24-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-22</v>
+        <v>-105</v>
       </c>
       <c r="AC24">
         <f>(State_ContributionTestResults!AE24-State_ContributionTestResults!AE$2)*-1</f>
-        <v>6</v>
+        <v>-56</v>
       </c>
       <c r="AD24">
         <f>(State_ContributionTestResults!AF24-State_ContributionTestResults!AF$2)*-1</f>
-        <v>33</v>
+        <v>-55</v>
       </c>
       <c r="AE24">
         <f>(State_ContributionTestResults!AG24-State_ContributionTestResults!AG$2)*-1</f>
-        <v>68</v>
+        <v>-13</v>
       </c>
       <c r="AF24">
         <f>(State_ContributionTestResults!AH24-State_ContributionTestResults!AH$2)*-1</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH24" s="35">
+        <f t="shared" si="1"/>
+        <v>7.6892167416572001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>428</v>
       </c>
@@ -35217,126 +35523,134 @@
       </c>
       <c r="C25">
         <f>(State_ContributionTestResults!E25-State_ContributionTestResults!E$2)*-1</f>
-        <v>-64</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <f>(State_ContributionTestResults!F25-State_ContributionTestResults!F$2)*-1</f>
-        <v>-617</v>
+        <v>-239</v>
       </c>
       <c r="E25">
         <f>(State_ContributionTestResults!G25-State_ContributionTestResults!G$2)*-1</f>
-        <v>-1413</v>
+        <v>-661</v>
       </c>
       <c r="F25">
         <f>(State_ContributionTestResults!H25-State_ContributionTestResults!H$2)*-1</f>
-        <v>-2447</v>
+        <v>-1254</v>
       </c>
       <c r="G25">
         <f>(State_ContributionTestResults!I25-State_ContributionTestResults!I$2)*-1</f>
-        <v>-3659</v>
+        <v>-1915</v>
       </c>
       <c r="H25">
         <f>(State_ContributionTestResults!J25-State_ContributionTestResults!J$2)*-1</f>
-        <v>-4896</v>
+        <v>-2554</v>
       </c>
       <c r="I25">
         <f>(State_ContributionTestResults!K25-State_ContributionTestResults!K$2)*-1</f>
-        <v>-6111</v>
+        <v>-3199</v>
       </c>
       <c r="J25">
         <f>(State_ContributionTestResults!L25-State_ContributionTestResults!L$2)*-1</f>
-        <v>-7423</v>
+        <v>-4072</v>
       </c>
       <c r="K25">
         <f>(State_ContributionTestResults!M25-State_ContributionTestResults!M$2)*-1</f>
-        <v>-8859</v>
+        <v>-4678</v>
       </c>
       <c r="L25">
         <f>(State_ContributionTestResults!N25-State_ContributionTestResults!N$2)*-1</f>
-        <v>-10477</v>
+        <v>-5549</v>
       </c>
       <c r="M25">
         <f>(State_ContributionTestResults!O25-State_ContributionTestResults!O$2)*-1</f>
-        <v>-12217</v>
+        <v>-6535</v>
       </c>
       <c r="N25">
         <f>(State_ContributionTestResults!P25-State_ContributionTestResults!P$2)*-1</f>
-        <v>-14227</v>
+        <v>-7597</v>
       </c>
       <c r="O25">
         <f>(State_ContributionTestResults!Q25-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-16400</v>
+        <v>-8751</v>
       </c>
       <c r="P25">
         <f>(State_ContributionTestResults!R25-State_ContributionTestResults!R$2)*-1</f>
-        <v>-18719</v>
+        <v>-9805</v>
       </c>
       <c r="Q25">
         <f>(State_ContributionTestResults!S25-State_ContributionTestResults!S$2)*-1</f>
-        <v>-21134</v>
+        <v>-10965</v>
       </c>
       <c r="R25">
         <f>(State_ContributionTestResults!T25-State_ContributionTestResults!T$2)*-1</f>
-        <v>-23482</v>
+        <v>-12230</v>
       </c>
       <c r="S25">
         <f>(State_ContributionTestResults!U25-State_ContributionTestResults!U$2)*-1</f>
-        <v>-26754</v>
+        <v>-14120</v>
       </c>
       <c r="T25">
         <f>(State_ContributionTestResults!V25-State_ContributionTestResults!V$2)*-1</f>
-        <v>-29339</v>
+        <v>-15327</v>
       </c>
       <c r="U25">
         <f>(State_ContributionTestResults!W25-State_ContributionTestResults!W$2)*-1</f>
-        <v>-31961</v>
+        <v>-17046</v>
       </c>
       <c r="V25">
         <f>(State_ContributionTestResults!X25-State_ContributionTestResults!X$2)*-1</f>
-        <v>-34944</v>
+        <v>-18535</v>
       </c>
       <c r="W25">
         <f>(State_ContributionTestResults!Y25-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-38193</v>
+        <v>-20181</v>
       </c>
       <c r="X25">
         <f>(State_ContributionTestResults!Z25-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-41104</v>
+        <v>-21523</v>
       </c>
       <c r="Y25">
         <f>(State_ContributionTestResults!AA25-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-44315</v>
+        <v>-23255</v>
       </c>
       <c r="Z25">
         <f>(State_ContributionTestResults!AB25-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-47380</v>
+        <v>-24605</v>
       </c>
       <c r="AA25">
         <f>(State_ContributionTestResults!AC25-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-50797</v>
+        <v>-26286</v>
       </c>
       <c r="AB25">
         <f>(State_ContributionTestResults!AD25-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-54718</v>
+        <v>-28305</v>
       </c>
       <c r="AC25">
         <f>(State_ContributionTestResults!AE25-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-59007</v>
+        <v>-30541</v>
       </c>
       <c r="AD25">
         <f>(State_ContributionTestResults!AF25-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-63021</v>
+        <v>-32110</v>
       </c>
       <c r="AE25">
         <f>(State_ContributionTestResults!AG25-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-68689</v>
+        <v>-35737</v>
       </c>
       <c r="AF25">
         <f>(State_ContributionTestResults!AH25-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-73661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-37971</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -35346,126 +35660,134 @@
       </c>
       <c r="C26">
         <f>(State_ContributionTestResults!E26-State_ContributionTestResults!E$2)*-1</f>
-        <v>-26</v>
+        <v>-7</v>
       </c>
       <c r="D26">
         <f>(State_ContributionTestResults!F26-State_ContributionTestResults!F$2)*-1</f>
-        <v>-47</v>
+        <v>-30</v>
       </c>
       <c r="E26">
         <f>(State_ContributionTestResults!G26-State_ContributionTestResults!G$2)*-1</f>
-        <v>-112</v>
+        <v>-79</v>
       </c>
       <c r="F26">
         <f>(State_ContributionTestResults!H26-State_ContributionTestResults!H$2)*-1</f>
-        <v>-198</v>
+        <v>-139</v>
       </c>
       <c r="G26">
         <f>(State_ContributionTestResults!I26-State_ContributionTestResults!I$2)*-1</f>
-        <v>-270</v>
+        <v>-198</v>
       </c>
       <c r="H26">
         <f>(State_ContributionTestResults!J26-State_ContributionTestResults!J$2)*-1</f>
-        <v>-349</v>
+        <v>-239</v>
       </c>
       <c r="I26">
         <f>(State_ContributionTestResults!K26-State_ContributionTestResults!K$2)*-1</f>
-        <v>-421</v>
+        <v>-293</v>
       </c>
       <c r="J26">
         <f>(State_ContributionTestResults!L26-State_ContributionTestResults!L$2)*-1</f>
-        <v>-489</v>
+        <v>-351</v>
       </c>
       <c r="K26">
         <f>(State_ContributionTestResults!M26-State_ContributionTestResults!M$2)*-1</f>
-        <v>-584</v>
+        <v>-421</v>
       </c>
       <c r="L26">
         <f>(State_ContributionTestResults!N26-State_ContributionTestResults!N$2)*-1</f>
-        <v>-705</v>
+        <v>-517</v>
       </c>
       <c r="M26">
         <f>(State_ContributionTestResults!O26-State_ContributionTestResults!O$2)*-1</f>
-        <v>-810</v>
+        <v>-597</v>
       </c>
       <c r="N26">
         <f>(State_ContributionTestResults!P26-State_ContributionTestResults!P$2)*-1</f>
-        <v>-911</v>
+        <v>-670</v>
       </c>
       <c r="O26">
         <f>(State_ContributionTestResults!Q26-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-1018</v>
+        <v>-763</v>
       </c>
       <c r="P26">
         <f>(State_ContributionTestResults!R26-State_ContributionTestResults!R$2)*-1</f>
-        <v>-1254</v>
+        <v>-843</v>
       </c>
       <c r="Q26">
         <f>(State_ContributionTestResults!S26-State_ContributionTestResults!S$2)*-1</f>
-        <v>-1535</v>
+        <v>-954</v>
       </c>
       <c r="R26">
         <f>(State_ContributionTestResults!T26-State_ContributionTestResults!T$2)*-1</f>
-        <v>-1534</v>
+        <v>-1088</v>
       </c>
       <c r="S26">
         <f>(State_ContributionTestResults!U26-State_ContributionTestResults!U$2)*-1</f>
-        <v>-1914</v>
+        <v>-1283</v>
       </c>
       <c r="T26">
         <f>(State_ContributionTestResults!V26-State_ContributionTestResults!V$2)*-1</f>
-        <v>-1997</v>
+        <v>-1355</v>
       </c>
       <c r="U26">
         <f>(State_ContributionTestResults!W26-State_ContributionTestResults!W$2)*-1</f>
-        <v>-1906</v>
+        <v>-1479</v>
       </c>
       <c r="V26">
         <f>(State_ContributionTestResults!X26-State_ContributionTestResults!X$2)*-1</f>
-        <v>-1994</v>
+        <v>-1580</v>
       </c>
       <c r="W26">
         <f>(State_ContributionTestResults!Y26-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-2129</v>
+        <v>-1679</v>
       </c>
       <c r="X26">
         <f>(State_ContributionTestResults!Z26-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-2213</v>
+        <v>-1730</v>
       </c>
       <c r="Y26">
         <f>(State_ContributionTestResults!AA26-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-2306</v>
+        <v>-1878</v>
       </c>
       <c r="Z26">
         <f>(State_ContributionTestResults!AB26-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-2415</v>
+        <v>-1966</v>
       </c>
       <c r="AA26">
         <f>(State_ContributionTestResults!AC26-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-2527</v>
+        <v>-2036</v>
       </c>
       <c r="AB26">
         <f>(State_ContributionTestResults!AD26-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-2649</v>
+        <v>-2155</v>
       </c>
       <c r="AC26">
         <f>(State_ContributionTestResults!AE26-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-2809</v>
+        <v>-2267</v>
       </c>
       <c r="AD26">
         <f>(State_ContributionTestResults!AF26-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-2836</v>
+        <v>-2323</v>
       </c>
       <c r="AE26">
         <f>(State_ContributionTestResults!AG26-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-3093</v>
+        <v>-2524</v>
       </c>
       <c r="AF26">
         <f>(State_ContributionTestResults!AH26-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-3176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-2571</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -35475,126 +35797,134 @@
       </c>
       <c r="C27">
         <f>(State_ContributionTestResults!E27-State_ContributionTestResults!E$2)*-1</f>
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="D27">
         <f>(State_ContributionTestResults!F27-State_ContributionTestResults!F$2)*-1</f>
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E27">
         <f>(State_ContributionTestResults!G27-State_ContributionTestResults!G$2)*-1</f>
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="F27">
         <f>(State_ContributionTestResults!H27-State_ContributionTestResults!H$2)*-1</f>
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="G27">
         <f>(State_ContributionTestResults!I27-State_ContributionTestResults!I$2)*-1</f>
-        <v>-176</v>
+        <v>-219</v>
       </c>
       <c r="H27">
         <f>(State_ContributionTestResults!J27-State_ContributionTestResults!J$2)*-1</f>
-        <v>-282</v>
+        <v>-206</v>
       </c>
       <c r="I27">
         <f>(State_ContributionTestResults!K27-State_ContributionTestResults!K$2)*-1</f>
-        <v>-277</v>
+        <v>-183</v>
       </c>
       <c r="J27">
         <f>(State_ContributionTestResults!L27-State_ContributionTestResults!L$2)*-1</f>
-        <v>-309</v>
+        <v>-211</v>
       </c>
       <c r="K27">
         <f>(State_ContributionTestResults!M27-State_ContributionTestResults!M$2)*-1</f>
-        <v>-349</v>
+        <v>-213</v>
       </c>
       <c r="L27">
         <f>(State_ContributionTestResults!N27-State_ContributionTestResults!N$2)*-1</f>
-        <v>-373</v>
+        <v>-200</v>
       </c>
       <c r="M27">
         <f>(State_ContributionTestResults!O27-State_ContributionTestResults!O$2)*-1</f>
-        <v>-366</v>
+        <v>-177</v>
       </c>
       <c r="N27">
         <f>(State_ContributionTestResults!P27-State_ContributionTestResults!P$2)*-1</f>
-        <v>-425</v>
+        <v>-189</v>
       </c>
       <c r="O27">
         <f>(State_ContributionTestResults!Q27-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-494</v>
+        <v>-207</v>
       </c>
       <c r="P27">
         <f>(State_ContributionTestResults!R27-State_ContributionTestResults!R$2)*-1</f>
-        <v>-673</v>
+        <v>-219</v>
       </c>
       <c r="Q27">
         <f>(State_ContributionTestResults!S27-State_ContributionTestResults!S$2)*-1</f>
-        <v>-872</v>
+        <v>-247</v>
       </c>
       <c r="R27">
         <f>(State_ContributionTestResults!T27-State_ContributionTestResults!T$2)*-1</f>
-        <v>-726</v>
+        <v>-290</v>
       </c>
       <c r="S27">
         <f>(State_ContributionTestResults!U27-State_ContributionTestResults!U$2)*-1</f>
-        <v>-1103</v>
+        <v>-428</v>
       </c>
       <c r="T27">
         <f>(State_ContributionTestResults!V27-State_ContributionTestResults!V$2)*-1</f>
-        <v>-965</v>
+        <v>-250</v>
       </c>
       <c r="U27">
         <f>(State_ContributionTestResults!W27-State_ContributionTestResults!W$2)*-1</f>
-        <v>-639</v>
+        <v>-308</v>
       </c>
       <c r="V27">
         <f>(State_ContributionTestResults!X27-State_ContributionTestResults!X$2)*-1</f>
-        <v>-557</v>
+        <v>-298</v>
       </c>
       <c r="W27">
         <f>(State_ContributionTestResults!Y27-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-597</v>
+        <v>-291</v>
       </c>
       <c r="X27">
         <f>(State_ContributionTestResults!Z27-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-568</v>
+        <v>-235</v>
       </c>
       <c r="Y27">
         <f>(State_ContributionTestResults!AA27-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-431</v>
+        <v>-56</v>
       </c>
       <c r="Z27">
         <f>(State_ContributionTestResults!AB27-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-628</v>
+        <v>-93</v>
       </c>
       <c r="AA27">
         <f>(State_ContributionTestResults!AC27-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-1063</v>
+        <v>-350</v>
       </c>
       <c r="AB27">
         <f>(State_ContributionTestResults!AD27-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-1372</v>
+        <v>-541</v>
       </c>
       <c r="AC27">
         <f>(State_ContributionTestResults!AE27-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-1534</v>
+        <v>-628</v>
       </c>
       <c r="AD27">
         <f>(State_ContributionTestResults!AF27-State_ContributionTestResults!AF$2)*-1</f>
-        <v>680</v>
+        <v>2088</v>
       </c>
       <c r="AE27">
         <f>(State_ContributionTestResults!AG27-State_ContributionTestResults!AG$2)*-1</f>
-        <v>2552</v>
+        <v>4694</v>
       </c>
       <c r="AF27">
         <f>(State_ContributionTestResults!AH27-State_ContributionTestResults!AH$2)*-1</f>
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+        <v>8623</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="0"/>
+        <v>8623</v>
+      </c>
+      <c r="AH27" s="35">
+        <f t="shared" si="1"/>
+        <v>2.1388424504293558E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>434</v>
       </c>
@@ -35604,126 +35934,134 @@
       </c>
       <c r="C28">
         <f>(State_ContributionTestResults!E28-State_ContributionTestResults!E$2)*-1</f>
-        <v>289</v>
+        <v>603</v>
       </c>
       <c r="D28">
         <f>(State_ContributionTestResults!F28-State_ContributionTestResults!F$2)*-1</f>
-        <v>302</v>
+        <v>601</v>
       </c>
       <c r="E28">
         <f>(State_ContributionTestResults!G28-State_ContributionTestResults!G$2)*-1</f>
-        <v>282</v>
+        <v>560</v>
       </c>
       <c r="F28">
         <f>(State_ContributionTestResults!H28-State_ContributionTestResults!H$2)*-1</f>
-        <v>218</v>
+        <v>526</v>
       </c>
       <c r="G28">
         <f>(State_ContributionTestResults!I28-State_ContributionTestResults!I$2)*-1</f>
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="H28">
         <f>(State_ContributionTestResults!J28-State_ContributionTestResults!J$2)*-1</f>
-        <v>164</v>
+        <v>494</v>
       </c>
       <c r="I28">
         <f>(State_ContributionTestResults!K28-State_ContributionTestResults!K$2)*-1</f>
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="J28">
         <f>(State_ContributionTestResults!L28-State_ContributionTestResults!L$2)*-1</f>
-        <v>144</v>
+        <v>472</v>
       </c>
       <c r="K28">
         <f>(State_ContributionTestResults!M28-State_ContributionTestResults!M$2)*-1</f>
-        <v>125</v>
+        <v>468</v>
       </c>
       <c r="L28">
         <f>(State_ContributionTestResults!N28-State_ContributionTestResults!N$2)*-1</f>
-        <v>92</v>
+        <v>457</v>
       </c>
       <c r="M28">
         <f>(State_ContributionTestResults!O28-State_ContributionTestResults!O$2)*-1</f>
-        <v>85</v>
+        <v>453</v>
       </c>
       <c r="N28">
         <f>(State_ContributionTestResults!P28-State_ContributionTestResults!P$2)*-1</f>
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="O28">
         <f>(State_ContributionTestResults!Q28-State_ContributionTestResults!Q$2)*-1</f>
-        <v>71</v>
+        <v>444</v>
       </c>
       <c r="P28">
         <f>(State_ContributionTestResults!R28-State_ContributionTestResults!R$2)*-1</f>
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="Q28">
         <f>(State_ContributionTestResults!S28-State_ContributionTestResults!S$2)*-1</f>
-        <v>-1</v>
+        <v>439</v>
       </c>
       <c r="R28">
         <f>(State_ContributionTestResults!T28-State_ContributionTestResults!T$2)*-1</f>
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="S28">
         <f>(State_ContributionTestResults!U28-State_ContributionTestResults!U$2)*-1</f>
-        <v>-12</v>
+        <v>422</v>
       </c>
       <c r="T28">
         <f>(State_ContributionTestResults!V28-State_ContributionTestResults!V$2)*-1</f>
-        <v>9</v>
+        <v>441</v>
       </c>
       <c r="U28">
         <f>(State_ContributionTestResults!W28-State_ContributionTestResults!W$2)*-1</f>
-        <v>38</v>
+        <v>418</v>
       </c>
       <c r="V28">
         <f>(State_ContributionTestResults!X28-State_ContributionTestResults!X$2)*-1</f>
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="W28">
         <f>(State_ContributionTestResults!Y28-State_ContributionTestResults!Y$2)*-1</f>
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="X28">
         <f>(State_ContributionTestResults!Z28-State_ContributionTestResults!Z$2)*-1</f>
-        <v>27</v>
+        <v>416</v>
       </c>
       <c r="Y28">
         <f>(State_ContributionTestResults!AA28-State_ContributionTestResults!AA$2)*-1</f>
-        <v>28</v>
+        <v>400</v>
       </c>
       <c r="Z28">
         <f>(State_ContributionTestResults!AB28-State_ContributionTestResults!AB$2)*-1</f>
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="AA28">
         <f>(State_ContributionTestResults!AC28-State_ContributionTestResults!AC$2)*-1</f>
-        <v>26</v>
+        <v>417</v>
       </c>
       <c r="AB28">
         <f>(State_ContributionTestResults!AD28-State_ContributionTestResults!AD$2)*-1</f>
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="AC28">
         <f>(State_ContributionTestResults!AE28-State_ContributionTestResults!AE$2)*-1</f>
-        <v>8</v>
+        <v>411</v>
       </c>
       <c r="AD28">
         <f>(State_ContributionTestResults!AF28-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-1</v>
+        <v>421</v>
       </c>
       <c r="AE28">
         <f>(State_ContributionTestResults!AG28-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-14</v>
+        <v>410</v>
       </c>
       <c r="AF28">
         <f>(State_ContributionTestResults!AH28-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="AH28" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0144805313992886E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -35733,126 +36071,134 @@
       </c>
       <c r="C29">
         <f>(State_ContributionTestResults!E29-State_ContributionTestResults!E$2)*-1</f>
-        <v>981</v>
+        <v>423</v>
       </c>
       <c r="D29">
         <f>(State_ContributionTestResults!F29-State_ContributionTestResults!F$2)*-1</f>
-        <v>732</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <f>(State_ContributionTestResults!G29-State_ContributionTestResults!G$2)*-1</f>
-        <v>174</v>
+        <v>-224</v>
       </c>
       <c r="F29">
         <f>(State_ContributionTestResults!H29-State_ContributionTestResults!H$2)*-1</f>
-        <v>234</v>
+        <v>-113</v>
       </c>
       <c r="G29">
         <f>(State_ContributionTestResults!I29-State_ContributionTestResults!I$2)*-1</f>
-        <v>224</v>
+        <v>-132</v>
       </c>
       <c r="H29">
         <f>(State_ContributionTestResults!J29-State_ContributionTestResults!J$2)*-1</f>
-        <v>201</v>
+        <v>-143</v>
       </c>
       <c r="I29">
         <f>(State_ContributionTestResults!K29-State_ContributionTestResults!K$2)*-1</f>
-        <v>185</v>
+        <v>-153</v>
       </c>
       <c r="J29">
         <f>(State_ContributionTestResults!L29-State_ContributionTestResults!L$2)*-1</f>
-        <v>129</v>
+        <v>-163</v>
       </c>
       <c r="K29">
         <f>(State_ContributionTestResults!M29-State_ContributionTestResults!M$2)*-1</f>
-        <v>40</v>
+        <v>-189</v>
       </c>
       <c r="L29">
         <f>(State_ContributionTestResults!N29-State_ContributionTestResults!N$2)*-1</f>
-        <v>-51</v>
+        <v>-209</v>
       </c>
       <c r="M29">
         <f>(State_ContributionTestResults!O29-State_ContributionTestResults!O$2)*-1</f>
-        <v>-101</v>
+        <v>-222</v>
       </c>
       <c r="N29">
         <f>(State_ContributionTestResults!P29-State_ContributionTestResults!P$2)*-1</f>
-        <v>-177</v>
+        <v>-234</v>
       </c>
       <c r="O29">
         <f>(State_ContributionTestResults!Q29-State_ContributionTestResults!Q$2)*-1</f>
-        <v>-217</v>
+        <v>-237</v>
       </c>
       <c r="P29">
         <f>(State_ContributionTestResults!R29-State_ContributionTestResults!R$2)*-1</f>
-        <v>-255</v>
+        <v>-214</v>
       </c>
       <c r="Q29">
         <f>(State_ContributionTestResults!S29-State_ContributionTestResults!S$2)*-1</f>
-        <v>-295</v>
+        <v>-228</v>
       </c>
       <c r="R29">
         <f>(State_ContributionTestResults!T29-State_ContributionTestResults!T$2)*-1</f>
-        <v>-318</v>
+        <v>-221</v>
       </c>
       <c r="S29">
         <f>(State_ContributionTestResults!U29-State_ContributionTestResults!U$2)*-1</f>
-        <v>-369</v>
+        <v>-243</v>
       </c>
       <c r="T29">
         <f>(State_ContributionTestResults!V29-State_ContributionTestResults!V$2)*-1</f>
-        <v>-389</v>
+        <v>-242</v>
       </c>
       <c r="U29">
         <f>(State_ContributionTestResults!W29-State_ContributionTestResults!W$2)*-1</f>
-        <v>-419</v>
+        <v>-259</v>
       </c>
       <c r="V29">
         <f>(State_ContributionTestResults!X29-State_ContributionTestResults!X$2)*-1</f>
-        <v>-459</v>
+        <v>-260</v>
       </c>
       <c r="W29">
         <f>(State_ContributionTestResults!Y29-State_ContributionTestResults!Y$2)*-1</f>
-        <v>-501</v>
+        <v>-274</v>
       </c>
       <c r="X29">
         <f>(State_ContributionTestResults!Z29-State_ContributionTestResults!Z$2)*-1</f>
-        <v>-525</v>
+        <v>-242</v>
       </c>
       <c r="Y29">
         <f>(State_ContributionTestResults!AA29-State_ContributionTestResults!AA$2)*-1</f>
-        <v>-540</v>
+        <v>-255</v>
       </c>
       <c r="Z29">
         <f>(State_ContributionTestResults!AB29-State_ContributionTestResults!AB$2)*-1</f>
-        <v>-539</v>
+        <v>-236</v>
       </c>
       <c r="AA29">
         <f>(State_ContributionTestResults!AC29-State_ContributionTestResults!AC$2)*-1</f>
-        <v>-550</v>
+        <v>-242</v>
       </c>
       <c r="AB29">
         <f>(State_ContributionTestResults!AD29-State_ContributionTestResults!AD$2)*-1</f>
-        <v>-590</v>
+        <v>-253</v>
       </c>
       <c r="AC29">
         <f>(State_ContributionTestResults!AE29-State_ContributionTestResults!AE$2)*-1</f>
-        <v>-634</v>
+        <v>-264</v>
       </c>
       <c r="AD29">
         <f>(State_ContributionTestResults!AF29-State_ContributionTestResults!AF$2)*-1</f>
-        <v>-641</v>
+        <v>-227</v>
       </c>
       <c r="AE29">
         <f>(State_ContributionTestResults!AG29-State_ContributionTestResults!AG$2)*-1</f>
-        <v>-705</v>
+        <v>-311</v>
       </c>
       <c r="AF29">
         <f>(State_ContributionTestResults!AH29-State_ContributionTestResults!AH$2)*-1</f>
-        <v>-747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+        <v>-282</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>438</v>
       </c>
@@ -35862,127 +36208,136 @@
       </c>
       <c r="C30">
         <f>(State_ContributionTestResults!E30-State_ContributionTestResults!E$2)*-1</f>
-        <v>23158</v>
+        <v>12702</v>
       </c>
       <c r="D30">
         <f>(State_ContributionTestResults!F30-State_ContributionTestResults!F$2)*-1</f>
-        <v>57370</v>
+        <v>25868</v>
       </c>
       <c r="E30">
         <f>(State_ContributionTestResults!G30-State_ContributionTestResults!G$2)*-1</f>
-        <v>81230</v>
+        <v>37183</v>
       </c>
       <c r="F30">
         <f>(State_ContributionTestResults!H30-State_ContributionTestResults!H$2)*-1</f>
-        <v>101871</v>
+        <v>48876</v>
       </c>
       <c r="G30">
         <f>(State_ContributionTestResults!I30-State_ContributionTestResults!I$2)*-1</f>
-        <v>122120</v>
+        <v>60694</v>
       </c>
       <c r="H30">
         <f>(State_ContributionTestResults!J30-State_ContributionTestResults!J$2)*-1</f>
-        <v>139929</v>
+        <v>71003</v>
       </c>
       <c r="I30">
         <f>(State_ContributionTestResults!K30-State_ContributionTestResults!K$2)*-1</f>
-        <v>155409</v>
+        <v>80272</v>
       </c>
       <c r="J30">
         <f>(State_ContributionTestResults!L30-State_ContributionTestResults!L$2)*-1</f>
-        <v>169740</v>
+        <v>89188</v>
       </c>
       <c r="K30">
         <f>(State_ContributionTestResults!M30-State_ContributionTestResults!M$2)*-1</f>
-        <v>182440</v>
+        <v>97688</v>
       </c>
       <c r="L30">
         <f>(State_ContributionTestResults!N30-State_ContributionTestResults!N$2)*-1</f>
-        <v>194917</v>
+        <v>106679</v>
       </c>
       <c r="M30">
         <f>(State_ContributionTestResults!O30-State_ContributionTestResults!O$2)*-1</f>
-        <v>210167</v>
+        <v>116077</v>
       </c>
       <c r="N30">
         <f>(State_ContributionTestResults!P30-State_ContributionTestResults!P$2)*-1</f>
-        <v>227277</v>
+        <v>124756</v>
       </c>
       <c r="O30">
         <f>(State_ContributionTestResults!Q30-State_ContributionTestResults!Q$2)*-1</f>
-        <v>245076</v>
+        <v>133980</v>
       </c>
       <c r="P30">
         <f>(State_ContributionTestResults!R30-State_ContributionTestResults!R$2)*-1</f>
-        <v>261137</v>
+        <v>141312</v>
       </c>
       <c r="Q30">
         <f>(State_ContributionTestResults!S30-State_ContributionTestResults!S$2)*-1</f>
-        <v>275966</v>
+        <v>148796</v>
       </c>
       <c r="R30">
         <f>(State_ContributionTestResults!T30-State_ContributionTestResults!T$2)*-1</f>
-        <v>293125</v>
+        <v>157303</v>
       </c>
       <c r="S30">
         <f>(State_ContributionTestResults!U30-State_ContributionTestResults!U$2)*-1</f>
-        <v>312222</v>
+        <v>168775</v>
       </c>
       <c r="T30">
         <f>(State_ContributionTestResults!V30-State_ContributionTestResults!V$2)*-1</f>
-        <v>329400</v>
+        <v>177398</v>
       </c>
       <c r="U30">
         <f>(State_ContributionTestResults!W30-State_ContributionTestResults!W$2)*-1</f>
-        <v>348682</v>
+        <v>188060</v>
       </c>
       <c r="V30">
         <f>(State_ContributionTestResults!X30-State_ContributionTestResults!X$2)*-1</f>
-        <v>367657</v>
+        <v>196968</v>
       </c>
       <c r="W30">
         <f>(State_ContributionTestResults!Y30-State_ContributionTestResults!Y$2)*-1</f>
-        <v>381727</v>
+        <v>204047</v>
       </c>
       <c r="X30">
         <f>(State_ContributionTestResults!Z30-State_ContributionTestResults!Z$2)*-1</f>
-        <v>392935</v>
+        <v>207744</v>
       </c>
       <c r="Y30">
         <f>(State_ContributionTestResults!AA30-State_ContributionTestResults!AA$2)*-1</f>
-        <v>407837</v>
+        <v>215314</v>
       </c>
       <c r="Z30">
         <f>(State_ContributionTestResults!AB30-State_ContributionTestResults!AB$2)*-1</f>
-        <v>420355</v>
+        <v>220252</v>
       </c>
       <c r="AA30">
         <f>(State_ContributionTestResults!AC30-State_ContributionTestResults!AC$2)*-1</f>
-        <v>431200</v>
+        <v>226120</v>
       </c>
       <c r="AB30">
         <f>(State_ContributionTestResults!AD30-State_ContributionTestResults!AD$2)*-1</f>
-        <v>445634</v>
+        <v>233577</v>
       </c>
       <c r="AC30">
         <f>(State_ContributionTestResults!AE30-State_ContributionTestResults!AE$2)*-1</f>
-        <v>462266</v>
+        <v>242267</v>
       </c>
       <c r="AD30">
         <f>(State_ContributionTestResults!AF30-State_ContributionTestResults!AF$2)*-1</f>
-        <v>482277</v>
+        <v>254162</v>
       </c>
       <c r="AE30">
         <f>(State_ContributionTestResults!AG30-State_ContributionTestResults!AG$2)*-1</f>
-        <v>503567</v>
+        <v>267045</v>
       </c>
       <c r="AF30">
         <f>(State_ContributionTestResults!AH30-State_ContributionTestResults!AH$2)*-1</f>
-        <v>526450</v>
+        <v>280980</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="0"/>
+        <v>280980</v>
+      </c>
+      <c r="AH30" s="36">
+        <f>SUM(AH2:AH29)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35990,8 +36345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF1106-6491-4B43-99FA-E57987E1AD59}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39054,8 +39409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75035ECA-6A57-4A3D-95D0-51E33DF5366E}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52716,8 +53071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC18E7E7-6F8C-43D8-8AC7-26031F8B165B}">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView topLeftCell="E194" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E253"/>
+    <sheetView topLeftCell="E236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
